--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaud/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/Downloads/cpp-master/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EDF29-9DB8-6E4B-936F-9F532A82AFE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C2114-35DE-DC4F-A3FA-7D01D4F05D3F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18920" yWindow="1720" windowWidth="34280" windowHeight="23340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
+    <sheet name="Explications" sheetId="3" r:id="rId2"/>
+    <sheet name="Commentaires" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -108,12 +110,231 @@
   <si>
     <t>cola</t>
   </si>
+  <si>
+    <t>Les données sont plutôt des données des montants mensuels maximaux</t>
+  </si>
+  <si>
+    <t>*Ces données se trouvent das les colonnes surmax60 et survmax65 dans l'onglet qppyear.</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>% reçu avec facteur</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Les données des colonnes B et C ont été prises directement des documents de Retraite Québec. Liens déposés sur "Claim".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Notes sur les paramètres du QPP	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: J'ai apporté des petits changements dans les colonnes du MGA et de l'exemption générale pour l'année 1970. Les changements apportés dans le documents sont en rouge. Après discussion, je les remettrai en noir.						
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Après vérification, j'ai remarqué que le facteur d'ajustement pour la prestation de la rente avant 65 ans avait quelques erreurs. Alors, j'ai corrigé et mis en rouge pour faciliter l'identification.		
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Je n'ai pas compris pourquoi les facteurs d'ajustement de la rente (arc et drf) était de 0,6 avant 1984 dans le QPP. Étant donné que la possibilité de réclamer la rente plus tôt a été intrdouite en 1984, ma compréhension est que le facteur d'ajustement pour la réclamation avant 65 ans entre en vigueur cette année-là, de même que le bonus. Je les ai mis à zéro avant 1984. On en discutera.	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Les données des colonnes survmax60 et survmax65 correspondent à la rente maximale si l'individu commence les prestations à 60 ou 65 ans saud pour 2016 à 2018 où les données ne concordent pas avec celles de Retraite Québec. J'ai deux interrogations sur ces colonnes. Pourquoi les mêmes montants sont entrées dans les colonnes de 60 et 65 ans. S'il s'agit de la rente maximale, les montants devraient être différents. Dans l'onglet ""commentaires"", j'ai mis les données qui devraient être rentrées si c'est bien le cas. 
+Par ailleurs, si c'est le cas, je me demande pourquoi on débute en 2017 et non en 1966 car on a les données pour ces années-là.
+Le fait que les titres des deux colonnes commencent par surv, je me demandais si c'est pas la rente maximale du survivant. Si c'est le cas, les données rentrées ne concordent pas non plus avec celles de Retraite Québec. 
+On en discutera. En attendant, je les ai laissées comme telles en ajoutant des propositions à l'onglet ""commentaires"". 
+À discuter!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Je me demande pourquoi le taux de 25% appliqué au MGA pour le "earning test" commence en 1990. Selon le document que j'ai lu, il est applicable dès lors que la possibilité de débuter la prestation à 60 ans car c'était la règle d'éligibilité.			
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> De 2012 à 2014, survmax60 cpp et rrq sont différents parce que l'augmentation à 7.2% du CPP est graduel.
+La règle s'énonce ainsi :  "À compter du 1er janvier 2014, ce facteur d'ajustement variera de 0,5 % à 0,6 % en fonction du montant de la rente : il demeurera à 0,5 % pour une personne qui reçoit une rente très faible, et augmentera graduellement de 2014 à 2016 jusqu'à 0,6 % pour une personne qui reçoit la rente maximale."			
+																		</t>
+    </r>
+  </si>
+  <si>
+    <t>arf cumulatif pour 5 ans</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_)\ _$_ ;_ * \(#,##0.0000\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_)\ _$_ ;_ * \(#,##0.0000\)\ _$_ ;_ * &quot;-&quot;????_)\ _$_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,8 +469,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Corps)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Corps)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +675,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -546,7 +798,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -589,31 +841,62 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -623,11 +906,12 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Milliers" xfId="42" builtinId="3"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -951,16 +1235,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="16" max="17" width="10.83203125" style="14"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,10 +1293,10 @@
       <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R1" t="s">
@@ -1049,7 +1336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>1966</v>
       </c>
@@ -1069,11 +1356,11 @@
         <f>D2+E2</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G2" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.06</v>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -1096,10 +1383,10 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="P2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15">
         <v>0</v>
       </c>
       <c r="R2" s="1">
@@ -1139,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>1967</v>
       </c>
@@ -1159,11 +1446,11 @@
         <f t="shared" ref="F3:F54" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G3" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.06</v>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -1186,10 +1473,10 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <v>0</v>
       </c>
       <c r="R3" s="1">
@@ -1229,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>1968</v>
       </c>
@@ -1249,11 +1536,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G4" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.06</v>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -1276,10 +1563,10 @@
       <c r="O4" s="1">
         <v>25.5</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
         <v>0</v>
       </c>
       <c r="R4" s="1">
@@ -1315,11 +1602,11 @@
       <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>1969</v>
       </c>
@@ -1339,11 +1626,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G5" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.06</v>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -1366,10 +1653,10 @@
       <c r="O5" s="1">
         <v>26.01</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
         <v>0</v>
       </c>
       <c r="R5" s="1">
@@ -1405,11 +1692,11 @@
       <c r="AB5" s="1">
         <v>0</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>1970</v>
       </c>
@@ -1429,11 +1716,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G6" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.06</v>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -1456,10 +1743,10 @@
       <c r="O6" s="1">
         <v>26.53</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
         <v>0</v>
       </c>
       <c r="R6" s="1">
@@ -1495,11 +1782,11 @@
       <c r="AB6" s="1">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>1971</v>
       </c>
@@ -1519,11 +1806,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G7" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.06</v>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -1546,10 +1833,10 @@
       <c r="O7" s="1">
         <v>27.06</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
         <v>0</v>
       </c>
       <c r="R7" s="1">
@@ -1585,11 +1872,11 @@
       <c r="AB7" s="1">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="1" customFormat="1">
       <c r="A8" s="2">
         <v>1972</v>
       </c>
@@ -1609,11 +1896,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G8" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.06</v>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -1636,10 +1923,10 @@
       <c r="O8" s="1">
         <v>27.6</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
         <v>0</v>
       </c>
       <c r="R8" s="1">
@@ -1675,19 +1962,19 @@
       <c r="AB8" s="1">
         <v>80</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="1" customFormat="1">
       <c r="A9" s="2">
         <v>1973</v>
       </c>
-      <c r="B9" s="2">
-        <v>5600</v>
-      </c>
-      <c r="C9" s="2">
-        <v>600</v>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>1.7999999999999999E-2</v>
@@ -1699,11 +1986,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G9" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.06</v>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1726,10 +2013,10 @@
       <c r="O9" s="1">
         <v>80</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
         <v>0</v>
       </c>
       <c r="R9" s="1">
@@ -1769,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>1974</v>
       </c>
@@ -1789,11 +2076,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G10" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.06</v>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1816,10 +2103,10 @@
       <c r="O10" s="1">
         <v>86.56</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
         <v>0</v>
       </c>
       <c r="R10" s="1">
@@ -1859,7 +2146,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>1975</v>
       </c>
@@ -1879,11 +2166,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G11" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.06</v>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -1906,10 +2193,10 @@
       <c r="O11" s="1">
         <v>95.56</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
         <v>0</v>
       </c>
       <c r="R11" s="1">
@@ -1949,7 +2236,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="1" customFormat="1">
       <c r="A12" s="2">
         <v>1976</v>
       </c>
@@ -1969,11 +2256,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G12" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.06</v>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1996,10 +2283,10 @@
       <c r="O12" s="1">
         <v>106.26</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
         <v>0</v>
       </c>
       <c r="R12" s="1">
@@ -2039,7 +2326,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>1977</v>
       </c>
@@ -2059,11 +2346,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G13" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.06</v>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -2086,10 +2373,10 @@
       <c r="O13" s="1">
         <v>114.96</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
         <v>0</v>
       </c>
       <c r="R13" s="1">
@@ -2129,7 +2416,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="1" customFormat="1">
       <c r="A14" s="2">
         <v>1978</v>
       </c>
@@ -2149,11 +2436,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G14" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.06</v>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -2176,10 +2463,10 @@
       <c r="O14" s="1">
         <v>123.56</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
         <v>0</v>
       </c>
       <c r="R14" s="1">
@@ -2219,7 +2506,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1">
       <c r="A15" s="2">
         <v>1979</v>
       </c>
@@ -2239,11 +2526,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G15" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.06</v>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -2266,10 +2553,10 @@
       <c r="O15" s="1">
         <v>134.63999999999999</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
         <v>0</v>
       </c>
       <c r="R15" s="1">
@@ -2309,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="1" customFormat="1">
       <c r="A16" s="2">
         <v>1980</v>
       </c>
@@ -2329,11 +2616,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G16" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.06</v>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
@@ -2356,10 +2643,10 @@
       <c r="O16" s="1">
         <v>146.78</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
         <v>0</v>
       </c>
       <c r="R16" s="1">
@@ -2399,7 +2686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>1981</v>
       </c>
@@ -2419,11 +2706,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.06</v>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
@@ -2446,10 +2733,10 @@
       <c r="O17" s="1">
         <v>161.31</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
         <v>0</v>
       </c>
       <c r="R17" s="1">
@@ -2489,7 +2776,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>1982</v>
       </c>
@@ -2509,11 +2796,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G18" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.06</v>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -2536,10 +2823,10 @@
       <c r="O18" s="1">
         <v>181.18</v>
       </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
         <v>0</v>
       </c>
       <c r="R18" s="1">
@@ -2579,7 +2866,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>1983</v>
       </c>
@@ -2599,11 +2886,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G19" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.06</v>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
@@ -2626,10 +2913,10 @@
       <c r="O19" s="1">
         <v>201.44</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
         <v>0</v>
       </c>
       <c r="R19" s="1">
@@ -2669,7 +2956,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>1984</v>
       </c>
@@ -2689,8 +2976,8 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G20" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G20" s="11">
+        <v>0.06</v>
       </c>
       <c r="H20" s="1">
         <v>0.06</v>
@@ -2716,10 +3003,10 @@
       <c r="O20" s="1">
         <v>214.94</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
         <v>0</v>
       </c>
       <c r="R20" s="1">
@@ -2743,7 +3030,7 @@
       <c r="X20" s="1">
         <v>70</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="11">
         <v>0</v>
       </c>
       <c r="Z20" s="1">
@@ -2759,7 +3046,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>1985</v>
       </c>
@@ -2779,8 +3066,8 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G21" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G21" s="11">
+        <v>0.06</v>
       </c>
       <c r="H21" s="1">
         <v>0.06</v>
@@ -2806,10 +3093,10 @@
       <c r="O21" s="1">
         <v>224.4</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
         <v>0</v>
       </c>
       <c r="R21" s="1">
@@ -2833,7 +3120,7 @@
       <c r="X21" s="1">
         <v>70</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="11">
         <v>0</v>
       </c>
       <c r="Z21" s="1">
@@ -2849,7 +3136,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>1986</v>
       </c>
@@ -2869,8 +3156,8 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G22" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G22" s="11">
+        <v>0.06</v>
       </c>
       <c r="H22" s="1">
         <v>0.06</v>
@@ -2896,10 +3183,10 @@
       <c r="O22" s="1">
         <v>233.38</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
         <v>0</v>
       </c>
       <c r="R22" s="1">
@@ -2923,7 +3210,7 @@
       <c r="X22" s="1">
         <v>70</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="11">
         <v>0</v>
       </c>
       <c r="Z22" s="1">
@@ -2939,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>1987</v>
       </c>
@@ -2959,8 +3246,8 @@
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G23" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G23" s="11">
+        <v>0.06</v>
       </c>
       <c r="H23" s="1">
         <v>0.06</v>
@@ -2986,10 +3273,10 @@
       <c r="O23" s="1">
         <v>242.95</v>
       </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15">
         <v>0</v>
       </c>
       <c r="R23" s="1">
@@ -3013,7 +3300,7 @@
       <c r="X23" s="1">
         <v>70</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="11">
         <v>0</v>
       </c>
       <c r="Z23" s="1">
@@ -3029,7 +3316,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="1" customFormat="1">
       <c r="A24" s="2">
         <v>1988</v>
       </c>
@@ -3049,8 +3336,8 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G24" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G24" s="11">
+        <v>0.06</v>
       </c>
       <c r="H24" s="1">
         <v>0.06</v>
@@ -3076,10 +3363,10 @@
       <c r="O24" s="1">
         <v>253.64</v>
       </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
         <v>0</v>
       </c>
       <c r="R24" s="1">
@@ -3103,7 +3390,7 @@
       <c r="X24" s="1">
         <v>70</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="11">
         <v>0</v>
       </c>
       <c r="Z24" s="1">
@@ -3119,7 +3406,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="1" customFormat="1">
       <c r="A25" s="2">
         <v>1989</v>
       </c>
@@ -3139,8 +3426,8 @@
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G25" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G25" s="11">
+        <v>0.06</v>
       </c>
       <c r="H25" s="1">
         <v>0.06</v>
@@ -3166,10 +3453,10 @@
       <c r="O25" s="1">
         <v>264.04000000000002</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
         <v>0</v>
       </c>
       <c r="R25" s="1">
@@ -3193,7 +3480,7 @@
       <c r="X25" s="1">
         <v>70</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="11">
         <v>0</v>
       </c>
       <c r="Z25" s="1">
@@ -3209,7 +3496,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>1990</v>
       </c>
@@ -3229,8 +3516,8 @@
         <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G26" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G26" s="11">
+        <v>0.06</v>
       </c>
       <c r="H26" s="1">
         <v>0.06</v>
@@ -3256,10 +3543,10 @@
       <c r="O26" s="1">
         <v>276.70999999999998</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
         <v>0</v>
       </c>
       <c r="R26" s="1">
@@ -3299,7 +3586,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>1991</v>
       </c>
@@ -3319,8 +3606,8 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G27" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G27" s="11">
+        <v>0.06</v>
       </c>
       <c r="H27" s="1">
         <v>0.06</v>
@@ -3346,10 +3633,10 @@
       <c r="O27" s="1">
         <v>289.99</v>
       </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
         <v>0</v>
       </c>
       <c r="R27" s="1">
@@ -3389,7 +3676,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>1992</v>
       </c>
@@ -3409,8 +3696,8 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G28" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G28" s="11">
+        <v>0.06</v>
       </c>
       <c r="H28" s="1">
         <v>0.06</v>
@@ -3436,10 +3723,10 @@
       <c r="O28" s="1">
         <v>306.81</v>
       </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
         <v>0</v>
       </c>
       <c r="R28" s="1">
@@ -3479,7 +3766,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>1993</v>
       </c>
@@ -3499,8 +3786,8 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G29" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G29" s="11">
+        <v>0.06</v>
       </c>
       <c r="H29" s="1">
         <v>0.06</v>
@@ -3526,10 +3813,10 @@
       <c r="O29" s="1">
         <v>312.33</v>
       </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
         <v>0</v>
       </c>
       <c r="R29" s="1">
@@ -3569,7 +3856,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>1994</v>
       </c>
@@ -3589,8 +3876,8 @@
         <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G30" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G30" s="11">
+        <v>0.06</v>
       </c>
       <c r="H30" s="1">
         <v>0.06</v>
@@ -3616,10 +3903,10 @@
       <c r="O30" s="1">
         <v>81.52</v>
       </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
         <v>0</v>
       </c>
       <c r="R30" s="1">
@@ -3659,7 +3946,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>1995</v>
       </c>
@@ -3679,8 +3966,8 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G31" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G31" s="11">
+        <v>0.06</v>
       </c>
       <c r="H31" s="1">
         <v>0.06</v>
@@ -3706,10 +3993,10 @@
       <c r="O31" s="1">
         <v>81.52</v>
       </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
         <v>0</v>
       </c>
       <c r="R31" s="1">
@@ -3749,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>1996</v>
       </c>
@@ -3769,8 +4056,8 @@
         <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G32" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G32" s="11">
+        <v>0.06</v>
       </c>
       <c r="H32" s="1">
         <v>0.06</v>
@@ -3796,10 +4083,10 @@
       <c r="O32" s="1">
         <v>83.39</v>
       </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
         <v>0</v>
       </c>
       <c r="R32" s="1">
@@ -3839,7 +4126,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>1997</v>
       </c>
@@ -3859,8 +4146,8 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G33" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G33" s="11">
+        <v>0.06</v>
       </c>
       <c r="H33" s="1">
         <v>0.06</v>
@@ -3886,10 +4173,10 @@
       <c r="O33" s="1">
         <v>84.64</v>
       </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
         <v>0</v>
       </c>
       <c r="R33" s="1">
@@ -3929,7 +4216,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>1998</v>
       </c>
@@ -3949,8 +4236,8 @@
         <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G34" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G34" s="11">
+        <v>0.06</v>
       </c>
       <c r="H34" s="1">
         <v>0.06</v>
@@ -3976,10 +4263,10 @@
       <c r="O34" s="1">
         <v>86.25</v>
       </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="P34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15">
         <v>0</v>
       </c>
       <c r="R34" s="1">
@@ -4019,7 +4306,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>1999</v>
       </c>
@@ -4039,8 +4326,8 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G35" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G35" s="11">
+        <v>0.06</v>
       </c>
       <c r="H35" s="1">
         <v>0.06</v>
@@ -4066,10 +4353,10 @@
       <c r="O35" s="1">
         <v>87.03</v>
       </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
         <v>0</v>
       </c>
       <c r="R35" s="1">
@@ -4109,7 +4396,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>2000</v>
       </c>
@@ -4129,8 +4416,8 @@
         <f t="shared" si="0"/>
         <v>7.8E-2</v>
       </c>
-      <c r="G36" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G36" s="11">
+        <v>0.06</v>
       </c>
       <c r="H36" s="1">
         <v>0.06</v>
@@ -4156,10 +4443,10 @@
       <c r="O36" s="1">
         <v>88.42</v>
       </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15">
         <v>0</v>
       </c>
       <c r="R36" s="1">
@@ -4199,7 +4486,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>2001</v>
       </c>
@@ -4219,8 +4506,8 @@
         <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G37" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G37" s="11">
+        <v>0.06</v>
       </c>
       <c r="H37" s="1">
         <v>0.06</v>
@@ -4246,10 +4533,10 @@
       <c r="O37" s="1">
         <v>90.63</v>
       </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
         <v>0</v>
       </c>
       <c r="R37" s="1">
@@ -4289,7 +4576,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>2002</v>
       </c>
@@ -4309,8 +4596,8 @@
         <f t="shared" si="0"/>
         <v>9.4E-2</v>
       </c>
-      <c r="G38" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G38" s="11">
+        <v>0.06</v>
       </c>
       <c r="H38" s="1">
         <v>0.06</v>
@@ -4336,10 +4623,10 @@
       <c r="O38" s="1">
         <v>93.35</v>
       </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="P38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15">
         <v>0</v>
       </c>
       <c r="R38" s="1">
@@ -4379,7 +4666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>2003</v>
       </c>
@@ -4399,8 +4686,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G39" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G39" s="11">
+        <v>0.06</v>
       </c>
       <c r="H39" s="1">
         <v>0.06</v>
@@ -4426,10 +4713,10 @@
       <c r="O39" s="1">
         <v>94.84</v>
       </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
         <v>0</v>
       </c>
       <c r="R39" s="1">
@@ -4469,7 +4756,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" s="1" customFormat="1">
       <c r="A40" s="2">
         <v>2004</v>
       </c>
@@ -4489,8 +4776,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G40" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G40" s="11">
+        <v>0.06</v>
       </c>
       <c r="H40" s="1">
         <v>0.06</v>
@@ -4516,10 +4803,10 @@
       <c r="O40" s="1">
         <v>97.87</v>
       </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="P40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15">
         <v>0</v>
       </c>
       <c r="R40" s="1">
@@ -4559,7 +4846,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" s="1" customFormat="1">
       <c r="A41" s="2">
         <v>2005</v>
       </c>
@@ -4579,8 +4866,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G41" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G41" s="11">
+        <v>0.06</v>
       </c>
       <c r="H41" s="1">
         <v>0.06</v>
@@ -4606,10 +4893,10 @@
       <c r="O41" s="1">
         <v>99.53</v>
       </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
         <v>0</v>
       </c>
       <c r="R41" s="1">
@@ -4649,7 +4936,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" s="1" customFormat="1">
       <c r="A42" s="2">
         <v>2006</v>
       </c>
@@ -4669,8 +4956,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G42" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G42" s="11">
+        <v>0.06</v>
       </c>
       <c r="H42" s="1">
         <v>0.06</v>
@@ -4696,10 +4983,10 @@
       <c r="O42" s="1">
         <v>101.82</v>
       </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
+      <c r="P42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15">
         <v>0</v>
       </c>
       <c r="R42" s="1">
@@ -4739,7 +5026,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" s="1" customFormat="1">
       <c r="A43" s="2">
         <v>2007</v>
       </c>
@@ -4759,8 +5046,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G43" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G43" s="11">
+        <v>0.06</v>
       </c>
       <c r="H43" s="1">
         <v>0.06</v>
@@ -4786,10 +5073,10 @@
       <c r="O43" s="1">
         <v>103.96</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="15">
         <v>10365</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="15">
         <v>10365</v>
       </c>
       <c r="R43" s="1">
@@ -4829,7 +5116,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" s="1" customFormat="1">
       <c r="A44" s="2">
         <v>2008</v>
       </c>
@@ -4849,8 +5136,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G44" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G44" s="11">
+        <v>0.06</v>
       </c>
       <c r="H44" s="1">
         <v>0.06</v>
@@ -4876,10 +5163,10 @@
       <c r="O44" s="1">
         <v>106.04</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="15">
         <v>10614.96</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="15">
         <v>10614.96</v>
       </c>
       <c r="R44" s="1">
@@ -4919,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" s="1" customFormat="1">
       <c r="A45" s="2">
         <v>2009</v>
       </c>
@@ -4939,8 +5226,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G45" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G45" s="11">
+        <v>0.06</v>
       </c>
       <c r="H45" s="1">
         <v>0.06</v>
@@ -4966,10 +5253,10 @@
       <c r="O45" s="1">
         <v>108.69</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="15">
         <v>10905</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="15">
         <v>10905</v>
       </c>
       <c r="R45" s="1">
@@ -5009,7 +5296,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="1" customFormat="1">
       <c r="A46" s="2">
         <v>2010</v>
       </c>
@@ -5029,8 +5316,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G46" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G46" s="11">
+        <v>0.06</v>
       </c>
       <c r="H46" s="1">
         <v>0.06</v>
@@ -5056,10 +5343,10 @@
       <c r="O46" s="1">
         <v>109.12</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="15">
         <v>11210.04</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="15">
         <v>11210.04</v>
       </c>
       <c r="R46" s="1">
@@ -5099,7 +5386,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" s="1" customFormat="1">
       <c r="A47" s="2">
         <v>2011</v>
       </c>
@@ -5119,8 +5406,8 @@
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G47" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G47" s="11">
+        <v>0.06</v>
       </c>
       <c r="H47" s="1">
         <v>0.06</v>
@@ -5146,10 +5433,10 @@
       <c r="O47" s="1">
         <v>110.98</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="15">
         <v>11520</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="15">
         <v>11520</v>
       </c>
       <c r="R47" s="1">
@@ -5189,7 +5476,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" s="1" customFormat="1">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -5209,8 +5496,8 @@
         <f t="shared" si="0"/>
         <v>0.10050000000000001</v>
       </c>
-      <c r="G48" s="1">
-        <v>6.2399999999999997E-2</v>
+      <c r="G48" s="11">
+        <v>0.06</v>
       </c>
       <c r="H48" s="1">
         <v>0.06</v>
@@ -5236,10 +5523,10 @@
       <c r="O48" s="1">
         <v>114.09</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="15">
         <v>11840.04</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="15">
         <v>11840.04</v>
       </c>
       <c r="R48" s="1">
@@ -5279,7 +5566,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" s="1" customFormat="1">
       <c r="A49" s="2">
         <v>2013</v>
       </c>
@@ -5299,8 +5586,8 @@
         <f t="shared" si="0"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="G49" s="1">
-        <v>6.4799999999999996E-2</v>
+      <c r="G49" s="11">
+        <v>0.06</v>
       </c>
       <c r="H49" s="1">
         <v>8.4000000000000005E-2</v>
@@ -5326,10 +5613,10 @@
       <c r="O49" s="1">
         <v>116.14</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="15">
         <v>12150</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="15">
         <v>12150</v>
       </c>
       <c r="R49" s="1">
@@ -5369,7 +5656,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" s="1" customFormat="1">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -5389,8 +5676,8 @@
         <f t="shared" si="0"/>
         <v>0.10349999999999999</v>
       </c>
-      <c r="G50" s="1">
-        <v>6.7199999999999996E-2</v>
+      <c r="G50" s="11">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H50" s="1">
         <v>8.4000000000000005E-2</v>
@@ -5416,10 +5703,10 @@
       <c r="O50" s="1">
         <v>117.19</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="15">
         <v>12459.96</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="15">
         <v>12459.96</v>
       </c>
       <c r="R50" s="1">
@@ -5444,7 +5731,7 @@
         <v>70</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="Z50" s="1">
         <v>5.0000000000000001E-3</v>
@@ -5459,7 +5746,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" s="1" customFormat="1">
       <c r="A51" s="2">
         <v>2015</v>
       </c>
@@ -5479,8 +5766,8 @@
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="G51" s="1">
-        <v>6.9599999999999995E-2</v>
+      <c r="G51" s="11">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H51" s="1">
         <v>8.4000000000000005E-2</v>
@@ -5506,10 +5793,10 @@
       <c r="O51" s="1">
         <v>119.3</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="15">
         <v>12780</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="15">
         <v>12780</v>
       </c>
       <c r="R51" s="1">
@@ -5549,7 +5836,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" s="1" customFormat="1">
       <c r="A52" s="2">
         <v>2016</v>
       </c>
@@ -5569,7 +5856,7 @@
         <f t="shared" si="0"/>
         <v>0.1065</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H52" s="1">
@@ -5596,10 +5883,10 @@
       <c r="O52" s="1">
         <v>120.73</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="15">
         <v>12907.8</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="15">
         <v>12907.8</v>
       </c>
       <c r="R52" s="1">
@@ -5639,7 +5926,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" s="1" customFormat="1">
       <c r="A53" s="2">
         <v>2017</v>
       </c>
@@ -5659,7 +5946,7 @@
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H53" s="1">
@@ -5686,10 +5973,10 @@
       <c r="O53" s="1">
         <v>122.42</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="15">
         <v>13036.88</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="15">
         <v>13036.88</v>
       </c>
       <c r="R53" s="1">
@@ -5729,7 +6016,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" s="1" customFormat="1">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -5749,7 +6036,7 @@
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H54" s="1">
@@ -5776,10 +6063,10 @@
       <c r="O54" s="1">
         <v>124.26</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="15">
         <v>13167.25</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="15">
         <v>13167.25</v>
       </c>
       <c r="R54" s="1">
@@ -5819,22 +6106,587 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:29" s="1" customFormat="1">
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+    </row>
+    <row r="56" spans="1:29" s="1" customFormat="1">
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+    </row>
+    <row r="57" spans="1:29" s="1" customFormat="1">
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="1:29" s="1" customFormat="1">
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="1:29" s="1" customFormat="1">
+      <c r="M59"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+    </row>
+    <row r="60" spans="1:29" s="1" customFormat="1">
+      <c r="M60"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+    </row>
+    <row r="61" spans="1:29" s="1" customFormat="1">
+      <c r="M61"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+    </row>
+    <row r="62" spans="1:29" s="1" customFormat="1">
+      <c r="M62"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+    </row>
+    <row r="63" spans="1:29" s="1" customFormat="1">
+      <c r="M63"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+    </row>
+    <row r="64" spans="1:29" s="1" customFormat="1">
+      <c r="M64"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="13:17" s="1" customFormat="1">
+      <c r="M65"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="13:17" s="1" customFormat="1">
+      <c r="M66"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="13:17" s="1" customFormat="1">
+      <c r="M67"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="13:17" s="1" customFormat="1">
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="15"/>
+    </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FEEAA4-1C42-0742-B3DE-2797637A391A}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="56" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="51" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" ht="89" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="224" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="200" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E004F11C-2754-1046-AD10-91CBB6D0E867}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="23">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="1">
+        <f>604.63*12</f>
+        <v>7255.5599999999995</v>
+      </c>
+      <c r="C4" s="1">
+        <f>863.75*12</f>
+        <v>10365</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="1">
+        <f>619.21*12</f>
+        <v>7430.52</v>
+      </c>
+      <c r="C5" s="1">
+        <f>884.58*12</f>
+        <v>10614.960000000001</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="1">
+        <f>636.13*12</f>
+        <v>7633.5599999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <f>908.75*12</f>
+        <v>10905</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="1">
+        <f>653.92*12</f>
+        <v>7847.0399999999991</v>
+      </c>
+      <c r="C7" s="1">
+        <f>934.17*12</f>
+        <v>11210.039999999999</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="19"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1">
+        <f>672*12</f>
+        <v>8064</v>
+      </c>
+      <c r="C8" s="1">
+        <f>960*12</f>
+        <v>11520</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="1">
+        <f>690.67*12</f>
+        <v>8288.0399999999991</v>
+      </c>
+      <c r="C9" s="1">
+        <f>986.67*12</f>
+        <v>11840.039999999999</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="19">
+        <f>B9/C9</f>
+        <v>0.70000101351008948</v>
+      </c>
+      <c r="F9" s="8">
+        <f>1-E9</f>
+        <v>0.29999898648991052</v>
+      </c>
+      <c r="G9" s="6">
+        <f>F9/60</f>
+        <v>4.9999831081651751E-3</v>
+      </c>
+      <c r="H9" s="9">
+        <f>1-F9</f>
+        <v>0.70000101351008948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="1">
+        <f>708.75*12</f>
+        <v>8505</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1012.5*12</f>
+        <v>12150</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="19">
+        <f t="shared" ref="E10:E15" si="0">B10/C10</f>
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F15" si="1">1-E10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" ref="G10:G15" si="2">F10/60</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" ref="H10:H15" si="3">1-F10</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="1">
+        <f>708.14*12</f>
+        <v>8497.68</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1038.33*12</f>
+        <v>12459.96</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.68199897912994911</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31800102087005089</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3000170145008482E-3</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68199897912994911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="1">
+        <f>707.16*12</f>
+        <v>8485.92</v>
+      </c>
+      <c r="C12" s="1">
+        <f>1065*12</f>
+        <v>12780</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33599999999999997</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999991E-3</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <f>699.2*12</f>
+        <v>8390.4000000000015</v>
+      </c>
+      <c r="C13">
+        <f>1092.5*12</f>
+        <v>13110</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999975E-3</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <f>713.07*12</f>
+        <v>8556.84</v>
+      </c>
+      <c r="C14">
+        <f>1114.17*12</f>
+        <v>13370.04</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.64000107703492282</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35999892296507718</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9999820494179533E-3</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64000107703492282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B15">
+        <f>725.87*12</f>
+        <v>8710.44</v>
+      </c>
+      <c r="C15">
+        <f>1134.17*12</f>
+        <v>13610.04</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.64000105804244511</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35999894195755489</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9999823659592482E-3</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64000105804244511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="37" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A19:H19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaud/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796F935-819A-184D-83EA-9327AB25BB04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49BAC9-6000-8546-8770-A1C5BB158F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1160" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="18720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="179021" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,6 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -596,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +616,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,10 +977,10 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,20 +1089,20 @@
       <c r="C2" s="6">
         <v>600</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="10">
         <f>D2+E2</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <v>0</v>
       </c>
       <c r="I2" s="6">
@@ -1112,10 +1126,10 @@
       <c r="O2" s="6">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="6">
@@ -1124,10 +1138,10 @@
       <c r="S2" s="6">
         <v>65</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="10">
         <v>0.375</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="10">
         <v>0.6</v>
       </c>
       <c r="V2" s="6">
@@ -1139,10 +1153,10 @@
       <c r="X2" s="6">
         <v>70</v>
       </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6">
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
         <v>0</v>
       </c>
       <c r="AA2" s="6">
@@ -1165,20 +1179,20 @@
       <c r="C3" s="6">
         <v>600</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F54" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -1202,11 +1216,11 @@
       <c r="O3" s="6">
         <v>0</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
+      <c r="P3" s="1">
+        <v>239.64</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>239.64</v>
       </c>
       <c r="R3" s="6">
         <v>45</v>
@@ -1214,10 +1228,10 @@
       <c r="S3" s="6">
         <v>65</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="10">
         <v>0.375</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="10">
         <v>0.6</v>
       </c>
       <c r="V3" s="6">
@@ -1229,10 +1243,10 @@
       <c r="X3" s="6">
         <v>70</v>
       </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="6">
@@ -1255,20 +1269,20 @@
       <c r="C4" s="6">
         <v>600</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
       <c r="I4" s="6">
@@ -1292,11 +1306,11 @@
       <c r="O4" s="6">
         <v>25.5</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
+      <c r="P4" s="1">
+        <v>366.96</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>366.96</v>
       </c>
       <c r="R4" s="6">
         <v>45</v>
@@ -1304,10 +1318,10 @@
       <c r="S4" s="6">
         <v>65</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="10">
         <v>0.375</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="10">
         <v>0.6</v>
       </c>
       <c r="V4" s="6">
@@ -1319,10 +1333,10 @@
       <c r="X4" s="6">
         <v>70</v>
       </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
         <v>0</v>
       </c>
       <c r="AA4" s="6">
@@ -1345,20 +1359,20 @@
       <c r="C5" s="6">
         <v>600</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>0</v>
       </c>
       <c r="I5" s="6">
@@ -1382,11 +1396,11 @@
       <c r="O5" s="6">
         <v>26.01</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
+      <c r="P5" s="1">
+        <v>499.44</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>499.44</v>
       </c>
       <c r="R5" s="6">
         <v>45</v>
@@ -1394,10 +1408,10 @@
       <c r="S5" s="6">
         <v>65</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="10">
         <v>0.375</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="10">
         <v>0.6</v>
       </c>
       <c r="V5" s="6">
@@ -1409,10 +1423,10 @@
       <c r="X5" s="6">
         <v>70</v>
       </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
         <v>0</v>
       </c>
       <c r="AA5" s="6">
@@ -1435,20 +1449,20 @@
       <c r="C6" s="6">
         <v>600</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="6">
@@ -1472,11 +1486,11 @@
       <c r="O6" s="6">
         <v>26.53</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
+      <c r="P6" s="1">
+        <v>639.12</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>639.12</v>
       </c>
       <c r="R6" s="6">
         <v>45</v>
@@ -1484,10 +1498,10 @@
       <c r="S6" s="6">
         <v>65</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="10">
         <v>0.375</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="10">
         <v>0.6</v>
       </c>
       <c r="V6" s="6">
@@ -1499,10 +1513,10 @@
       <c r="X6" s="6">
         <v>70</v>
       </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6">
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
         <v>0</v>
       </c>
       <c r="AA6" s="6">
@@ -1525,20 +1539,20 @@
       <c r="C7" s="6">
         <v>600</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="6">
@@ -1562,11 +1576,11 @@
       <c r="O7" s="6">
         <v>27.06</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
+      <c r="P7" s="1">
+        <v>783.96</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>783.96</v>
       </c>
       <c r="R7" s="6">
         <v>45</v>
@@ -1574,10 +1588,10 @@
       <c r="S7" s="6">
         <v>65</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="10">
         <v>0.375</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="10">
         <v>0.6</v>
       </c>
       <c r="V7" s="6">
@@ -1589,10 +1603,10 @@
       <c r="X7" s="6">
         <v>70</v>
       </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6">
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
         <v>0</v>
       </c>
       <c r="AA7" s="6">
@@ -1615,20 +1629,20 @@
       <c r="C8" s="6">
         <v>600</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8" s="6">
@@ -1652,11 +1666,11 @@
       <c r="O8" s="6">
         <v>27.6</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
+      <c r="P8" s="1">
+        <v>933.72</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>933.72</v>
       </c>
       <c r="R8" s="6">
         <v>45</v>
@@ -1664,10 +1678,10 @@
       <c r="S8" s="6">
         <v>65</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="10">
         <v>0.375</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="10">
         <v>0.6</v>
       </c>
       <c r="V8" s="6">
@@ -1679,10 +1693,10 @@
       <c r="X8" s="6">
         <v>70</v>
       </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
         <v>0</v>
       </c>
       <c r="AA8" s="6">
@@ -1705,20 +1719,20 @@
       <c r="C9" s="6">
         <v>700</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="6">
@@ -1742,11 +1756,11 @@
       <c r="O9" s="6">
         <v>80</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
+      <c r="P9" s="8">
+        <v>1108.32</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1108.32</v>
       </c>
       <c r="R9" s="6">
         <v>45</v>
@@ -1754,10 +1768,10 @@
       <c r="S9" s="6">
         <v>65</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="10">
         <v>0.375</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="10">
         <v>0.6</v>
       </c>
       <c r="V9" s="6">
@@ -1769,10 +1783,10 @@
       <c r="X9" s="6">
         <v>70</v>
       </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
         <v>0</v>
       </c>
       <c r="AA9" s="6">
@@ -1795,20 +1809,20 @@
       <c r="C10" s="6">
         <v>700</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -1832,11 +1846,11 @@
       <c r="O10" s="6">
         <v>86.56</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
+      <c r="P10" s="8">
+        <v>1337.52</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1337.52</v>
       </c>
       <c r="R10" s="6">
         <v>45</v>
@@ -1844,10 +1858,10 @@
       <c r="S10" s="6">
         <v>65</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="10">
         <v>0.375</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="10">
         <v>0.6</v>
       </c>
       <c r="V10" s="6">
@@ -1859,10 +1873,10 @@
       <c r="X10" s="6">
         <v>70</v>
       </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
         <v>0</v>
       </c>
       <c r="AA10" s="6">
@@ -1885,20 +1899,20 @@
       <c r="C11" s="6">
         <v>700</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="I11" s="6">
@@ -1922,11 +1936,11 @@
       <c r="O11" s="6">
         <v>95.56</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
+      <c r="P11" s="8">
+        <v>1644.48</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1644.48</v>
       </c>
       <c r="R11" s="6">
         <v>45</v>
@@ -1934,10 +1948,10 @@
       <c r="S11" s="6">
         <v>65</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="10">
         <v>0.375</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="10">
         <v>0.6</v>
       </c>
       <c r="V11" s="6">
@@ -1949,10 +1963,10 @@
       <c r="X11" s="6">
         <v>70</v>
       </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
         <v>0</v>
       </c>
       <c r="AA11" s="6">
@@ -1975,20 +1989,20 @@
       <c r="C12" s="6">
         <v>800</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="6">
@@ -2012,11 +2026,11 @@
       <c r="O12" s="6">
         <v>106.26</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
+      <c r="P12" s="1">
+        <v>1858.3200000000002</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1858.3200000000002</v>
       </c>
       <c r="R12" s="6">
         <v>45</v>
@@ -2024,10 +2038,10 @@
       <c r="S12" s="6">
         <v>65</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="10">
         <v>0.375</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="10">
         <v>0.6</v>
       </c>
       <c r="V12" s="6">
@@ -2039,10 +2053,10 @@
       <c r="X12" s="6">
         <v>70</v>
       </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
         <v>0</v>
       </c>
       <c r="AA12" s="6">
@@ -2065,20 +2079,20 @@
       <c r="C13" s="6">
         <v>900</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="6">
@@ -2102,11 +2116,11 @@
       <c r="O13" s="6">
         <v>114.96</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
+      <c r="P13" s="1">
+        <v>2083.3200000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2083.3200000000002</v>
       </c>
       <c r="R13" s="6">
         <v>45</v>
@@ -2114,10 +2128,10 @@
       <c r="S13" s="6">
         <v>65</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="10">
         <v>0.375</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="10">
         <v>0.6</v>
       </c>
       <c r="V13" s="6">
@@ -2129,10 +2143,10 @@
       <c r="X13" s="6">
         <v>70</v>
       </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
         <v>0</v>
       </c>
       <c r="AA13" s="6">
@@ -2155,20 +2169,20 @@
       <c r="C14" s="6">
         <v>1000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14" s="6">
@@ -2192,11 +2206,11 @@
       <c r="O14" s="6">
         <v>123.56</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
+      <c r="P14" s="1">
+        <v>2333.2799999999997</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2333.2799999999997</v>
       </c>
       <c r="R14" s="6">
         <v>45</v>
@@ -2204,10 +2218,10 @@
       <c r="S14" s="6">
         <v>65</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="10">
         <v>0.375</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="10">
         <v>0.6</v>
       </c>
       <c r="V14" s="6">
@@ -2219,10 +2233,10 @@
       <c r="X14" s="6">
         <v>70</v>
       </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
         <v>0</v>
       </c>
       <c r="AA14" s="6">
@@ -2245,20 +2259,20 @@
       <c r="C15" s="6">
         <v>1100</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -2282,11 +2296,11 @@
       <c r="O15" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
+      <c r="P15" s="1">
+        <v>2616.7200000000003</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2616.7200000000003</v>
       </c>
       <c r="R15" s="6">
         <v>45</v>
@@ -2294,10 +2308,10 @@
       <c r="S15" s="6">
         <v>65</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="10">
         <v>0.375</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="10">
         <v>0.6</v>
       </c>
       <c r="V15" s="6">
@@ -2309,10 +2323,10 @@
       <c r="X15" s="6">
         <v>70</v>
       </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
         <v>0</v>
       </c>
       <c r="AA15" s="6">
@@ -2335,20 +2349,20 @@
       <c r="C16" s="6">
         <v>1300</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -2372,11 +2386,11 @@
       <c r="O16" s="6">
         <v>146.78</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
+      <c r="P16" s="1">
+        <v>2933.28</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2933.28</v>
       </c>
       <c r="R16" s="6">
         <v>45</v>
@@ -2384,10 +2398,10 @@
       <c r="S16" s="6">
         <v>65</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="10">
         <v>0.375</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="10">
         <v>0.6</v>
       </c>
       <c r="V16" s="6">
@@ -2399,10 +2413,10 @@
       <c r="X16" s="6">
         <v>70</v>
       </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
         <v>0</v>
       </c>
       <c r="AA16" s="6">
@@ -2425,20 +2439,20 @@
       <c r="C17" s="6">
         <v>1400</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
       <c r="I17" s="6">
@@ -2462,11 +2476,11 @@
       <c r="O17" s="6">
         <v>161.31</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
+      <c r="P17" s="1">
+        <v>3291.72</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3291.72</v>
       </c>
       <c r="R17" s="6">
         <v>45</v>
@@ -2474,10 +2488,10 @@
       <c r="S17" s="6">
         <v>65</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="10">
         <v>0.375</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="10">
         <v>0.6</v>
       </c>
       <c r="V17" s="6">
@@ -2489,10 +2503,10 @@
       <c r="X17" s="6">
         <v>70</v>
       </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="6">
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
         <v>0</v>
       </c>
       <c r="AA17" s="6">
@@ -2515,20 +2529,20 @@
       <c r="C18" s="6">
         <v>1600</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
         <v>0</v>
       </c>
       <c r="I18" s="6">
@@ -2552,11 +2566,11 @@
       <c r="O18" s="6">
         <v>181.18</v>
       </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
+      <c r="P18" s="1">
+        <v>3691.8</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3691.8</v>
       </c>
       <c r="R18" s="6">
         <v>45</v>
@@ -2564,10 +2578,10 @@
       <c r="S18" s="6">
         <v>65</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="10">
         <v>0.375</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="10">
         <v>0.6</v>
       </c>
       <c r="V18" s="6">
@@ -2579,10 +2593,10 @@
       <c r="X18" s="6">
         <v>70</v>
       </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
         <v>0</v>
       </c>
       <c r="AA18" s="6">
@@ -2605,20 +2619,20 @@
       <c r="C19" s="6">
         <v>1800</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -2642,11 +2656,11 @@
       <c r="O19" s="6">
         <v>201.44</v>
       </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
+      <c r="P19" s="1">
+        <v>4141.8</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4141.8</v>
       </c>
       <c r="R19" s="6">
         <v>45</v>
@@ -2654,10 +2668,10 @@
       <c r="S19" s="6">
         <v>65</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="10">
         <v>0.375</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="10">
         <v>0.6</v>
       </c>
       <c r="V19" s="6">
@@ -2669,10 +2683,10 @@
       <c r="X19" s="6">
         <v>70</v>
       </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
         <v>0</v>
       </c>
       <c r="AA19" s="6">
@@ -2695,20 +2709,20 @@
       <c r="C20" s="6">
         <v>2000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10">
         <v>0.06</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="10">
         <v>0.06</v>
       </c>
       <c r="I20" s="6">
@@ -2732,11 +2746,11 @@
       <c r="O20" s="6">
         <v>214.94</v>
       </c>
-      <c r="P20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
+      <c r="P20" s="1">
+        <v>4650</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4650</v>
       </c>
       <c r="R20" s="6">
         <v>45</v>
@@ -2744,10 +2758,10 @@
       <c r="S20" s="6">
         <v>65</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="10">
         <v>0.375</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="10">
         <v>0.6</v>
       </c>
       <c r="V20" s="6">
@@ -2759,10 +2773,10 @@
       <c r="X20" s="6">
         <v>70</v>
       </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6">
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
         <v>0</v>
       </c>
       <c r="AA20" s="6">
@@ -2785,20 +2799,20 @@
       <c r="C21" s="6">
         <v>2300</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10">
         <v>0.06</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="10">
         <v>0.06</v>
       </c>
       <c r="I21" s="6">
@@ -2822,11 +2836,11 @@
       <c r="O21" s="6">
         <v>224.4</v>
       </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
+      <c r="P21" s="1">
+        <v>5225.04</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5225.04</v>
       </c>
       <c r="R21" s="6">
         <v>45</v>
@@ -2834,10 +2848,10 @@
       <c r="S21" s="6">
         <v>65</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="10">
         <v>0.375</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="10">
         <v>0.6</v>
       </c>
       <c r="V21" s="6">
@@ -2849,10 +2863,10 @@
       <c r="X21" s="6">
         <v>70</v>
       </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
         <v>0</v>
       </c>
       <c r="AA21" s="6">
@@ -2875,20 +2889,20 @@
       <c r="C22" s="6">
         <v>2500</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="10">
         <v>0.06</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="10">
         <v>0.06</v>
       </c>
       <c r="I22" s="6">
@@ -2912,11 +2926,11 @@
       <c r="O22" s="6">
         <v>233.38</v>
       </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
+      <c r="P22" s="1">
+        <v>5833.32</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>5833.32</v>
       </c>
       <c r="R22" s="6">
         <v>45</v>
@@ -2924,10 +2938,10 @@
       <c r="S22" s="6">
         <v>65</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="10">
         <v>0.375</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="10">
         <v>0.6</v>
       </c>
       <c r="V22" s="6">
@@ -2939,10 +2953,10 @@
       <c r="X22" s="6">
         <v>70</v>
       </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
         <v>0</v>
       </c>
       <c r="AA22" s="6">
@@ -2965,20 +2979,20 @@
       <c r="C23" s="6">
         <v>2500</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="10">
         <v>0.06</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="10">
         <v>0.06</v>
       </c>
       <c r="I23" s="6">
@@ -3002,11 +3016,11 @@
       <c r="O23" s="6">
         <v>242.95</v>
       </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
+      <c r="P23" s="1">
+        <v>6258.24</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>6258.24</v>
       </c>
       <c r="R23" s="6">
         <v>45</v>
@@ -3014,10 +3028,10 @@
       <c r="S23" s="6">
         <v>65</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="10">
         <v>0.375</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="10">
         <v>0.6</v>
       </c>
       <c r="V23" s="6">
@@ -3029,10 +3043,10 @@
       <c r="X23" s="6">
         <v>70</v>
       </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6">
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
         <v>0</v>
       </c>
       <c r="AA23" s="6">
@@ -3055,20 +3069,20 @@
       <c r="C24" s="6">
         <v>2600</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="10">
         <v>0.02</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="10">
         <v>0.02</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="10">
         <v>0.06</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="10">
         <v>0.06</v>
       </c>
       <c r="I24" s="6">
@@ -3092,11 +3106,11 @@
       <c r="O24" s="6">
         <v>253.64</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
+      <c r="P24" s="1">
+        <v>6516.7199999999993</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6516.7199999999993</v>
       </c>
       <c r="R24" s="6">
         <v>45</v>
@@ -3104,10 +3118,10 @@
       <c r="S24" s="6">
         <v>65</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="10">
         <v>0.375</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="10">
         <v>0.6</v>
       </c>
       <c r="V24" s="6">
@@ -3119,10 +3133,10 @@
       <c r="X24" s="6">
         <v>70</v>
       </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
         <v>0</v>
       </c>
       <c r="AA24" s="6">
@@ -3145,20 +3159,20 @@
       <c r="C25" s="6">
         <v>2700</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="10">
         <v>0.06</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="10">
         <v>0.06</v>
       </c>
       <c r="I25" s="6">
@@ -3182,11 +3196,11 @@
       <c r="O25" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
+      <c r="P25" s="1">
+        <v>6675</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>6675</v>
       </c>
       <c r="R25" s="6">
         <v>45</v>
@@ -3194,10 +3208,10 @@
       <c r="S25" s="6">
         <v>65</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="10">
         <v>0.375</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="10">
         <v>0.6</v>
       </c>
       <c r="V25" s="6">
@@ -3209,10 +3223,10 @@
       <c r="X25" s="6">
         <v>70</v>
       </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
         <v>0</v>
       </c>
       <c r="AA25" s="6">
@@ -3235,20 +3249,20 @@
       <c r="C26" s="6">
         <v>2800</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="10">
         <v>0.06</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="10">
         <v>0.06</v>
       </c>
       <c r="I26" s="6">
@@ -3272,11 +3286,11 @@
       <c r="O26" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
+      <c r="P26" s="1">
+        <v>6924.9600000000009</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>6924.9600000000009</v>
       </c>
       <c r="R26" s="6">
         <v>45</v>
@@ -3284,10 +3298,10 @@
       <c r="S26" s="6">
         <v>65</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="10">
         <v>0.375</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="10">
         <v>0.6</v>
       </c>
       <c r="V26" s="6">
@@ -3299,10 +3313,10 @@
       <c r="X26" s="6">
         <v>70</v>
       </c>
-      <c r="Y26" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z26" s="6">
+      <c r="Y26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z26" s="9">
         <v>0</v>
       </c>
       <c r="AA26" s="6">
@@ -3325,20 +3339,20 @@
       <c r="C27" s="6">
         <v>3000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="10">
         <v>0.06</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="10">
         <v>0.06</v>
       </c>
       <c r="I27" s="6">
@@ -3362,11 +3376,11 @@
       <c r="O27" s="6">
         <v>289.99</v>
       </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
+      <c r="P27" s="1">
+        <v>7258.32</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>7258.32</v>
       </c>
       <c r="R27" s="6">
         <v>45</v>
@@ -3374,10 +3388,10 @@
       <c r="S27" s="6">
         <v>65</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="10">
         <v>0.375</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="10">
         <v>0.6</v>
       </c>
       <c r="V27" s="6">
@@ -3389,10 +3403,10 @@
       <c r="X27" s="6">
         <v>70</v>
       </c>
-      <c r="Y27" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z27" s="6">
+      <c r="Y27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z27" s="9">
         <v>0</v>
       </c>
       <c r="AA27" s="6">
@@ -3415,20 +3429,20 @@
       <c r="C28" s="6">
         <v>3200</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="10">
         <v>2.4E-2</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="10">
         <v>2.4E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="10">
         <v>0.06</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="10">
         <v>0.06</v>
       </c>
       <c r="I28" s="6">
@@ -3452,11 +3466,11 @@
       <c r="O28" s="6">
         <v>306.81</v>
       </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
+      <c r="P28" s="1">
+        <v>7633.32</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>7633.32</v>
       </c>
       <c r="R28" s="6">
         <v>45</v>
@@ -3464,10 +3478,10 @@
       <c r="S28" s="6">
         <v>65</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="10">
         <v>0.375</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="10">
         <v>0.6</v>
       </c>
       <c r="V28" s="6">
@@ -3479,10 +3493,10 @@
       <c r="X28" s="6">
         <v>70</v>
       </c>
-      <c r="Y28" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z28" s="6">
+      <c r="Y28" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z28" s="9">
         <v>0</v>
       </c>
       <c r="AA28" s="6">
@@ -3505,20 +3519,20 @@
       <c r="C29" s="6">
         <v>3300</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="10">
         <v>0.06</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="10">
         <v>0.06</v>
       </c>
       <c r="I29" s="6">
@@ -3542,11 +3556,11 @@
       <c r="O29" s="6">
         <v>312.33</v>
       </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
+      <c r="P29" s="1">
+        <v>8008.32</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>8008.32</v>
       </c>
       <c r="R29" s="6">
         <v>45</v>
@@ -3554,10 +3568,10 @@
       <c r="S29" s="6">
         <v>65</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="10">
         <v>0.375</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="10">
         <v>0.6</v>
       </c>
       <c r="V29" s="6">
@@ -3569,10 +3583,10 @@
       <c r="X29" s="6">
         <v>70</v>
       </c>
-      <c r="Y29" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z29" s="6">
+      <c r="Y29" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z29" s="9">
         <v>0</v>
       </c>
       <c r="AA29" s="6">
@@ -3595,20 +3609,20 @@
       <c r="C30" s="6">
         <v>3400</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="10">
         <v>0.06</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="10">
         <v>0.06</v>
       </c>
       <c r="I30" s="6">
@@ -3632,11 +3646,11 @@
       <c r="O30" s="6">
         <v>81.52</v>
       </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
+      <c r="P30" s="1">
+        <v>8333.2800000000007</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>8333.2800000000007</v>
       </c>
       <c r="R30" s="6">
         <v>45</v>
@@ -3644,10 +3658,10 @@
       <c r="S30" s="6">
         <v>65</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="10">
         <v>0.375</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="10">
         <v>0.6</v>
       </c>
       <c r="V30" s="6">
@@ -3659,10 +3673,10 @@
       <c r="X30" s="6">
         <v>70</v>
       </c>
-      <c r="Y30" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z30" s="6">
+      <c r="Y30" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z30" s="9">
         <v>0</v>
       </c>
       <c r="AA30" s="6">
@@ -3685,20 +3699,20 @@
       <c r="C31" s="6">
         <v>3400</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="10">
         <v>0.06</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="10">
         <v>0.06</v>
       </c>
       <c r="I31" s="6">
@@ -3722,11 +3736,11 @@
       <c r="O31" s="6">
         <v>81.52</v>
       </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
+      <c r="P31" s="1">
+        <v>8558.2800000000007</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>8558.2800000000007</v>
       </c>
       <c r="R31" s="6">
         <v>45</v>
@@ -3734,10 +3748,10 @@
       <c r="S31" s="6">
         <v>65</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="10">
         <v>0.375</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="10">
         <v>0.6</v>
       </c>
       <c r="V31" s="6">
@@ -3749,10 +3763,10 @@
       <c r="X31" s="6">
         <v>70</v>
       </c>
-      <c r="Y31" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z31" s="6">
+      <c r="Y31" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z31" s="9">
         <v>0</v>
       </c>
       <c r="AA31" s="6">
@@ -3775,20 +3789,20 @@
       <c r="C32" s="6">
         <v>3500</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="10">
         <v>0.06</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="10">
         <v>0.06</v>
       </c>
       <c r="I32" s="6">
@@ -3812,11 +3826,11 @@
       <c r="O32" s="6">
         <v>83.39</v>
       </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
+      <c r="P32" s="1">
+        <v>8724.9600000000009</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>8724.9600000000009</v>
       </c>
       <c r="R32" s="6">
         <v>45</v>
@@ -3824,10 +3838,10 @@
       <c r="S32" s="6">
         <v>65</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="10">
         <v>0.375</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="10">
         <v>0.6</v>
       </c>
       <c r="V32" s="6">
@@ -3839,10 +3853,10 @@
       <c r="X32" s="6">
         <v>70</v>
       </c>
-      <c r="Y32" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z32" s="6">
+      <c r="Y32" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z32" s="9">
         <v>0</v>
       </c>
       <c r="AA32" s="6">
@@ -3865,20 +3879,20 @@
       <c r="C33" s="6">
         <v>3500</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="10">
         <v>0.03</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="10">
         <v>0.03</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="10">
         <v>0.06</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="10">
         <v>0.06</v>
       </c>
       <c r="I33" s="6">
@@ -3902,11 +3916,11 @@
       <c r="O33" s="6">
         <v>84.64</v>
       </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
+      <c r="P33" s="1">
+        <v>8841.7199999999993</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>8841.7199999999993</v>
       </c>
       <c r="R33" s="6">
         <v>45</v>
@@ -3914,10 +3928,10 @@
       <c r="S33" s="6">
         <v>65</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="10">
         <v>0.375</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="10">
         <v>0.6</v>
       </c>
       <c r="V33" s="6">
@@ -3929,10 +3943,10 @@
       <c r="X33" s="6">
         <v>70</v>
       </c>
-      <c r="Y33" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z33" s="6">
+      <c r="Y33" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z33" s="9">
         <v>0</v>
       </c>
       <c r="AA33" s="6">
@@ -3955,20 +3969,20 @@
       <c r="C34" s="6">
         <v>3500</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="10">
         <v>0.06</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="10">
         <v>0.06</v>
       </c>
       <c r="I34" s="6">
@@ -3992,11 +4006,11 @@
       <c r="O34" s="6">
         <v>86.25</v>
       </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
+      <c r="P34" s="1">
+        <v>8937.48</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>8937.48</v>
       </c>
       <c r="R34" s="6">
         <v>45</v>
@@ -4004,10 +4018,10 @@
       <c r="S34" s="6">
         <v>65</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="10">
         <v>0.375</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="10">
         <v>0.6</v>
       </c>
       <c r="V34" s="6">
@@ -4019,10 +4033,10 @@
       <c r="X34" s="6">
         <v>70</v>
       </c>
-      <c r="Y34" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z34" s="6">
+      <c r="Y34" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z34" s="9">
         <v>0</v>
       </c>
       <c r="AA34" s="6">
@@ -4045,20 +4059,20 @@
       <c r="C35" s="6">
         <v>3500</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="10">
         <v>0.06</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="10">
         <v>0.06</v>
       </c>
       <c r="I35" s="6">
@@ -4082,11 +4096,11 @@
       <c r="O35" s="6">
         <v>87.03</v>
       </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
+      <c r="P35" s="1">
+        <v>9020.0399999999991</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>9020.0399999999991</v>
       </c>
       <c r="R35" s="6">
         <v>45</v>
@@ -4094,10 +4108,10 @@
       <c r="S35" s="6">
         <v>65</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="10">
         <v>0.375</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="10">
         <v>0.6</v>
       </c>
       <c r="V35" s="6">
@@ -4109,10 +4123,10 @@
       <c r="X35" s="6">
         <v>70</v>
       </c>
-      <c r="Y35" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z35" s="6">
+      <c r="Y35" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z35" s="9">
         <v>0</v>
       </c>
       <c r="AA35" s="6">
@@ -4135,20 +4149,20 @@
       <c r="C36" s="6">
         <v>3500</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="10">
         <v>3.9E-2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="10">
         <v>3.9E-2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>7.8E-2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="10">
         <v>0.06</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="10">
         <v>0.06</v>
       </c>
       <c r="I36" s="6">
@@ -4172,11 +4186,11 @@
       <c r="O36" s="6">
         <v>88.42</v>
       </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
+      <c r="P36" s="1">
+        <v>9155.0399999999991</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>9155.0399999999991</v>
       </c>
       <c r="R36" s="6">
         <v>45</v>
@@ -4184,10 +4198,10 @@
       <c r="S36" s="6">
         <v>65</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="10">
         <v>0.375</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="10">
         <v>0.6</v>
       </c>
       <c r="V36" s="6">
@@ -4199,10 +4213,10 @@
       <c r="X36" s="6">
         <v>70</v>
       </c>
-      <c r="Y36" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z36" s="6">
+      <c r="Y36" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z36" s="9">
         <v>0</v>
       </c>
       <c r="AA36" s="6">
@@ -4225,20 +4239,20 @@
       <c r="C37" s="6">
         <v>3500</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="10">
         <v>0.06</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="10">
         <v>0.06</v>
       </c>
       <c r="I37" s="6">
@@ -4262,11 +4276,11 @@
       <c r="O37" s="6">
         <v>90.63</v>
       </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
+      <c r="P37" s="1">
+        <v>9300</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>9300</v>
       </c>
       <c r="R37" s="6">
         <v>45</v>
@@ -4274,10 +4288,10 @@
       <c r="S37" s="6">
         <v>65</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="10">
         <v>0.375</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="10">
         <v>0.6</v>
       </c>
       <c r="V37" s="6">
@@ -4289,10 +4303,10 @@
       <c r="X37" s="6">
         <v>70</v>
       </c>
-      <c r="Y37" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z37" s="6">
+      <c r="Y37" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z37" s="9">
         <v>0</v>
       </c>
       <c r="AA37" s="6">
@@ -4315,20 +4329,20 @@
       <c r="C38" s="6">
         <v>3500</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>9.4E-2</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="10">
         <v>0.06</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="10">
         <v>0.06</v>
       </c>
       <c r="I38" s="6">
@@ -4352,11 +4366,11 @@
       <c r="O38" s="6">
         <v>93.35</v>
       </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
+      <c r="P38" s="1">
+        <v>9465</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>9465</v>
       </c>
       <c r="R38" s="6">
         <v>45</v>
@@ -4364,10 +4378,10 @@
       <c r="S38" s="6">
         <v>65</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="10">
         <v>0.375</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="10">
         <v>0.6</v>
       </c>
       <c r="V38" s="6">
@@ -4379,10 +4393,10 @@
       <c r="X38" s="6">
         <v>70</v>
       </c>
-      <c r="Y38" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z38" s="6">
+      <c r="Y38" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z38" s="9">
         <v>0</v>
       </c>
       <c r="AA38" s="6">
@@ -4405,20 +4419,20 @@
       <c r="C39" s="6">
         <v>3500</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="10">
         <v>0.06</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="10">
         <v>0.06</v>
       </c>
       <c r="I39" s="6">
@@ -4442,11 +4456,11 @@
       <c r="O39" s="6">
         <v>94.84</v>
       </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
+      <c r="P39" s="1">
+        <v>9615</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>9615</v>
       </c>
       <c r="R39" s="6">
         <v>45</v>
@@ -4454,10 +4468,10 @@
       <c r="S39" s="6">
         <v>65</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="10">
         <v>0.375</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="10">
         <v>0.6</v>
       </c>
       <c r="V39" s="6">
@@ -4469,10 +4483,10 @@
       <c r="X39" s="6">
         <v>70</v>
       </c>
-      <c r="Y39" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z39" s="6">
+      <c r="Y39" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z39" s="9">
         <v>0</v>
       </c>
       <c r="AA39" s="6">
@@ -4495,20 +4509,20 @@
       <c r="C40" s="6">
         <v>3500</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="10">
         <v>0.06</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="10">
         <v>0.06</v>
       </c>
       <c r="I40" s="6">
@@ -4532,11 +4546,11 @@
       <c r="O40" s="6">
         <v>97.87</v>
       </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
+      <c r="P40" s="5">
+        <v>9770.0400000000009</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>9770.0400000000009</v>
       </c>
       <c r="R40" s="6">
         <v>45</v>
@@ -4544,10 +4558,10 @@
       <c r="S40" s="6">
         <v>65</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="10">
         <v>0.375</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="10">
         <v>0.6</v>
       </c>
       <c r="V40" s="6">
@@ -4559,10 +4573,10 @@
       <c r="X40" s="6">
         <v>70</v>
       </c>
-      <c r="Y40" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z40" s="6">
+      <c r="Y40" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z40" s="9">
         <v>0</v>
       </c>
       <c r="AA40" s="6">
@@ -4585,20 +4599,20 @@
       <c r="C41" s="6">
         <v>3500</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="10">
         <v>0.06</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="10">
         <v>0.06</v>
       </c>
       <c r="I41" s="6">
@@ -4622,11 +4636,11 @@
       <c r="O41" s="6">
         <v>99.53</v>
       </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
+      <c r="P41" s="5">
+        <v>9945</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>9945</v>
       </c>
       <c r="R41" s="6">
         <v>45</v>
@@ -4634,10 +4648,10 @@
       <c r="S41" s="6">
         <v>65</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="10">
         <v>0.375</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="10">
         <v>0.6</v>
       </c>
       <c r="V41" s="6">
@@ -4649,10 +4663,10 @@
       <c r="X41" s="6">
         <v>70</v>
       </c>
-      <c r="Y41" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z41" s="6">
+      <c r="Y41" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z41" s="9">
         <v>0</v>
       </c>
       <c r="AA41" s="6">
@@ -4675,20 +4689,20 @@
       <c r="C42" s="6">
         <v>3500</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="10">
         <v>0.06</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="10">
         <v>0.06</v>
       </c>
       <c r="I42" s="6">
@@ -4712,11 +4726,11 @@
       <c r="O42" s="6">
         <v>101.82</v>
       </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
+      <c r="P42" s="5">
+        <v>10134.959999999999</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>10134.959999999999</v>
       </c>
       <c r="R42" s="6">
         <v>45</v>
@@ -4724,10 +4738,10 @@
       <c r="S42" s="6">
         <v>65</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="10">
         <v>0.375</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="10">
         <v>0.6</v>
       </c>
       <c r="V42" s="6">
@@ -4739,10 +4753,10 @@
       <c r="X42" s="6">
         <v>70</v>
       </c>
-      <c r="Y42" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z42" s="6">
+      <c r="Y42" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z42" s="9">
         <v>0</v>
       </c>
       <c r="AA42" s="6">
@@ -4765,20 +4779,20 @@
       <c r="C43" s="6">
         <v>3500</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="10">
         <v>0.06</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="10">
         <v>0.06</v>
       </c>
       <c r="I43" s="6">
@@ -4814,10 +4828,10 @@
       <c r="S43" s="6">
         <v>65</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="10">
         <v>0.375</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="10">
         <v>0.6</v>
       </c>
       <c r="V43" s="6">
@@ -4829,10 +4843,10 @@
       <c r="X43" s="6">
         <v>70</v>
       </c>
-      <c r="Y43" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z43" s="6">
+      <c r="Y43" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z43" s="9">
         <v>0</v>
       </c>
       <c r="AA43" s="6">
@@ -4855,20 +4869,20 @@
       <c r="C44" s="6">
         <v>3500</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="10">
         <v>0.06</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="10">
         <v>0.06</v>
       </c>
       <c r="I44" s="6">
@@ -4904,10 +4918,10 @@
       <c r="S44" s="6">
         <v>65</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="10">
         <v>0.375</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="10">
         <v>0.6</v>
       </c>
       <c r="V44" s="6">
@@ -4919,10 +4933,10 @@
       <c r="X44" s="6">
         <v>70</v>
       </c>
-      <c r="Y44" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z44" s="6">
+      <c r="Y44" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z44" s="9">
         <v>0</v>
       </c>
       <c r="AA44" s="6">
@@ -4945,20 +4959,20 @@
       <c r="C45" s="6">
         <v>3500</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="10">
         <v>0.06</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="10">
         <v>0.06</v>
       </c>
       <c r="I45" s="6">
@@ -4994,10 +5008,10 @@
       <c r="S45" s="6">
         <v>65</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="10">
         <v>0.375</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="10">
         <v>0.6</v>
       </c>
       <c r="V45" s="6">
@@ -5009,10 +5023,10 @@
       <c r="X45" s="6">
         <v>70</v>
       </c>
-      <c r="Y45" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z45" s="6">
+      <c r="Y45" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z45" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA45" s="6">
@@ -5035,20 +5049,20 @@
       <c r="C46" s="6">
         <v>3500</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="10">
         <v>0.06</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="10">
         <v>0.06</v>
       </c>
       <c r="I46" s="6">
@@ -5084,10 +5098,10 @@
       <c r="S46" s="6">
         <v>65</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="10">
         <v>0.375</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="10">
         <v>0.6</v>
       </c>
       <c r="V46" s="6">
@@ -5099,10 +5113,10 @@
       <c r="X46" s="6">
         <v>70</v>
       </c>
-      <c r="Y46" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z46" s="6">
+      <c r="Y46" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z46" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA46" s="6">
@@ -5125,20 +5139,20 @@
       <c r="C47" s="6">
         <v>3500</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="10">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="10">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="10">
         <v>0.06</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="10">
         <v>0.06</v>
       </c>
       <c r="I47" s="6">
@@ -5174,10 +5188,10 @@
       <c r="S47" s="6">
         <v>65</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="10">
         <v>0.375</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="10">
         <v>0.6</v>
       </c>
       <c r="V47" s="6">
@@ -5189,10 +5203,10 @@
       <c r="X47" s="6">
         <v>70</v>
       </c>
-      <c r="Y47" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z47" s="6">
+      <c r="Y47" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z47" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA47" s="6">
@@ -5215,20 +5229,20 @@
       <c r="C48" s="6">
         <v>3500</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="10">
         <v>5.0250000000000003E-2</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="10">
         <v>5.0250000000000003E-2</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="10">
         <f t="shared" si="0"/>
         <v>0.10050000000000001</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="10">
         <v>0.06</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="10">
         <v>0.06</v>
       </c>
       <c r="I48" s="6">
@@ -5264,10 +5278,10 @@
       <c r="S48" s="6">
         <v>65</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="10">
         <v>0.375</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="10">
         <v>0.6</v>
       </c>
       <c r="V48" s="6">
@@ -5279,10 +5293,10 @@
       <c r="X48" s="6">
         <v>70</v>
       </c>
-      <c r="Y48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z48" s="6">
+      <c r="Y48" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z48" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA48" s="6">
@@ -5305,20 +5319,20 @@
       <c r="C49" s="6">
         <v>3500</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="10">
         <v>0.06</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I49" s="6">
@@ -5354,10 +5368,10 @@
       <c r="S49" s="6">
         <v>65</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="10">
         <v>0.375</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U49" s="10">
         <v>0.6</v>
       </c>
       <c r="V49" s="6">
@@ -5369,10 +5383,10 @@
       <c r="X49" s="6">
         <v>70</v>
       </c>
-      <c r="Y49" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="Z49" s="6">
+      <c r="Y49" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="Z49" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA49" s="6">
@@ -5395,20 +5409,20 @@
       <c r="C50" s="6">
         <v>3500</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="10">
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="10">
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>0.10349999999999999</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I50" s="6">
@@ -5444,10 +5458,10 @@
       <c r="S50" s="6">
         <v>65</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="10">
         <v>0.375</v>
       </c>
-      <c r="U50" s="6">
+      <c r="U50" s="10">
         <v>0.6</v>
       </c>
       <c r="V50" s="6">
@@ -5459,10 +5473,10 @@
       <c r="X50" s="6">
         <v>70</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y50" s="9">
         <v>100</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="Z50" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA50" s="6">
@@ -5485,20 +5499,20 @@
       <c r="C51" s="6">
         <v>3500</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="10">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="10">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I51" s="6">
@@ -5534,10 +5548,10 @@
       <c r="S51" s="6">
         <v>65</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="10">
         <v>0.375</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="10">
         <v>0.6</v>
       </c>
       <c r="V51" s="6">
@@ -5549,10 +5563,10 @@
       <c r="X51" s="6">
         <v>70</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Y51" s="9">
         <v>100</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="Z51" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA51" s="6">
@@ -5575,20 +5589,20 @@
       <c r="C52" s="6">
         <v>3500</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="10">
         <v>5.3249999999999999E-2</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="10">
         <v>5.3249999999999999E-2</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="10">
         <f t="shared" si="0"/>
         <v>0.1065</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I52" s="6">
@@ -5613,10 +5627,10 @@
         <v>120.73</v>
       </c>
       <c r="P52" s="7">
-        <v>12907.8</v>
+        <v>13110</v>
       </c>
       <c r="Q52" s="7">
-        <v>12907.8</v>
+        <v>13110</v>
       </c>
       <c r="R52" s="6">
         <v>45</v>
@@ -5624,10 +5638,10 @@
       <c r="S52" s="6">
         <v>65</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="10">
         <v>0.375</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="10">
         <v>0.6</v>
       </c>
       <c r="V52" s="6">
@@ -5639,10 +5653,10 @@
       <c r="X52" s="6">
         <v>70</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="9">
         <v>100</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="Z52" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA52" s="6">
@@ -5665,20 +5679,20 @@
       <c r="C53" s="6">
         <v>3500</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="10">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I53" s="6">
@@ -5703,10 +5717,10 @@
         <v>122.42</v>
       </c>
       <c r="P53" s="7">
-        <v>13036.88</v>
+        <v>13370.04</v>
       </c>
       <c r="Q53" s="7">
-        <v>13036.88</v>
+        <v>13370.04</v>
       </c>
       <c r="R53" s="6">
         <v>45</v>
@@ -5714,10 +5728,10 @@
       <c r="S53" s="6">
         <v>65</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="10">
         <v>0.375</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U53" s="10">
         <v>0.6</v>
       </c>
       <c r="V53" s="6">
@@ -5729,10 +5743,10 @@
       <c r="X53" s="6">
         <v>70</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="9">
         <v>100</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="Z53" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA53" s="6">
@@ -5755,20 +5769,20 @@
       <c r="C54" s="6">
         <v>3500</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="10">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I54" s="6">
@@ -5793,10 +5807,10 @@
         <v>124.26</v>
       </c>
       <c r="P54" s="7">
-        <v>13167.25</v>
+        <v>13610.04</v>
       </c>
       <c r="Q54" s="7">
-        <v>13167.25</v>
+        <v>13610.04</v>
       </c>
       <c r="R54" s="6">
         <v>45</v>
@@ -5804,10 +5818,10 @@
       <c r="S54" s="6">
         <v>65</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="10">
         <v>0.375</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U54" s="10">
         <v>0.6</v>
       </c>
       <c r="V54" s="6">
@@ -5819,10 +5833,10 @@
       <c r="X54" s="6">
         <v>70</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="9">
         <v>100</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="Z54" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA54" s="6">

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49BAC9-6000-8546-8770-A1C5BB158F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7C3D6-BB42-704B-AE34-039E84F1174B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="18720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="18720" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -977,10 +977,10 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2:AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1165,7 @@
       <c r="AB2" s="6">
         <v>0</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="AB3" s="6">
         <v>0</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1345,8 +1345,8 @@
       <c r="AB4" s="6">
         <v>0</v>
       </c>
-      <c r="AC4" s="6">
-        <v>2</v>
+      <c r="AC4" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1435,8 +1435,8 @@
       <c r="AB5" s="6">
         <v>0</v>
       </c>
-      <c r="AC5" s="6">
-        <v>2</v>
+      <c r="AC5" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1525,8 +1525,8 @@
       <c r="AB6" s="6">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="6">
-        <v>2</v>
+      <c r="AC6" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1615,8 +1615,8 @@
       <c r="AB7" s="6">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="6">
-        <v>2</v>
+      <c r="AC7" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1705,8 +1705,8 @@
       <c r="AB8" s="6">
         <v>80</v>
       </c>
-      <c r="AC8" s="6">
-        <v>2</v>
+      <c r="AC8" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1795,8 +1795,8 @@
       <c r="AB9" s="6">
         <v>86.56</v>
       </c>
-      <c r="AC9" s="6">
-        <v>3</v>
+      <c r="AC9" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1885,8 +1885,8 @@
       <c r="AB10" s="6">
         <v>95.59</v>
       </c>
-      <c r="AC10" s="6">
-        <v>8.1999999999999993</v>
+      <c r="AC10" s="4">
+        <v>8.199999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1975,8 +1975,8 @@
       <c r="AB11" s="6">
         <v>106.26</v>
       </c>
-      <c r="AC11" s="6">
-        <v>10.4</v>
+      <c r="AC11" s="4">
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2065,8 +2065,8 @@
       <c r="AB12" s="6">
         <v>114.96</v>
       </c>
-      <c r="AC12" s="6">
-        <v>11.2</v>
+      <c r="AC12" s="4">
+        <v>0.11199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2155,8 +2155,8 @@
       <c r="AB13" s="6">
         <v>123.56</v>
       </c>
-      <c r="AC13" s="6">
-        <v>8.1999999999999993</v>
+      <c r="AC13" s="4">
+        <v>8.199999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2245,8 +2245,8 @@
       <c r="AB14" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="AC14" s="6">
-        <v>7.5</v>
+      <c r="AC14" s="4">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2335,8 +2335,8 @@
       <c r="AB15" s="6">
         <v>146.78</v>
       </c>
-      <c r="AC15" s="6">
-        <v>9</v>
+      <c r="AC15" s="4">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2425,8 +2425,8 @@
       <c r="AB16" s="6">
         <v>161.31</v>
       </c>
-      <c r="AC16" s="6">
-        <v>9</v>
+      <c r="AC16" s="4">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2515,8 +2515,8 @@
       <c r="AB17" s="6">
         <v>181.18</v>
       </c>
-      <c r="AC17" s="6">
-        <v>9.9</v>
+      <c r="AC17" s="4">
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2605,8 +2605,8 @@
       <c r="AB18" s="6">
         <v>201.44</v>
       </c>
-      <c r="AC18" s="6">
-        <v>12.3</v>
+      <c r="AC18" s="4">
+        <v>0.12300000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2695,8 +2695,8 @@
       <c r="AB19" s="6">
         <v>214.94</v>
       </c>
-      <c r="AC19" s="6">
-        <v>11.2</v>
+      <c r="AC19" s="4">
+        <v>0.11199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2785,8 +2785,8 @@
       <c r="AB20" s="6">
         <v>224.4</v>
       </c>
-      <c r="AC20" s="6">
-        <v>6.7</v>
+      <c r="AC20" s="4">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2875,8 +2875,8 @@
       <c r="AB21" s="6">
         <v>233.4</v>
       </c>
-      <c r="AC21" s="6">
-        <v>4.4000000000000004</v>
+      <c r="AC21" s="4">
+        <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2965,8 +2965,8 @@
       <c r="AB22" s="6">
         <v>242.95</v>
       </c>
-      <c r="AC22" s="6">
-        <v>4</v>
+      <c r="AC22" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3055,8 +3055,8 @@
       <c r="AB23" s="6">
         <v>253.64</v>
       </c>
-      <c r="AC23" s="6">
-        <v>4.0999999999999996</v>
+      <c r="AC23" s="4">
+        <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3145,8 +3145,8 @@
       <c r="AB24" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="AC24" s="6">
-        <v>4.4000000000000004</v>
+      <c r="AC24" s="4">
+        <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3235,8 +3235,8 @@
       <c r="AB25" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="AC25" s="6">
-        <v>4.0999999999999996</v>
+      <c r="AC25" s="4">
+        <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3325,8 +3325,8 @@
       <c r="AB26" s="6">
         <v>289.99</v>
       </c>
-      <c r="AC26" s="6">
-        <v>4.8</v>
+      <c r="AC26" s="4">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3415,8 +3415,8 @@
       <c r="AB27" s="6">
         <v>306.81</v>
       </c>
-      <c r="AC27" s="6">
-        <v>4.8</v>
+      <c r="AC27" s="4">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3505,8 +3505,8 @@
       <c r="AB28" s="6">
         <v>312.33</v>
       </c>
-      <c r="AC28" s="6">
-        <v>5.8</v>
+      <c r="AC28" s="4">
+        <v>5.7999999999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3595,8 +3595,8 @@
       <c r="AB29" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC29" s="6">
-        <v>1.8</v>
+      <c r="AC29" s="4">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3685,8 +3685,8 @@
       <c r="AB30" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC30" s="6">
-        <v>1.9</v>
+      <c r="AC30" s="4">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
       <c r="AB31" s="6">
         <v>325.58</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AC31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3865,8 +3865,8 @@
       <c r="AB32" s="6">
         <v>330.46</v>
       </c>
-      <c r="AC32" s="6">
-        <v>2.2999999999999998</v>
+      <c r="AC32" s="4">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3955,8 +3955,8 @@
       <c r="AB33" s="6">
         <v>336.74</v>
       </c>
-      <c r="AC33" s="6">
-        <v>1.5</v>
+      <c r="AC33" s="4">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4045,8 +4045,8 @@
       <c r="AB34" s="6">
         <v>339.77</v>
       </c>
-      <c r="AC34" s="6">
-        <v>1.9</v>
+      <c r="AC34" s="4">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4135,8 +4135,8 @@
       <c r="AB35" s="6">
         <v>345.21</v>
       </c>
-      <c r="AC35" s="6">
-        <v>0.9</v>
+      <c r="AC35" s="4">
+        <v>9.0000000000000011E-3</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4225,8 +4225,8 @@
       <c r="AB36" s="6">
         <v>353.84</v>
       </c>
-      <c r="AC36" s="6">
-        <v>1.6</v>
+      <c r="AC36" s="4">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4315,8 +4315,8 @@
       <c r="AB37" s="6">
         <v>364.46</v>
       </c>
-      <c r="AC37" s="6">
-        <v>2.5</v>
+      <c r="AC37" s="4">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4405,8 +4405,8 @@
       <c r="AB38" s="6">
         <v>370.29</v>
       </c>
-      <c r="AC38" s="6">
-        <v>3</v>
+      <c r="AC38" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4495,8 +4495,8 @@
       <c r="AB39" s="6">
         <v>382.14</v>
       </c>
-      <c r="AC39" s="6">
-        <v>1.6</v>
+      <c r="AC39" s="4">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4585,8 +4585,8 @@
       <c r="AB40" s="6">
         <v>388.64</v>
       </c>
-      <c r="AC40" s="6">
-        <v>3.2</v>
+      <c r="AC40" s="4">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4675,8 +4675,8 @@
       <c r="AB41" s="6">
         <v>397.58</v>
       </c>
-      <c r="AC41" s="6">
-        <v>1.7</v>
+      <c r="AC41" s="4">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4765,8 +4765,8 @@
       <c r="AB42" s="6">
         <v>405.93</v>
       </c>
-      <c r="AC42" s="6">
-        <v>2.2999999999999998</v>
+      <c r="AC42" s="4">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4855,8 +4855,8 @@
       <c r="AB43" s="6">
         <v>414.05</v>
       </c>
-      <c r="AC43" s="6">
-        <v>2.1</v>
+      <c r="AC43" s="4">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4945,8 +4945,8 @@
       <c r="AB44" s="6">
         <v>424.4</v>
       </c>
-      <c r="AC44" s="6">
-        <v>2</v>
+      <c r="AC44" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5035,8 +5035,8 @@
       <c r="AB45" s="6">
         <v>426.1</v>
       </c>
-      <c r="AC45" s="6">
-        <v>2.5</v>
+      <c r="AC45" s="4">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5125,8 +5125,8 @@
       <c r="AB46" s="6">
         <v>433.34</v>
       </c>
-      <c r="AC46" s="6">
-        <v>0.4</v>
+      <c r="AC46" s="4">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5215,8 +5215,8 @@
       <c r="AB47" s="6">
         <v>445.47</v>
       </c>
-      <c r="AC47" s="6">
-        <v>1.7</v>
+      <c r="AC47" s="4">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5305,8 +5305,8 @@
       <c r="AB48" s="6">
         <v>453.49</v>
       </c>
-      <c r="AC48" s="6">
-        <v>2.8</v>
+      <c r="AC48" s="4">
+        <v>2.7999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5395,8 +5395,8 @@
       <c r="AB49" s="6">
         <v>457.57</v>
       </c>
-      <c r="AC49" s="6">
-        <v>1.8</v>
+      <c r="AC49" s="4">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5485,8 +5485,8 @@
       <c r="AB50" s="6">
         <v>465.81</v>
       </c>
-      <c r="AC50" s="6">
-        <v>0.9</v>
+      <c r="AC50" s="4">
+        <v>9.0000000000000011E-3</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5575,8 +5575,8 @@
       <c r="AB51" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC51" s="6">
-        <v>1.8</v>
+      <c r="AC51" s="4">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5665,8 +5665,8 @@
       <c r="AB52" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC52" s="6">
-        <v>1.2</v>
+      <c r="AC52" s="4">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5755,8 +5755,8 @@
       <c r="AB53" s="6">
         <v>478</v>
       </c>
-      <c r="AC53" s="6">
-        <v>1.4</v>
+      <c r="AC53" s="4">
+        <v>1.3999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5845,8 +5845,8 @@
       <c r="AB54" s="6">
         <v>485.17</v>
       </c>
-      <c r="AC54" s="6">
-        <v>1.5</v>
+      <c r="AC54" s="4">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Desktop/Chaire/cpp-master reform/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7C3D6-BB42-704B-AE34-039E84F1174B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7187257-EAF8-1D4B-BFBD-D74B2BF4660E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="18720" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -115,6 +116,33 @@
   <si>
     <t>cola</t>
   </si>
+  <si>
+    <t>worker_s1</t>
+  </si>
+  <si>
+    <t>employer_s1</t>
+  </si>
+  <si>
+    <t>worker_s2</t>
+  </si>
+  <si>
+    <t>employer_s2</t>
+  </si>
+  <si>
+    <t>selfemp_s1</t>
+  </si>
+  <si>
+    <t>selfemp_s2</t>
+  </si>
+  <si>
+    <t>ympe_s2</t>
+  </si>
+  <si>
+    <t>reprate_s1</t>
+  </si>
+  <si>
+    <t>reprate_s2</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +283,19 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -619,6 +660,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,23 +1023,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2:AC54"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="15" width="10.83203125" style="1"/>
     <col min="16" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="1"/>
+    <col min="34" max="34" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.83203125" style="1"/>
+    <col min="39" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1132,35 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1168,8 +1249,35 @@
       <c r="AC2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1186,7 +1294,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F54" si="0">D3+E3</f>
+        <f t="shared" ref="F3:F61" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G3" s="10">
@@ -1258,8 +1366,35 @@
       <c r="AC3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1348,8 +1483,35 @@
       <c r="AC4" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1438,8 +1600,35 @@
       <c r="AC5" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1528,8 +1717,35 @@
       <c r="AC6" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1618,8 +1834,35 @@
       <c r="AC7" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -1708,8 +1951,35 @@
       <c r="AC8" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -1798,8 +2068,35 @@
       <c r="AC9" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -1888,8 +2185,35 @@
       <c r="AC10" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -1978,8 +2302,35 @@
       <c r="AC11" s="4">
         <v>0.10400000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2068,8 +2419,35 @@
       <c r="AC12" s="4">
         <v>0.11199999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2158,8 +2536,35 @@
       <c r="AC13" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2248,8 +2653,35 @@
       <c r="AC14" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2338,8 +2770,35 @@
       <c r="AC15" s="4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -2428,8 +2887,35 @@
       <c r="AC16" s="4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -2518,8 +3004,35 @@
       <c r="AC17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -2608,8 +3121,35 @@
       <c r="AC18" s="4">
         <v>0.12300000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -2698,8 +3238,35 @@
       <c r="AC19" s="4">
         <v>0.11199999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -2788,8 +3355,35 @@
       <c r="AC20" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -2878,8 +3472,35 @@
       <c r="AC21" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -2968,8 +3589,35 @@
       <c r="AC22" s="4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3058,8 +3706,35 @@
       <c r="AC23" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -3148,8 +3823,35 @@
       <c r="AC24" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -3238,8 +3940,35 @@
       <c r="AC25" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -3328,8 +4057,35 @@
       <c r="AC26" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -3418,8 +4174,35 @@
       <c r="AC27" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -3508,8 +4291,35 @@
       <c r="AC28" s="4">
         <v>5.7999999999999996E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -3598,8 +4408,35 @@
       <c r="AC29" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -3688,8 +4525,35 @@
       <c r="AC30" s="4">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -3778,8 +4642,35 @@
       <c r="AC31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -3868,8 +4759,35 @@
       <c r="AC32" s="4">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -3958,8 +4876,35 @@
       <c r="AC33" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -4048,8 +4993,35 @@
       <c r="AC34" s="4">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -4138,8 +5110,35 @@
       <c r="AC35" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -4228,8 +5227,35 @@
       <c r="AC36" s="4">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -4318,8 +5344,35 @@
       <c r="AC37" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -4408,8 +5461,35 @@
       <c r="AC38" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -4498,8 +5578,35 @@
       <c r="AC39" s="4">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -4588,8 +5695,35 @@
       <c r="AC40" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -4678,8 +5812,35 @@
       <c r="AC41" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -4768,8 +5929,35 @@
       <c r="AC42" s="4">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -4858,8 +6046,35 @@
       <c r="AC43" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -4948,8 +6163,35 @@
       <c r="AC44" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -5038,8 +6280,35 @@
       <c r="AC45" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -5128,8 +6397,35 @@
       <c r="AC46" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -5218,8 +6514,35 @@
       <c r="AC47" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -5308,8 +6631,35 @@
       <c r="AC48" s="4">
         <v>2.7999999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -5398,8 +6748,35 @@
       <c r="AC49" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -5488,8 +6865,35 @@
       <c r="AC50" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -5578,8 +6982,35 @@
       <c r="AC51" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -5668,8 +7099,35 @@
       <c r="AC52" s="4">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -5758,8 +7216,35 @@
       <c r="AC53" s="4">
         <v>1.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -5848,76 +7333,975 @@
       <c r="AC54" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-    </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-    </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-    </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-    </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M59" s="1"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-    </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M60" s="1"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M61" s="1"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B55" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C55" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E55" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G55" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H55" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I55" s="14">
+        <v>5</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L55" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M55" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N55" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O55" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P55" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R55" s="14">
+        <v>45</v>
+      </c>
+      <c r="S55" s="14">
+        <v>65</v>
+      </c>
+      <c r="T55" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V55" s="14">
+        <v>60</v>
+      </c>
+      <c r="W55" s="14">
+        <v>65</v>
+      </c>
+      <c r="X55" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB55" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC55" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AF55" s="13">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C56" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D56" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E56" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G56" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H56" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I56" s="14">
+        <v>5</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K56" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L56" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M56" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N56" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O56" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P56" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R56" s="14">
+        <v>45</v>
+      </c>
+      <c r="S56" s="14">
+        <v>65</v>
+      </c>
+      <c r="T56" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V56" s="14">
+        <v>60</v>
+      </c>
+      <c r="W56" s="14">
+        <v>65</v>
+      </c>
+      <c r="X56" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC56" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF56" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C57" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D57" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E57" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G57" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I57" s="14">
+        <v>5</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K57" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L57" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M57" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N57" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O57" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P57" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R57" s="14">
+        <v>45</v>
+      </c>
+      <c r="S57" s="14">
+        <v>65</v>
+      </c>
+      <c r="T57" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V57" s="14">
+        <v>60</v>
+      </c>
+      <c r="W57" s="14">
+        <v>65</v>
+      </c>
+      <c r="X57" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC57" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF57" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL57" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C58" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D58" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G58" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H58" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I58" s="14">
+        <v>5</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K58" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L58" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M58" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N58" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O58" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P58" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R58" s="14">
+        <v>45</v>
+      </c>
+      <c r="S58" s="14">
+        <v>65</v>
+      </c>
+      <c r="T58" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V58" s="14">
+        <v>60</v>
+      </c>
+      <c r="W58" s="14">
+        <v>65</v>
+      </c>
+      <c r="X58" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC58" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF58" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C59" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D59" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E59" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G59" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H59" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I59" s="14">
+        <v>5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L59" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M59" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N59" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O59" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P59" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R59" s="14">
+        <v>45</v>
+      </c>
+      <c r="S59" s="14">
+        <v>65</v>
+      </c>
+      <c r="T59" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U59" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V59" s="14">
+        <v>60</v>
+      </c>
+      <c r="W59" s="14">
+        <v>65</v>
+      </c>
+      <c r="X59" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC59" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AF59" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL59" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B60" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C60" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D60" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E60" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G60" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H60" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I60" s="14">
+        <v>5</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K60" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L60" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M60" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N60" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O60" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P60" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R60" s="14">
+        <v>45</v>
+      </c>
+      <c r="S60" s="14">
+        <v>65</v>
+      </c>
+      <c r="T60" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V60" s="14">
+        <v>60</v>
+      </c>
+      <c r="W60" s="14">
+        <v>65</v>
+      </c>
+      <c r="X60" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC60" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD60" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AF60" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG60" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AH60" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AI60" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AJ60" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="AK60" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL60" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="14">
+        <v>57400</v>
+      </c>
+      <c r="C61" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E61" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="G61" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H61" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I61" s="14">
+        <v>5</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="L61" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="M61" s="14">
+        <v>496.33</v>
+      </c>
+      <c r="N61" s="14">
+        <v>460.85</v>
+      </c>
+      <c r="O61" s="14">
+        <v>127.12</v>
+      </c>
+      <c r="P61" s="17">
+        <v>13854.96</v>
+      </c>
+      <c r="Q61" s="15">
+        <v>13854.96</v>
+      </c>
+      <c r="R61" s="14">
+        <v>45</v>
+      </c>
+      <c r="S61" s="14">
+        <v>65</v>
+      </c>
+      <c r="T61" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V61" s="14">
+        <v>60</v>
+      </c>
+      <c r="W61" s="14">
+        <v>65</v>
+      </c>
+      <c r="X61" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>496.36</v>
+      </c>
+      <c r="AC61" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD61" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AE61" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AF61" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AH61" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AI61" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AJ61" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="AK61" s="18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL61" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
       <c r="M62" s="1"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="15"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+    </row>
+    <row r="63" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
       <c r="M63" s="1"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK63"/>
+      <c r="AL63"/>
+    </row>
+    <row r="64" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
       <c r="M64" s="1"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="13:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK64"/>
+      <c r="AL64"/>
+    </row>
+    <row r="65" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
       <c r="M65" s="1"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="13:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK65"/>
+      <c r="AL65"/>
+    </row>
+    <row r="66" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
       <c r="M66" s="1"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="13:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK66"/>
+      <c r="AL66"/>
+    </row>
+    <row r="67" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
       <c r="M67" s="1"/>
-      <c r="P67" s="5"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="13:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="5"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Desktop/Chaire/cpp-master reform/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Desktop/cpp-master_PCM_reform/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7187257-EAF8-1D4B-BFBD-D74B2BF4660E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27873D8E-4A16-EA48-8283-C29B7AF55BE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,6 +117,9 @@
     <t>cola</t>
   </si>
   <si>
+    <t>ympe_s2</t>
+  </si>
+  <si>
     <t>worker_s1</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t>selfemp_s2</t>
   </si>
   <si>
-    <t>ympe_s2</t>
-  </si>
-  <si>
     <t>reprate_s1</t>
   </si>
   <si>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,12 +290,6 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -660,14 +654,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -729,7 +727,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +765,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,25 +1021,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AL115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="15" width="10.83203125" style="1"/>
     <col min="16" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="31" width="10.83203125" style="1"/>
-    <col min="32" max="32" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" style="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.83203125" style="1"/>
-    <col min="39" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
@@ -1133,30 +1126,30 @@
         <v>28</v>
       </c>
       <c r="AD1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1249,31 +1242,31 @@
       <c r="AC2" s="4">
         <v>0</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="12">
         <v>1</v>
       </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
+      <c r="AE2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1287,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F61" si="0">D3+E3</f>
+        <f t="shared" ref="F3:F54" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G3" s="10">
@@ -1366,31 +1359,31 @@
       <c r="AC3" s="4">
         <v>0</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="12">
         <v>1</v>
       </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
+      <c r="AE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1483,31 +1476,31 @@
       <c r="AC4" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="12">
         <v>1</v>
       </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
+      <c r="AE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1600,31 +1593,31 @@
       <c r="AC5" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="12">
         <v>1</v>
       </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AE5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1717,31 +1710,31 @@
       <c r="AC6" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="12">
         <v>1</v>
       </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1834,31 +1827,31 @@
       <c r="AC7" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="12">
         <v>1</v>
       </c>
-      <c r="AE7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1951,31 +1944,31 @@
       <c r="AC8" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="12">
         <v>1</v>
       </c>
-      <c r="AE8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2068,31 +2061,31 @@
       <c r="AC9" s="4">
         <v>0.03</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AD9" s="12">
         <v>1</v>
       </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
+      <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2185,31 +2178,31 @@
       <c r="AC10" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="12">
         <v>1</v>
       </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2302,31 +2295,31 @@
       <c r="AC11" s="4">
         <v>0.10400000000000001</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="12">
         <v>1</v>
       </c>
-      <c r="AE11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2419,31 +2412,31 @@
       <c r="AC12" s="4">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="12">
         <v>1</v>
       </c>
-      <c r="AE12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2536,31 +2529,31 @@
       <c r="AC13" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="12">
         <v>1</v>
       </c>
-      <c r="AE13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2653,31 +2646,31 @@
       <c r="AC14" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="12">
         <v>1</v>
       </c>
-      <c r="AE14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
+      <c r="AE14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2770,31 +2763,31 @@
       <c r="AC15" s="4">
         <v>0.09</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD15" s="12">
         <v>1</v>
       </c>
-      <c r="AE15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2887,31 +2880,31 @@
       <c r="AC16" s="4">
         <v>0.09</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD16" s="12">
         <v>1</v>
       </c>
-      <c r="AE16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3004,31 +2997,31 @@
       <c r="AC17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="12">
         <v>1</v>
       </c>
-      <c r="AE17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3121,31 +3114,31 @@
       <c r="AC18" s="4">
         <v>0.12300000000000001</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AD18" s="12">
         <v>1</v>
       </c>
-      <c r="AE18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
+      <c r="AE18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3238,31 +3231,31 @@
       <c r="AC19" s="4">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD19" s="12">
         <v>1</v>
       </c>
-      <c r="AE19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
+      <c r="AE19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3355,31 +3348,31 @@
       <c r="AC20" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AD20" s="12">
         <v>1</v>
       </c>
-      <c r="AE20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3472,31 +3465,31 @@
       <c r="AC21" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD21" s="12">
         <v>1</v>
       </c>
-      <c r="AE21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
+      <c r="AE21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3589,31 +3582,31 @@
       <c r="AC22" s="4">
         <v>0.04</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="12">
         <v>1</v>
       </c>
-      <c r="AE22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
+      <c r="AE22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3706,31 +3699,31 @@
       <c r="AC23" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD23" s="12">
         <v>1</v>
       </c>
-      <c r="AE23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
+      <c r="AE23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3823,31 +3816,31 @@
       <c r="AC24" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AD24" s="12">
         <v>1</v>
       </c>
-      <c r="AE24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
+      <c r="AE24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3940,31 +3933,31 @@
       <c r="AC25" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25" s="12">
         <v>1</v>
       </c>
-      <c r="AE25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
+      <c r="AE25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4057,31 +4050,31 @@
       <c r="AC26" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26" s="12">
         <v>1</v>
       </c>
-      <c r="AE26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
+      <c r="AE26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4174,31 +4167,31 @@
       <c r="AC27" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AD27" s="12">
         <v>1</v>
       </c>
-      <c r="AE27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
+      <c r="AE27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4291,31 +4284,31 @@
       <c r="AC28" s="4">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AD28" s="12">
         <v>1</v>
       </c>
-      <c r="AE28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
+      <c r="AE28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4408,31 +4401,31 @@
       <c r="AC29" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD29" s="12">
         <v>1</v>
       </c>
-      <c r="AE29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
+      <c r="AE29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4525,31 +4518,31 @@
       <c r="AC30" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="AD30" s="4">
+      <c r="AD30" s="12">
         <v>1</v>
       </c>
-      <c r="AE30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
+      <c r="AE30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4642,31 +4635,31 @@
       <c r="AC31" s="4">
         <v>0</v>
       </c>
-      <c r="AD31" s="4">
+      <c r="AD31" s="12">
         <v>1</v>
       </c>
-      <c r="AE31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
+      <c r="AE31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4759,31 +4752,31 @@
       <c r="AC32" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="AD32" s="4">
+      <c r="AD32" s="12">
         <v>1</v>
       </c>
-      <c r="AE32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
+      <c r="AE32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4876,31 +4869,31 @@
       <c r="AC33" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD33" s="4">
+      <c r="AD33" s="12">
         <v>1</v>
       </c>
-      <c r="AE33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
+      <c r="AE33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4993,31 +4986,31 @@
       <c r="AC34" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="AD34" s="4">
+      <c r="AD34" s="12">
         <v>1</v>
       </c>
-      <c r="AE34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
+      <c r="AE34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5110,31 +5103,31 @@
       <c r="AC35" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD35" s="4">
+      <c r="AD35" s="12">
         <v>1</v>
       </c>
-      <c r="AE35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5227,31 +5220,31 @@
       <c r="AC36" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AD36" s="12">
         <v>1</v>
       </c>
-      <c r="AE36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5344,31 +5337,31 @@
       <c r="AC37" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD37" s="4">
+      <c r="AD37" s="12">
         <v>1</v>
       </c>
-      <c r="AE37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
+      <c r="AE37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5461,31 +5454,31 @@
       <c r="AC38" s="4">
         <v>0.03</v>
       </c>
-      <c r="AD38" s="4">
+      <c r="AD38" s="12">
         <v>1</v>
       </c>
-      <c r="AE38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
+      <c r="AE38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5578,31 +5571,31 @@
       <c r="AC39" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="AD39" s="4">
+      <c r="AD39" s="12">
         <v>1</v>
       </c>
-      <c r="AE39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
+      <c r="AE39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5695,31 +5688,31 @@
       <c r="AC40" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AD40" s="4">
+      <c r="AD40" s="12">
         <v>1</v>
       </c>
-      <c r="AE40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
+      <c r="AE40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5812,31 +5805,31 @@
       <c r="AC41" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AD41" s="4">
+      <c r="AD41" s="12">
         <v>1</v>
       </c>
-      <c r="AE41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5929,31 +5922,31 @@
       <c r="AC42" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="AD42" s="4">
+      <c r="AD42" s="12">
         <v>1</v>
       </c>
-      <c r="AE42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
+      <c r="AE42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6046,31 +6039,31 @@
       <c r="AC43" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AD43" s="4">
+      <c r="AD43" s="12">
         <v>1</v>
       </c>
-      <c r="AE43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6163,31 +6156,31 @@
       <c r="AC44" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD44" s="4">
+      <c r="AD44" s="12">
         <v>1</v>
       </c>
-      <c r="AE44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6280,31 +6273,31 @@
       <c r="AC45" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD45" s="4">
+      <c r="AD45" s="12">
         <v>1</v>
       </c>
-      <c r="AE45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
+      <c r="AE45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6397,31 +6390,31 @@
       <c r="AC46" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AD46" s="4">
+      <c r="AD46" s="12">
         <v>1</v>
       </c>
-      <c r="AE46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6514,31 +6507,31 @@
       <c r="AC47" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AD47" s="4">
+      <c r="AD47" s="12">
         <v>1</v>
       </c>
-      <c r="AE47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
+      <c r="AE47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6631,31 +6624,31 @@
       <c r="AC48" s="4">
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="AD48" s="4">
+      <c r="AD48" s="12">
         <v>1</v>
       </c>
-      <c r="AE48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
+      <c r="AE48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6748,31 +6741,31 @@
       <c r="AC49" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD49" s="4">
+      <c r="AD49" s="12">
         <v>1</v>
       </c>
-      <c r="AE49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6865,31 +6858,31 @@
       <c r="AC50" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD50" s="4">
+      <c r="AD50" s="12">
         <v>1</v>
       </c>
-      <c r="AE50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6982,31 +6975,31 @@
       <c r="AC51" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD51" s="4">
+      <c r="AD51" s="12">
         <v>1</v>
       </c>
-      <c r="AE51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
+      <c r="AE51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="19">
         <v>0</v>
       </c>
     </row>
@@ -7099,31 +7092,31 @@
       <c r="AC52" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="AD52" s="4">
+      <c r="AD52" s="12">
         <v>1</v>
       </c>
-      <c r="AE52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
+      <c r="AE52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="19">
         <v>0</v>
       </c>
     </row>
@@ -7216,31 +7209,31 @@
       <c r="AC53" s="4">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AD53" s="4">
+      <c r="AD53" s="12">
         <v>1</v>
       </c>
-      <c r="AE53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="19">
         <v>0</v>
       </c>
     </row>
@@ -7333,975 +7326,1442 @@
       <c r="AC54" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD54" s="4">
+      <c r="AD54" s="12">
         <v>1</v>
       </c>
-      <c r="AE54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
+      <c r="AE54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+      <c r="A55" s="16">
         <v>2019</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="11">
         <v>57400</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <v>3500</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F55" s="12">
-        <f t="shared" si="0"/>
+      <c r="F55" s="11">
         <v>0.108</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="11">
         <v>5</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="12">
         <v>0.25</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="11">
         <v>0.15</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="11">
         <v>496.33</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="11">
         <v>496.33</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N55" s="11">
         <v>460.85</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="11">
         <v>127.12</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q55" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55" s="11">
         <v>45</v>
       </c>
-      <c r="S55" s="14">
-        <v>65</v>
-      </c>
-      <c r="T55" s="12">
+      <c r="S55" s="11">
+        <v>65</v>
+      </c>
+      <c r="T55" s="11">
         <v>0.375</v>
       </c>
-      <c r="U55" s="12">
+      <c r="U55" s="11">
         <v>0.6</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="11">
         <v>60</v>
       </c>
-      <c r="W55" s="14">
-        <v>65</v>
-      </c>
-      <c r="X55" s="14">
+      <c r="W55" s="11">
+        <v>65</v>
+      </c>
+      <c r="X55" s="11">
         <v>70</v>
       </c>
-      <c r="AA55" s="14">
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB55" s="14">
+      <c r="AB55" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC55" s="16">
+      <c r="AC55" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD55" s="4">
+      <c r="AD55" s="12">
         <v>1</v>
       </c>
-      <c r="AE55" s="13">
+      <c r="AE55" s="18">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="13">
+      <c r="AF55" s="11">
         <v>1.5E-3</v>
       </c>
-      <c r="AG55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="13">
+      <c r="AG55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="18">
+      <c r="AJ55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL55" s="18">
+      <c r="AL55" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+      <c r="A56" s="16">
         <v>2020</v>
       </c>
-      <c r="B56" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="B56" s="11">
+        <f>B55*1.03</f>
+        <v>59122</v>
+      </c>
+      <c r="C56" s="11">
         <v>3500</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F56" s="12">
-        <f t="shared" si="0"/>
+      <c r="F56" s="11">
         <v>0.108</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="11">
         <v>5</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="12">
         <v>0.25</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="11">
         <v>0.15</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="11">
         <v>496.33</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="11">
         <v>496.33</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N56" s="11">
         <v>460.85</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="11">
         <v>127.12</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q56" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56" s="11">
         <v>45</v>
       </c>
-      <c r="S56" s="14">
-        <v>65</v>
-      </c>
-      <c r="T56" s="12">
+      <c r="S56" s="11">
+        <v>65</v>
+      </c>
+      <c r="T56" s="11">
         <v>0.375</v>
       </c>
-      <c r="U56" s="12">
+      <c r="U56" s="11">
         <v>0.6</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="11">
         <v>60</v>
       </c>
-      <c r="W56" s="14">
-        <v>65</v>
-      </c>
-      <c r="X56" s="14">
+      <c r="W56" s="11">
+        <v>65</v>
+      </c>
+      <c r="X56" s="11">
         <v>70</v>
       </c>
-      <c r="AA56" s="14">
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB56" s="14">
+      <c r="AB56" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC56" s="16">
+      <c r="AC56" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD56" s="4">
+      <c r="AD56" s="12">
         <v>1</v>
       </c>
-      <c r="AE56" s="13">
+      <c r="AE56" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="13">
+      <c r="AF56" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="13">
+      <c r="AG56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="18">
+      <c r="AJ56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL56" s="18">
+      <c r="AL56" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+      <c r="A57" s="16">
         <v>2021</v>
       </c>
-      <c r="B57" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C57" s="14">
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:B61" si="1">B56*1.03</f>
+        <v>60895.66</v>
+      </c>
+      <c r="C57" s="11">
         <v>3500</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F57" s="12">
-        <f t="shared" si="0"/>
+      <c r="F57" s="11">
         <v>0.108</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="11">
         <v>5</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="12">
         <v>0.25</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="11">
         <v>0.15</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="11">
         <v>496.33</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="11">
         <v>496.33</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="11">
         <v>460.85</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="11">
         <v>127.12</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q57" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="11">
         <v>45</v>
       </c>
-      <c r="S57" s="14">
-        <v>65</v>
-      </c>
-      <c r="T57" s="12">
+      <c r="S57" s="11">
+        <v>65</v>
+      </c>
+      <c r="T57" s="11">
         <v>0.375</v>
       </c>
-      <c r="U57" s="12">
+      <c r="U57" s="11">
         <v>0.6</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="11">
         <v>60</v>
       </c>
-      <c r="W57" s="14">
-        <v>65</v>
-      </c>
-      <c r="X57" s="14">
+      <c r="W57" s="11">
+        <v>65</v>
+      </c>
+      <c r="X57" s="11">
         <v>70</v>
       </c>
-      <c r="AA57" s="14">
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB57" s="14">
+      <c r="AB57" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC57" s="16">
+      <c r="AC57" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD57" s="4">
+      <c r="AD57" s="12">
         <v>1</v>
       </c>
-      <c r="AE57" s="13">
+      <c r="AE57" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AF57" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="13">
+      <c r="AG57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="11">
         <v>0.01</v>
       </c>
-      <c r="AJ57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="18">
+      <c r="AJ57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL57" s="18">
+      <c r="AL57" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
+      <c r="A58" s="16">
         <v>2022</v>
       </c>
-      <c r="B58" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C58" s="14">
+      <c r="B58" s="11">
+        <f t="shared" si="1"/>
+        <v>62722.529800000004</v>
+      </c>
+      <c r="C58" s="11">
         <v>3500</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F58" s="12">
-        <f t="shared" si="0"/>
+      <c r="F58" s="11">
         <v>0.108</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="11">
         <v>5</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="12">
         <v>0.25</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="11">
         <v>0.15</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="11">
         <v>496.33</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="11">
         <v>496.33</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="11">
         <v>460.85</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O58" s="11">
         <v>127.12</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q58" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R58" s="11">
         <v>45</v>
       </c>
-      <c r="S58" s="14">
-        <v>65</v>
-      </c>
-      <c r="T58" s="12">
+      <c r="S58" s="11">
+        <v>65</v>
+      </c>
+      <c r="T58" s="11">
         <v>0.375</v>
       </c>
-      <c r="U58" s="12">
+      <c r="U58" s="11">
         <v>0.6</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="11">
         <v>60</v>
       </c>
-      <c r="W58" s="14">
-        <v>65</v>
-      </c>
-      <c r="X58" s="14">
+      <c r="W58" s="11">
+        <v>65</v>
+      </c>
+      <c r="X58" s="11">
         <v>70</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AB58" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC58" s="16">
+      <c r="AC58" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD58" s="4">
+      <c r="AD58" s="12">
         <v>1</v>
       </c>
-      <c r="AE58" s="13">
+      <c r="AE58" s="18">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF58" s="13">
+      <c r="AF58" s="11">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AG58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="13">
+      <c r="AG58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AJ58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="18">
+      <c r="AJ58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL58" s="18">
+      <c r="AL58" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+      <c r="A59" s="16">
         <v>2023</v>
       </c>
-      <c r="B59" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C59" s="14">
+      <c r="B59" s="11">
+        <f t="shared" si="1"/>
+        <v>64604.205694000004</v>
+      </c>
+      <c r="C59" s="11">
         <v>3500</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F59" s="12">
-        <f t="shared" si="0"/>
+      <c r="F59" s="11">
         <v>0.108</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="11">
         <v>5</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="12">
         <v>0.25</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="11">
         <v>0.15</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="11">
         <v>496.33</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="11">
         <v>496.33</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="11">
         <v>460.85</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="11">
         <v>127.12</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q59" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59" s="11">
         <v>45</v>
       </c>
-      <c r="S59" s="14">
-        <v>65</v>
-      </c>
-      <c r="T59" s="12">
+      <c r="S59" s="11">
+        <v>65</v>
+      </c>
+      <c r="T59" s="11">
         <v>0.375</v>
       </c>
-      <c r="U59" s="12">
+      <c r="U59" s="11">
         <v>0.6</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="11">
         <v>60</v>
       </c>
-      <c r="W59" s="14">
-        <v>65</v>
-      </c>
-      <c r="X59" s="14">
+      <c r="W59" s="11">
+        <v>65</v>
+      </c>
+      <c r="X59" s="11">
         <v>70</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AB59" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC59" s="16">
+      <c r="AC59" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD59" s="4">
+      <c r="AD59" s="12">
         <v>1</v>
       </c>
-      <c r="AE59" s="13">
+      <c r="AE59" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF59" s="13">
+      <c r="AF59" s="11">
         <v>0.01</v>
       </c>
-      <c r="AG59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="13">
+      <c r="AG59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="18">
+      <c r="AJ59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL59" s="18">
+      <c r="AL59" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+      <c r="A60" s="16">
         <v>2024</v>
       </c>
-      <c r="B60" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C60" s="14">
+      <c r="B60" s="11">
+        <f t="shared" si="1"/>
+        <v>66542.331864820007</v>
+      </c>
+      <c r="C60" s="11">
         <v>3500</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F60" s="12">
-        <f t="shared" si="0"/>
+      <c r="F60" s="11">
         <v>0.108</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="11">
         <v>5</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="12">
         <v>0.25</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="11">
         <v>0.15</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="11">
         <v>496.33</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="11">
         <v>496.33</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N60" s="11">
         <v>460.85</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O60" s="11">
         <v>127.12</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q60" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R60" s="11">
         <v>45</v>
       </c>
-      <c r="S60" s="14">
-        <v>65</v>
-      </c>
-      <c r="T60" s="12">
+      <c r="S60" s="11">
+        <v>65</v>
+      </c>
+      <c r="T60" s="11">
         <v>0.375</v>
       </c>
-      <c r="U60" s="12">
+      <c r="U60" s="11">
         <v>0.6</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V60" s="11">
         <v>60</v>
       </c>
-      <c r="W60" s="14">
-        <v>65</v>
-      </c>
-      <c r="X60" s="14">
+      <c r="W60" s="11">
+        <v>65</v>
+      </c>
+      <c r="X60" s="11">
         <v>70</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AB60" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC60" s="16">
+      <c r="AC60" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD60" s="13">
+      <c r="AD60" s="11">
         <v>1.07</v>
       </c>
-      <c r="AE60" s="13">
+      <c r="AE60" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF60" s="13">
+      <c r="AF60" s="11">
         <v>0.01</v>
       </c>
-      <c r="AG60" s="13">
+      <c r="AG60" s="11">
         <v>0.04</v>
       </c>
-      <c r="AH60" s="13">
+      <c r="AH60" s="11">
         <v>0.04</v>
       </c>
-      <c r="AI60" s="13">
+      <c r="AI60" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ60" s="13">
+      <c r="AJ60" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK60" s="18">
+      <c r="AK60" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL60" s="18">
+      <c r="AL60" s="20">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+      <c r="A61" s="16">
         <v>2025</v>
       </c>
-      <c r="B61" s="14">
-        <v>57400</v>
-      </c>
-      <c r="C61" s="14">
+      <c r="B61" s="11">
+        <f t="shared" si="1"/>
+        <v>68538.601820764612</v>
+      </c>
+      <c r="C61" s="11">
         <v>3500</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="12">
-        <f t="shared" si="0"/>
+      <c r="F61" s="11">
         <v>0.108</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="11">
         <v>5</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="12">
         <v>0.25</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="11">
         <v>0.15</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="11">
         <v>496.33</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="11">
         <v>496.33</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N61" s="11">
         <v>460.85</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="11">
         <v>127.12</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="14">
         <v>13854.96</v>
       </c>
       <c r="Q61" s="15">
         <v>13854.96</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="11">
         <v>45</v>
       </c>
-      <c r="S61" s="14">
-        <v>65</v>
-      </c>
-      <c r="T61" s="12">
+      <c r="S61" s="11">
+        <v>65</v>
+      </c>
+      <c r="T61" s="11">
         <v>0.375</v>
       </c>
-      <c r="U61" s="12">
+      <c r="U61" s="11">
         <v>0.6</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="11">
         <v>60</v>
       </c>
-      <c r="W61" s="14">
-        <v>65</v>
-      </c>
-      <c r="X61" s="14">
+      <c r="W61" s="11">
+        <v>65</v>
+      </c>
+      <c r="X61" s="11">
         <v>70</v>
       </c>
-      <c r="AA61" s="14">
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB61" s="14">
+      <c r="AB61" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC61" s="16">
+      <c r="AC61" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD61" s="13">
+      <c r="AD61" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AE61" s="13">
+      <c r="AE61" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF61" s="13">
+      <c r="AF61" s="11">
         <v>0.01</v>
       </c>
-      <c r="AG61" s="13">
+      <c r="AG61" s="11">
         <v>0.04</v>
       </c>
-      <c r="AH61" s="13">
+      <c r="AH61" s="11">
         <v>0.04</v>
       </c>
-      <c r="AI61" s="13">
+      <c r="AI61" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ61" s="13">
+      <c r="AJ61" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK61" s="18">
+      <c r="AK61" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL61" s="18">
+      <c r="AL61" s="20">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="M62" s="1"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="AK62"/>
-      <c r="AL62"/>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="M63" s="1"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
     </row>
     <row r="64" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="M64" s="1"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-    </row>
-    <row r="65" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
+    </row>
+    <row r="65" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="M65" s="1"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="AK65"/>
-      <c r="AL65"/>
-    </row>
-    <row r="66" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
+    </row>
+    <row r="66" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
       <c r="M66" s="1"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-    </row>
-    <row r="67" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
+    </row>
+    <row r="67" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="2"/>
+      <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="AK67"/>
-      <c r="AL67"/>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="4"/>
-      <c r="AO71" s="4"/>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="AM72" s="4"/>
-      <c r="AN72" s="4"/>
-      <c r="AO72" s="4"/>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
+    </row>
+    <row r="68" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" s="8"/>
+      <c r="G109"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" s="8"/>
+      <c r="G110"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111" s="8"/>
+      <c r="G111"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" s="8"/>
+      <c r="G112"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" s="8"/>
+      <c r="G113"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Desktop/cpp-master_PCM_reform/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Documents/GitHub/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27873D8E-4A16-EA48-8283-C29B7AF55BE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5EAEB-01C3-0E45-8880-F66F7BE36653}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,10 +1024,10 @@
   <dimension ref="A1:AL115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7502,22 +7502,28 @@
         <v>0.15</v>
       </c>
       <c r="L56" s="11">
-        <v>496.33</v>
+        <f>L55*1.03</f>
+        <v>511.2199</v>
       </c>
       <c r="M56" s="11">
-        <v>496.33</v>
+        <f>M55*1.03</f>
+        <v>511.2199</v>
       </c>
       <c r="N56" s="11">
-        <v>460.85</v>
+        <f>N55*1.03</f>
+        <v>474.67550000000006</v>
       </c>
       <c r="O56" s="11">
-        <v>127.12</v>
+        <f>O55*1.03</f>
+        <v>130.93360000000001</v>
       </c>
       <c r="P56" s="14">
-        <v>13854.96</v>
+        <f>P55*1.03</f>
+        <v>14270.6088</v>
       </c>
       <c r="Q56" s="15">
-        <v>13854.96</v>
+        <f>Q55*1.03</f>
+        <v>14270.6088</v>
       </c>
       <c r="R56" s="11">
         <v>45</v>
@@ -7546,7 +7552,8 @@
         <v>0.75</v>
       </c>
       <c r="AB56" s="11">
-        <v>496.36</v>
+        <f>AB55*1.03</f>
+        <v>511.25080000000003</v>
       </c>
       <c r="AC56" s="11">
         <v>2.3E-2</v>
@@ -7615,22 +7622,28 @@
         <v>0.15</v>
       </c>
       <c r="L57" s="11">
-        <v>496.33</v>
+        <f t="shared" ref="L57:L61" si="2">L56*1.03</f>
+        <v>526.55649700000004</v>
       </c>
       <c r="M57" s="11">
-        <v>496.33</v>
+        <f t="shared" ref="M57:M61" si="3">M56*1.03</f>
+        <v>526.55649700000004</v>
       </c>
       <c r="N57" s="11">
-        <v>460.85</v>
+        <f t="shared" ref="N57:N61" si="4">N56*1.03</f>
+        <v>488.91576500000008</v>
       </c>
       <c r="O57" s="11">
-        <v>127.12</v>
+        <f t="shared" ref="O57:O61" si="5">O56*1.03</f>
+        <v>134.86160800000002</v>
       </c>
       <c r="P57" s="14">
-        <v>13854.96</v>
+        <f t="shared" ref="P57:Q61" si="6">P56*1.03</f>
+        <v>14698.727064000001</v>
       </c>
       <c r="Q57" s="15">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>14698.727064000001</v>
       </c>
       <c r="R57" s="11">
         <v>45</v>
@@ -7659,7 +7672,8 @@
         <v>0.75</v>
       </c>
       <c r="AB57" s="11">
-        <v>496.36</v>
+        <f t="shared" ref="AB57:AB61" si="7">AB56*1.03</f>
+        <v>526.58832400000006</v>
       </c>
       <c r="AC57" s="11">
         <v>2.3E-2</v>
@@ -7728,22 +7742,28 @@
         <v>0.15</v>
       </c>
       <c r="L58" s="11">
-        <v>496.33</v>
+        <f t="shared" si="2"/>
+        <v>542.35319191000008</v>
       </c>
       <c r="M58" s="11">
-        <v>496.33</v>
+        <f t="shared" si="3"/>
+        <v>542.35319191000008</v>
       </c>
       <c r="N58" s="11">
-        <v>460.85</v>
+        <f t="shared" si="4"/>
+        <v>503.58323795000007</v>
       </c>
       <c r="O58" s="11">
-        <v>127.12</v>
+        <f t="shared" si="5"/>
+        <v>138.90745624000002</v>
       </c>
       <c r="P58" s="14">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>15139.688875920001</v>
       </c>
       <c r="Q58" s="15">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>15139.688875920001</v>
       </c>
       <c r="R58" s="11">
         <v>45</v>
@@ -7772,7 +7792,8 @@
         <v>0.75</v>
       </c>
       <c r="AB58" s="11">
-        <v>496.36</v>
+        <f t="shared" si="7"/>
+        <v>542.38597372000004</v>
       </c>
       <c r="AC58" s="11">
         <v>2.3E-2</v>
@@ -7841,22 +7862,28 @@
         <v>0.15</v>
       </c>
       <c r="L59" s="11">
-        <v>496.33</v>
+        <f t="shared" si="2"/>
+        <v>558.62378766730012</v>
       </c>
       <c r="M59" s="11">
-        <v>496.33</v>
+        <f t="shared" si="3"/>
+        <v>558.62378766730012</v>
       </c>
       <c r="N59" s="11">
-        <v>460.85</v>
+        <f t="shared" si="4"/>
+        <v>518.69073508850011</v>
       </c>
       <c r="O59" s="11">
-        <v>127.12</v>
+        <f t="shared" si="5"/>
+        <v>143.07467992720001</v>
       </c>
       <c r="P59" s="14">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>15593.879542197601</v>
       </c>
       <c r="Q59" s="15">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>15593.879542197601</v>
       </c>
       <c r="R59" s="11">
         <v>45</v>
@@ -7885,7 +7912,8 @@
         <v>0.75</v>
       </c>
       <c r="AB59" s="11">
-        <v>496.36</v>
+        <f t="shared" si="7"/>
+        <v>558.65755293160009</v>
       </c>
       <c r="AC59" s="11">
         <v>2.3E-2</v>
@@ -7954,22 +7982,28 @@
         <v>0.15</v>
       </c>
       <c r="L60" s="11">
-        <v>496.33</v>
+        <f t="shared" si="2"/>
+        <v>575.3825012973191</v>
       </c>
       <c r="M60" s="11">
-        <v>496.33</v>
+        <f t="shared" si="3"/>
+        <v>575.3825012973191</v>
       </c>
       <c r="N60" s="11">
-        <v>460.85</v>
+        <f t="shared" si="4"/>
+        <v>534.25145714115513</v>
       </c>
       <c r="O60" s="11">
-        <v>127.12</v>
+        <f t="shared" si="5"/>
+        <v>147.36692032501603</v>
       </c>
       <c r="P60" s="14">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>16061.695928463529</v>
       </c>
       <c r="Q60" s="15">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>16061.695928463529</v>
       </c>
       <c r="R60" s="11">
         <v>45</v>
@@ -7998,7 +8032,8 @@
         <v>0.75</v>
       </c>
       <c r="AB60" s="11">
-        <v>496.36</v>
+        <f t="shared" si="7"/>
+        <v>575.41727951954806</v>
       </c>
       <c r="AC60" s="11">
         <v>2.3E-2</v>
@@ -8067,22 +8102,28 @@
         <v>0.15</v>
       </c>
       <c r="L61" s="11">
-        <v>496.33</v>
+        <f t="shared" si="2"/>
+        <v>592.64397633623867</v>
       </c>
       <c r="M61" s="11">
-        <v>496.33</v>
+        <f t="shared" si="3"/>
+        <v>592.64397633623867</v>
       </c>
       <c r="N61" s="11">
-        <v>460.85</v>
+        <f t="shared" si="4"/>
+        <v>550.27900085538977</v>
       </c>
       <c r="O61" s="11">
-        <v>127.12</v>
+        <f t="shared" si="5"/>
+        <v>151.78792793476651</v>
       </c>
       <c r="P61" s="14">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>16543.546806317434</v>
       </c>
       <c r="Q61" s="15">
-        <v>13854.96</v>
+        <f t="shared" si="6"/>
+        <v>16543.546806317434</v>
       </c>
       <c r="R61" s="11">
         <v>45</v>
@@ -8111,7 +8152,8 @@
         <v>0.75</v>
       </c>
       <c r="AB61" s="11">
-        <v>496.36</v>
+        <f t="shared" si="7"/>
+        <v>592.67979790513448</v>
       </c>
       <c r="AC61" s="11">
         <v>2.3E-2</v>

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Documents/GitHub/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/git/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5EAEB-01C3-0E45-8880-F66F7BE36653}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52080" yWindow="2860" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -143,11 +148,14 @@
   <si>
     <t>reprate_s2</t>
   </si>
+  <si>
+    <t>ca</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -642,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -656,7 +664,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -668,48 +675,48 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,24 +1027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,103 +1064,106 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1179,18 +1189,18 @@
       <c r="H2" s="10">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
       <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>0.15</v>
       </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
       <c r="M2" s="6">
         <v>0</v>
       </c>
@@ -1200,54 +1210,54 @@
       <c r="O2" s="6">
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>0</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
         <v>45</v>
       </c>
-      <c r="S2" s="6">
-        <v>65</v>
-      </c>
-      <c r="T2" s="10">
+      <c r="T2" s="6">
+        <v>65</v>
+      </c>
+      <c r="U2" s="10">
         <v>0.375</v>
       </c>
-      <c r="U2" s="10">
+      <c r="V2" s="10">
         <v>0.6</v>
-      </c>
-      <c r="V2" s="6">
-        <v>67</v>
       </c>
       <c r="W2" s="6">
         <v>67</v>
       </c>
       <c r="X2" s="6">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="6">
         <v>70</v>
       </c>
-      <c r="Y2" s="9">
-        <v>0</v>
-      </c>
       <c r="Z2" s="9">
         <v>0</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="12">
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="12">
         <v>1</v>
       </c>
-      <c r="AE2" s="12">
-        <v>0</v>
-      </c>
       <c r="AF2" s="12">
         <v>0</v>
       </c>
@@ -1263,14 +1273,17 @@
       <c r="AJ2" s="12">
         <v>0</v>
       </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="19">
+      <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1296,18 +1309,18 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
       <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
         <v>0.15</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
@@ -1317,54 +1330,54 @@
       <c r="O3" s="6">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <v>239.64</v>
+      <c r="P3" s="6">
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <v>239.64</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="1">
+        <v>239.64</v>
+      </c>
+      <c r="S3" s="6">
         <v>45</v>
       </c>
-      <c r="S3" s="6">
-        <v>65</v>
-      </c>
-      <c r="T3" s="10">
+      <c r="T3" s="6">
+        <v>65</v>
+      </c>
+      <c r="U3" s="10">
         <v>0.375</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>0.6</v>
-      </c>
-      <c r="V3" s="6">
-        <v>67</v>
       </c>
       <c r="W3" s="6">
         <v>67</v>
       </c>
       <c r="X3" s="6">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="6">
         <v>70</v>
       </c>
-      <c r="Y3" s="9">
-        <v>0</v>
-      </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="12">
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12">
         <v>1</v>
       </c>
-      <c r="AE3" s="12">
-        <v>0</v>
-      </c>
       <c r="AF3" s="12">
         <v>0</v>
       </c>
@@ -1380,14 +1393,17 @@
       <c r="AJ3" s="12">
         <v>0</v>
       </c>
-      <c r="AK3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19">
+      <c r="AK3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1413,17 +1429,17 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.25</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L4" s="6">
-        <v>25.5</v>
       </c>
       <c r="M4" s="6">
         <v>25.5</v>
@@ -1434,54 +1450,54 @@
       <c r="O4" s="6">
         <v>25.5</v>
       </c>
-      <c r="P4" s="1">
-        <v>366.96</v>
+      <c r="P4" s="6">
+        <v>25.5</v>
       </c>
       <c r="Q4" s="1">
         <v>366.96</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="1">
+        <v>366.96</v>
+      </c>
+      <c r="S4" s="6">
         <v>45</v>
       </c>
-      <c r="S4" s="6">
-        <v>65</v>
-      </c>
-      <c r="T4" s="10">
+      <c r="T4" s="6">
+        <v>65</v>
+      </c>
+      <c r="U4" s="10">
         <v>0.375</v>
       </c>
-      <c r="U4" s="10">
+      <c r="V4" s="10">
         <v>0.6</v>
-      </c>
-      <c r="V4" s="6">
-        <v>67</v>
       </c>
       <c r="W4" s="6">
         <v>67</v>
       </c>
       <c r="X4" s="6">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="6">
         <v>70</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0</v>
-      </c>
       <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AE4" s="12">
         <v>1</v>
       </c>
-      <c r="AE4" s="12">
-        <v>0</v>
-      </c>
       <c r="AF4" s="12">
         <v>0</v>
       </c>
@@ -1497,14 +1513,17 @@
       <c r="AJ4" s="12">
         <v>0</v>
       </c>
-      <c r="AK4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="19">
+      <c r="AK4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1530,17 +1549,17 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.25</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L5" s="6">
-        <v>26.01</v>
       </c>
       <c r="M5" s="6">
         <v>26.01</v>
@@ -1551,54 +1570,54 @@
       <c r="O5" s="6">
         <v>26.01</v>
       </c>
-      <c r="P5" s="1">
-        <v>499.44</v>
+      <c r="P5" s="6">
+        <v>26.01</v>
       </c>
       <c r="Q5" s="1">
         <v>499.44</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="1">
+        <v>499.44</v>
+      </c>
+      <c r="S5" s="6">
         <v>45</v>
       </c>
-      <c r="S5" s="6">
-        <v>65</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="T5" s="6">
+        <v>65</v>
+      </c>
+      <c r="U5" s="10">
         <v>0.375</v>
       </c>
-      <c r="U5" s="10">
+      <c r="V5" s="10">
         <v>0.6</v>
-      </c>
-      <c r="V5" s="6">
-        <v>66</v>
       </c>
       <c r="W5" s="6">
         <v>66</v>
       </c>
       <c r="X5" s="6">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="6">
         <v>70</v>
       </c>
-      <c r="Y5" s="9">
-        <v>0</v>
-      </c>
       <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AE5" s="12">
         <v>1</v>
       </c>
-      <c r="AE5" s="12">
-        <v>0</v>
-      </c>
       <c r="AF5" s="12">
         <v>0</v>
       </c>
@@ -1614,14 +1633,17 @@
       <c r="AJ5" s="12">
         <v>0</v>
       </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
+      <c r="AK5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1647,17 +1669,17 @@
       <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.25</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L6" s="6">
-        <v>26.53</v>
       </c>
       <c r="M6" s="6">
         <v>26.53</v>
@@ -1668,54 +1690,54 @@
       <c r="O6" s="6">
         <v>26.53</v>
       </c>
-      <c r="P6" s="1">
-        <v>639.12</v>
+      <c r="P6" s="6">
+        <v>26.53</v>
       </c>
       <c r="Q6" s="1">
         <v>639.12</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="1">
+        <v>639.12</v>
+      </c>
+      <c r="S6" s="6">
         <v>45</v>
       </c>
-      <c r="S6" s="6">
-        <v>65</v>
-      </c>
-      <c r="T6" s="10">
+      <c r="T6" s="6">
+        <v>65</v>
+      </c>
+      <c r="U6" s="10">
         <v>0.375</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="10">
         <v>0.6</v>
       </c>
-      <c r="V6" s="6">
-        <v>65</v>
-      </c>
       <c r="W6" s="6">
         <v>65</v>
       </c>
       <c r="X6" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="6">
         <v>70</v>
       </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
       <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AC6" s="6">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AE6" s="12">
         <v>1</v>
       </c>
-      <c r="AE6" s="12">
-        <v>0</v>
-      </c>
       <c r="AF6" s="12">
         <v>0</v>
       </c>
@@ -1731,14 +1753,17 @@
       <c r="AJ6" s="12">
         <v>0</v>
       </c>
-      <c r="AK6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="19">
+      <c r="AK6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1764,17 +1789,17 @@
       <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.25</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L7" s="6">
-        <v>27.06</v>
       </c>
       <c r="M7" s="6">
         <v>27.06</v>
@@ -1785,54 +1810,54 @@
       <c r="O7" s="6">
         <v>27.06</v>
       </c>
-      <c r="P7" s="1">
-        <v>783.96</v>
+      <c r="P7" s="6">
+        <v>27.06</v>
       </c>
       <c r="Q7" s="1">
         <v>783.96</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="1">
+        <v>783.96</v>
+      </c>
+      <c r="S7" s="6">
         <v>45</v>
       </c>
-      <c r="S7" s="6">
-        <v>65</v>
-      </c>
-      <c r="T7" s="10">
+      <c r="T7" s="6">
+        <v>65</v>
+      </c>
+      <c r="U7" s="10">
         <v>0.375</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <v>0.6</v>
       </c>
-      <c r="V7" s="6">
-        <v>65</v>
-      </c>
       <c r="W7" s="6">
         <v>65</v>
       </c>
       <c r="X7" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="6">
         <v>70</v>
       </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
       <c r="Z7" s="9">
         <v>0</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AD7" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>1</v>
       </c>
-      <c r="AE7" s="12">
-        <v>0</v>
-      </c>
       <c r="AF7" s="12">
         <v>0</v>
       </c>
@@ -1848,14 +1873,17 @@
       <c r="AJ7" s="12">
         <v>0</v>
       </c>
-      <c r="AK7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="19">
+      <c r="AK7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -1881,17 +1909,17 @@
       <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.25</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L8" s="6">
-        <v>27.6</v>
       </c>
       <c r="M8" s="6">
         <v>27.6</v>
@@ -1902,54 +1930,54 @@
       <c r="O8" s="6">
         <v>27.6</v>
       </c>
-      <c r="P8" s="1">
-        <v>933.72</v>
+      <c r="P8" s="6">
+        <v>27.6</v>
       </c>
       <c r="Q8" s="1">
         <v>933.72</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="1">
+        <v>933.72</v>
+      </c>
+      <c r="S8" s="6">
         <v>45</v>
       </c>
-      <c r="S8" s="6">
-        <v>65</v>
-      </c>
-      <c r="T8" s="10">
+      <c r="T8" s="6">
+        <v>65</v>
+      </c>
+      <c r="U8" s="10">
         <v>0.375</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <v>0.6</v>
       </c>
-      <c r="V8" s="6">
-        <v>65</v>
-      </c>
       <c r="W8" s="6">
         <v>65</v>
       </c>
       <c r="X8" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="6">
         <v>70</v>
       </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
       <c r="Z8" s="9">
         <v>0</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AC8" s="6">
         <v>80</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AD8" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AE8" s="12">
         <v>1</v>
       </c>
-      <c r="AE8" s="12">
-        <v>0</v>
-      </c>
       <c r="AF8" s="12">
         <v>0</v>
       </c>
@@ -1965,14 +1993,17 @@
       <c r="AJ8" s="12">
         <v>0</v>
       </c>
-      <c r="AK8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="19">
+      <c r="AK8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -1998,17 +2029,17 @@
       <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.25</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L9" s="6">
-        <v>80</v>
       </c>
       <c r="M9" s="6">
         <v>80</v>
@@ -2019,54 +2050,54 @@
       <c r="O9" s="6">
         <v>80</v>
       </c>
-      <c r="P9" s="8">
-        <v>1108.32</v>
+      <c r="P9" s="6">
+        <v>80</v>
       </c>
       <c r="Q9" s="8">
         <v>1108.32</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="8">
+        <v>1108.32</v>
+      </c>
+      <c r="S9" s="6">
         <v>45</v>
       </c>
-      <c r="S9" s="6">
-        <v>65</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="T9" s="6">
+        <v>65</v>
+      </c>
+      <c r="U9" s="10">
         <v>0.375</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <v>0.6</v>
       </c>
-      <c r="V9" s="6">
-        <v>65</v>
-      </c>
       <c r="W9" s="6">
         <v>65</v>
       </c>
       <c r="X9" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="6">
         <v>70</v>
       </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
       <c r="Z9" s="9">
         <v>0</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AC9" s="6">
         <v>86.56</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AD9" s="4">
         <v>0.03</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AE9" s="12">
         <v>1</v>
       </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
       <c r="AF9" s="12">
         <v>0</v>
       </c>
@@ -2082,14 +2113,17 @@
       <c r="AJ9" s="12">
         <v>0</v>
       </c>
-      <c r="AK9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="19">
+      <c r="AK9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -2115,17 +2149,17 @@
       <c r="H10" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.25</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L10" s="6">
-        <v>86.56</v>
       </c>
       <c r="M10" s="6">
         <v>86.56</v>
@@ -2136,54 +2170,54 @@
       <c r="O10" s="6">
         <v>86.56</v>
       </c>
-      <c r="P10" s="8">
-        <v>1337.52</v>
+      <c r="P10" s="6">
+        <v>86.56</v>
       </c>
       <c r="Q10" s="8">
         <v>1337.52</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="8">
+        <v>1337.52</v>
+      </c>
+      <c r="S10" s="6">
         <v>45</v>
       </c>
-      <c r="S10" s="6">
-        <v>65</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="T10" s="6">
+        <v>65</v>
+      </c>
+      <c r="U10" s="10">
         <v>0.375</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <v>0.6</v>
       </c>
-      <c r="V10" s="6">
-        <v>65</v>
-      </c>
       <c r="W10" s="6">
         <v>65</v>
       </c>
       <c r="X10" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="6">
         <v>70</v>
       </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
       <c r="Z10" s="9">
         <v>0</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AC10" s="6">
         <v>95.59</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AD10" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AE10" s="12">
         <v>1</v>
       </c>
-      <c r="AE10" s="12">
-        <v>0</v>
-      </c>
       <c r="AF10" s="12">
         <v>0</v>
       </c>
@@ -2199,14 +2233,17 @@
       <c r="AJ10" s="12">
         <v>0</v>
       </c>
-      <c r="AK10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="19">
+      <c r="AK10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -2232,17 +2269,17 @@
       <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>0.25</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L11" s="6">
-        <v>95.56</v>
       </c>
       <c r="M11" s="6">
         <v>95.56</v>
@@ -2253,54 +2290,54 @@
       <c r="O11" s="6">
         <v>95.56</v>
       </c>
-      <c r="P11" s="8">
-        <v>1644.48</v>
+      <c r="P11" s="6">
+        <v>95.56</v>
       </c>
       <c r="Q11" s="8">
         <v>1644.48</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="8">
+        <v>1644.48</v>
+      </c>
+      <c r="S11" s="6">
         <v>45</v>
       </c>
-      <c r="S11" s="6">
-        <v>65</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="T11" s="6">
+        <v>65</v>
+      </c>
+      <c r="U11" s="10">
         <v>0.375</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <v>0.6</v>
       </c>
-      <c r="V11" s="6">
-        <v>65</v>
-      </c>
       <c r="W11" s="6">
         <v>65</v>
       </c>
       <c r="X11" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="6">
         <v>70</v>
       </c>
-      <c r="Y11" s="9">
-        <v>0</v>
-      </c>
       <c r="Z11" s="9">
         <v>0</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AC11" s="6">
         <v>106.26</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AD11" s="4">
         <v>0.10400000000000001</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AE11" s="12">
         <v>1</v>
       </c>
-      <c r="AE11" s="12">
-        <v>0</v>
-      </c>
       <c r="AF11" s="12">
         <v>0</v>
       </c>
@@ -2316,14 +2353,17 @@
       <c r="AJ11" s="12">
         <v>0</v>
       </c>
-      <c r="AK11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="19">
+      <c r="AK11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2349,17 +2389,17 @@
       <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>0.25</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L12" s="6">
-        <v>106.26</v>
       </c>
       <c r="M12" s="6">
         <v>106.26</v>
@@ -2370,54 +2410,54 @@
       <c r="O12" s="6">
         <v>106.26</v>
       </c>
-      <c r="P12" s="1">
-        <v>1858.3200000000002</v>
+      <c r="P12" s="6">
+        <v>106.26</v>
       </c>
       <c r="Q12" s="1">
         <v>1858.3200000000002</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="1">
+        <v>1858.3200000000002</v>
+      </c>
+      <c r="S12" s="6">
         <v>45</v>
       </c>
-      <c r="S12" s="6">
-        <v>65</v>
-      </c>
-      <c r="T12" s="10">
+      <c r="T12" s="6">
+        <v>65</v>
+      </c>
+      <c r="U12" s="10">
         <v>0.375</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <v>0.6</v>
       </c>
-      <c r="V12" s="6">
-        <v>65</v>
-      </c>
       <c r="W12" s="6">
         <v>65</v>
       </c>
       <c r="X12" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="6">
         <v>70</v>
       </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
       <c r="Z12" s="9">
         <v>0</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AC12" s="6">
         <v>114.96</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AD12" s="4">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AE12" s="12">
         <v>1</v>
       </c>
-      <c r="AE12" s="12">
-        <v>0</v>
-      </c>
       <c r="AF12" s="12">
         <v>0</v>
       </c>
@@ -2433,14 +2473,17 @@
       <c r="AJ12" s="12">
         <v>0</v>
       </c>
-      <c r="AK12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="19">
+      <c r="AK12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2466,17 +2509,17 @@
       <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.25</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L13" s="6">
-        <v>114.96</v>
       </c>
       <c r="M13" s="6">
         <v>114.96</v>
@@ -2487,54 +2530,54 @@
       <c r="O13" s="6">
         <v>114.96</v>
       </c>
-      <c r="P13" s="1">
-        <v>2083.3200000000002</v>
+      <c r="P13" s="6">
+        <v>114.96</v>
       </c>
       <c r="Q13" s="1">
         <v>2083.3200000000002</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="1">
+        <v>2083.3200000000002</v>
+      </c>
+      <c r="S13" s="6">
         <v>45</v>
       </c>
-      <c r="S13" s="6">
-        <v>65</v>
-      </c>
-      <c r="T13" s="10">
+      <c r="T13" s="6">
+        <v>65</v>
+      </c>
+      <c r="U13" s="10">
         <v>0.375</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <v>0.6</v>
       </c>
-      <c r="V13" s="6">
-        <v>65</v>
-      </c>
       <c r="W13" s="6">
         <v>65</v>
       </c>
       <c r="X13" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="6">
         <v>70</v>
       </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
       <c r="Z13" s="9">
         <v>0</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AC13" s="6">
         <v>123.56</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AE13" s="12">
         <v>1</v>
       </c>
-      <c r="AE13" s="12">
-        <v>0</v>
-      </c>
       <c r="AF13" s="12">
         <v>0</v>
       </c>
@@ -2550,14 +2593,17 @@
       <c r="AJ13" s="12">
         <v>0</v>
       </c>
-      <c r="AK13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="19">
+      <c r="AK13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2583,17 +2629,17 @@
       <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.25</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L14" s="6">
-        <v>123.56</v>
       </c>
       <c r="M14" s="6">
         <v>123.56</v>
@@ -2604,54 +2650,54 @@
       <c r="O14" s="6">
         <v>123.56</v>
       </c>
-      <c r="P14" s="1">
-        <v>2333.2799999999997</v>
+      <c r="P14" s="6">
+        <v>123.56</v>
       </c>
       <c r="Q14" s="1">
         <v>2333.2799999999997</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="1">
+        <v>2333.2799999999997</v>
+      </c>
+      <c r="S14" s="6">
         <v>45</v>
       </c>
-      <c r="S14" s="6">
-        <v>65</v>
-      </c>
-      <c r="T14" s="10">
+      <c r="T14" s="6">
+        <v>65</v>
+      </c>
+      <c r="U14" s="10">
         <v>0.375</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <v>0.6</v>
       </c>
-      <c r="V14" s="6">
-        <v>65</v>
-      </c>
       <c r="W14" s="6">
         <v>65</v>
       </c>
       <c r="X14" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="6">
         <v>70</v>
       </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
       <c r="Z14" s="9">
         <v>0</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AC14" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AD14" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AE14" s="12">
         <v>1</v>
       </c>
-      <c r="AE14" s="12">
-        <v>0</v>
-      </c>
       <c r="AF14" s="12">
         <v>0</v>
       </c>
@@ -2667,14 +2713,17 @@
       <c r="AJ14" s="12">
         <v>0</v>
       </c>
-      <c r="AK14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="19">
+      <c r="AK14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2700,17 +2749,17 @@
       <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>0.25</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L15" s="6">
-        <v>134.63999999999999</v>
       </c>
       <c r="M15" s="6">
         <v>134.63999999999999</v>
@@ -2721,54 +2770,54 @@
       <c r="O15" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="P15" s="1">
-        <v>2616.7200000000003</v>
+      <c r="P15" s="6">
+        <v>134.63999999999999</v>
       </c>
       <c r="Q15" s="1">
         <v>2616.7200000000003</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="1">
+        <v>2616.7200000000003</v>
+      </c>
+      <c r="S15" s="6">
         <v>45</v>
       </c>
-      <c r="S15" s="6">
-        <v>65</v>
-      </c>
-      <c r="T15" s="10">
+      <c r="T15" s="6">
+        <v>65</v>
+      </c>
+      <c r="U15" s="10">
         <v>0.375</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <v>0.6</v>
       </c>
-      <c r="V15" s="6">
-        <v>65</v>
-      </c>
       <c r="W15" s="6">
         <v>65</v>
       </c>
       <c r="X15" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="6">
         <v>70</v>
       </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
       <c r="Z15" s="9">
         <v>0</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AC15" s="6">
         <v>146.78</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AD15" s="4">
         <v>0.09</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AE15" s="12">
         <v>1</v>
       </c>
-      <c r="AE15" s="12">
-        <v>0</v>
-      </c>
       <c r="AF15" s="12">
         <v>0</v>
       </c>
@@ -2784,14 +2833,17 @@
       <c r="AJ15" s="12">
         <v>0</v>
       </c>
-      <c r="AK15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="19">
+      <c r="AK15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -2817,17 +2869,17 @@
       <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>0.25</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L16" s="6">
-        <v>146.78</v>
       </c>
       <c r="M16" s="6">
         <v>146.78</v>
@@ -2838,54 +2890,54 @@
       <c r="O16" s="6">
         <v>146.78</v>
       </c>
-      <c r="P16" s="1">
-        <v>2933.28</v>
+      <c r="P16" s="6">
+        <v>146.78</v>
       </c>
       <c r="Q16" s="1">
         <v>2933.28</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="1">
+        <v>2933.28</v>
+      </c>
+      <c r="S16" s="6">
         <v>45</v>
       </c>
-      <c r="S16" s="6">
-        <v>65</v>
-      </c>
-      <c r="T16" s="10">
+      <c r="T16" s="6">
+        <v>65</v>
+      </c>
+      <c r="U16" s="10">
         <v>0.375</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10">
         <v>0.6</v>
       </c>
-      <c r="V16" s="6">
-        <v>65</v>
-      </c>
       <c r="W16" s="6">
         <v>65</v>
       </c>
       <c r="X16" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="6">
         <v>70</v>
       </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
       <c r="Z16" s="9">
         <v>0</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AC16" s="6">
         <v>161.31</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AD16" s="4">
         <v>0.09</v>
       </c>
-      <c r="AD16" s="12">
+      <c r="AE16" s="12">
         <v>1</v>
       </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
       <c r="AF16" s="12">
         <v>0</v>
       </c>
@@ -2901,14 +2953,17 @@
       <c r="AJ16" s="12">
         <v>0</v>
       </c>
-      <c r="AK16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="19">
+      <c r="AK16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -2934,17 +2989,17 @@
       <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.25</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L17" s="6">
-        <v>161.31</v>
       </c>
       <c r="M17" s="6">
         <v>161.31</v>
@@ -2955,54 +3010,54 @@
       <c r="O17" s="6">
         <v>161.31</v>
       </c>
-      <c r="P17" s="1">
-        <v>3291.72</v>
+      <c r="P17" s="6">
+        <v>161.31</v>
       </c>
       <c r="Q17" s="1">
         <v>3291.72</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="1">
+        <v>3291.72</v>
+      </c>
+      <c r="S17" s="6">
         <v>45</v>
       </c>
-      <c r="S17" s="6">
-        <v>65</v>
-      </c>
-      <c r="T17" s="10">
+      <c r="T17" s="6">
+        <v>65</v>
+      </c>
+      <c r="U17" s="10">
         <v>0.375</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <v>0.6</v>
       </c>
-      <c r="V17" s="6">
-        <v>65</v>
-      </c>
       <c r="W17" s="6">
         <v>65</v>
       </c>
       <c r="X17" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="6">
         <v>70</v>
       </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
       <c r="Z17" s="9">
         <v>0</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AC17" s="6">
         <v>181.18</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD17" s="12">
+      <c r="AE17" s="12">
         <v>1</v>
       </c>
-      <c r="AE17" s="12">
-        <v>0</v>
-      </c>
       <c r="AF17" s="12">
         <v>0</v>
       </c>
@@ -3018,14 +3073,17 @@
       <c r="AJ17" s="12">
         <v>0</v>
       </c>
-      <c r="AK17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="19">
+      <c r="AK17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -3051,17 +3109,17 @@
       <c r="H18" s="10">
         <v>0</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <v>3</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.25</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L18" s="6">
-        <v>181.18</v>
       </c>
       <c r="M18" s="6">
         <v>181.18</v>
@@ -3072,54 +3130,54 @@
       <c r="O18" s="6">
         <v>181.18</v>
       </c>
-      <c r="P18" s="1">
-        <v>3691.8</v>
+      <c r="P18" s="6">
+        <v>181.18</v>
       </c>
       <c r="Q18" s="1">
         <v>3691.8</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="1">
+        <v>3691.8</v>
+      </c>
+      <c r="S18" s="6">
         <v>45</v>
       </c>
-      <c r="S18" s="6">
-        <v>65</v>
-      </c>
-      <c r="T18" s="10">
+      <c r="T18" s="6">
+        <v>65</v>
+      </c>
+      <c r="U18" s="10">
         <v>0.375</v>
       </c>
-      <c r="U18" s="10">
+      <c r="V18" s="10">
         <v>0.6</v>
       </c>
-      <c r="V18" s="6">
-        <v>65</v>
-      </c>
       <c r="W18" s="6">
         <v>65</v>
       </c>
       <c r="X18" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="6">
         <v>70</v>
       </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
       <c r="Z18" s="9">
         <v>0</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AC18" s="6">
         <v>201.44</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <v>0.12300000000000001</v>
       </c>
-      <c r="AD18" s="12">
+      <c r="AE18" s="12">
         <v>1</v>
       </c>
-      <c r="AE18" s="12">
-        <v>0</v>
-      </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
@@ -3135,14 +3193,17 @@
       <c r="AJ18" s="12">
         <v>0</v>
       </c>
-      <c r="AK18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="19">
+      <c r="AK18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -3168,17 +3229,17 @@
       <c r="H19" s="10">
         <v>0</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <v>3</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>0.25</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L19" s="6">
-        <v>201.44</v>
       </c>
       <c r="M19" s="6">
         <v>201.44</v>
@@ -3189,54 +3250,54 @@
       <c r="O19" s="6">
         <v>201.44</v>
       </c>
-      <c r="P19" s="1">
-        <v>4141.8</v>
+      <c r="P19" s="6">
+        <v>201.44</v>
       </c>
       <c r="Q19" s="1">
         <v>4141.8</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="1">
+        <v>4141.8</v>
+      </c>
+      <c r="S19" s="6">
         <v>45</v>
       </c>
-      <c r="S19" s="6">
-        <v>65</v>
-      </c>
-      <c r="T19" s="10">
+      <c r="T19" s="6">
+        <v>65</v>
+      </c>
+      <c r="U19" s="10">
         <v>0.375</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="10">
         <v>0.6</v>
       </c>
-      <c r="V19" s="6">
-        <v>65</v>
-      </c>
       <c r="W19" s="6">
         <v>65</v>
       </c>
       <c r="X19" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="6">
         <v>70</v>
       </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
       <c r="Z19" s="9">
         <v>0</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AC19" s="6">
         <v>214.94</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AD19" s="12">
+      <c r="AE19" s="12">
         <v>1</v>
       </c>
-      <c r="AE19" s="12">
-        <v>0</v>
-      </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
@@ -3252,14 +3313,17 @@
       <c r="AJ19" s="12">
         <v>0</v>
       </c>
-      <c r="AK19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="19">
+      <c r="AK19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -3280,80 +3344,80 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G20" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H20" s="10">
         <v>0.06</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>0.25</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>0.15</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>214.94</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>275</v>
-      </c>
-      <c r="N20" s="6">
-        <v>214.94</v>
       </c>
       <c r="O20" s="6">
         <v>214.94</v>
       </c>
-      <c r="P20" s="1">
-        <v>4650</v>
+      <c r="P20" s="6">
+        <v>214.94</v>
       </c>
       <c r="Q20" s="1">
         <v>4650</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="1">
+        <v>4650</v>
+      </c>
+      <c r="S20" s="6">
         <v>45</v>
       </c>
-      <c r="S20" s="6">
-        <v>65</v>
-      </c>
-      <c r="T20" s="10">
+      <c r="T20" s="6">
+        <v>65</v>
+      </c>
+      <c r="U20" s="10">
         <v>0.375</v>
       </c>
-      <c r="U20" s="10">
+      <c r="V20" s="10">
         <v>0.6</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="6">
         <v>60</v>
       </c>
-      <c r="W20" s="6">
-        <v>65</v>
-      </c>
       <c r="X20" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="6">
         <v>70</v>
       </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
       <c r="Z20" s="9">
         <v>0</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AC20" s="6">
         <v>224.4</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AD20" s="12">
+      <c r="AE20" s="12">
         <v>1</v>
       </c>
-      <c r="AE20" s="12">
-        <v>0</v>
-      </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
@@ -3369,14 +3433,17 @@
       <c r="AJ20" s="12">
         <v>0</v>
       </c>
-      <c r="AK20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="19">
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -3397,80 +3464,80 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G21" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10">
         <v>0.06</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>0.25</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>0.15</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>224.4</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>287.10000000000002</v>
-      </c>
-      <c r="N21" s="6">
-        <v>224.4</v>
       </c>
       <c r="O21" s="6">
         <v>224.4</v>
       </c>
-      <c r="P21" s="1">
-        <v>5225.04</v>
+      <c r="P21" s="6">
+        <v>224.4</v>
       </c>
       <c r="Q21" s="1">
         <v>5225.04</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="1">
+        <v>5225.04</v>
+      </c>
+      <c r="S21" s="6">
         <v>45</v>
       </c>
-      <c r="S21" s="6">
-        <v>65</v>
-      </c>
-      <c r="T21" s="10">
+      <c r="T21" s="6">
+        <v>65</v>
+      </c>
+      <c r="U21" s="10">
         <v>0.375</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <v>0.6</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="6">
         <v>60</v>
       </c>
-      <c r="W21" s="6">
-        <v>65</v>
-      </c>
       <c r="X21" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="6">
         <v>70</v>
       </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
       <c r="Z21" s="9">
         <v>0</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AC21" s="6">
         <v>233.4</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AE21" s="12">
         <v>1</v>
       </c>
-      <c r="AE21" s="12">
-        <v>0</v>
-      </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
@@ -3486,14 +3553,17 @@
       <c r="AJ21" s="12">
         <v>0</v>
       </c>
-      <c r="AK21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="19">
+      <c r="AK21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -3514,80 +3584,80 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G22" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H22" s="10">
         <v>0.06</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>0.25</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>0.15</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>233.38</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>298.58</v>
-      </c>
-      <c r="N22" s="6">
-        <v>233.38</v>
       </c>
       <c r="O22" s="6">
         <v>233.38</v>
       </c>
-      <c r="P22" s="1">
-        <v>5833.32</v>
+      <c r="P22" s="6">
+        <v>233.38</v>
       </c>
       <c r="Q22" s="1">
         <v>5833.32</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="1">
+        <v>5833.32</v>
+      </c>
+      <c r="S22" s="6">
         <v>45</v>
       </c>
-      <c r="S22" s="6">
-        <v>65</v>
-      </c>
-      <c r="T22" s="10">
+      <c r="T22" s="6">
+        <v>65</v>
+      </c>
+      <c r="U22" s="10">
         <v>0.375</v>
       </c>
-      <c r="U22" s="10">
+      <c r="V22" s="10">
         <v>0.6</v>
       </c>
-      <c r="V22" s="6">
+      <c r="W22" s="6">
         <v>60</v>
       </c>
-      <c r="W22" s="6">
-        <v>65</v>
-      </c>
       <c r="X22" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="6">
         <v>70</v>
       </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
       <c r="Z22" s="9">
         <v>0</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AC22" s="6">
         <v>242.95</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AD22" s="4">
         <v>0.04</v>
       </c>
-      <c r="AD22" s="12">
+      <c r="AE22" s="12">
         <v>1</v>
       </c>
-      <c r="AE22" s="12">
-        <v>0</v>
-      </c>
       <c r="AF22" s="12">
         <v>0</v>
       </c>
@@ -3603,14 +3673,17 @@
       <c r="AJ22" s="12">
         <v>0</v>
       </c>
-      <c r="AK22" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="19">
+      <c r="AK22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3631,80 +3704,80 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G23" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H23" s="10">
         <v>0.06</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>0.25</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>0.15</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>242.95</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>310.82</v>
-      </c>
-      <c r="N23" s="6">
-        <v>242.95</v>
       </c>
       <c r="O23" s="6">
         <v>242.95</v>
       </c>
-      <c r="P23" s="1">
-        <v>6258.24</v>
+      <c r="P23" s="6">
+        <v>242.95</v>
       </c>
       <c r="Q23" s="1">
         <v>6258.24</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="1">
+        <v>6258.24</v>
+      </c>
+      <c r="S23" s="6">
         <v>45</v>
       </c>
-      <c r="S23" s="6">
-        <v>65</v>
-      </c>
-      <c r="T23" s="10">
+      <c r="T23" s="6">
+        <v>65</v>
+      </c>
+      <c r="U23" s="10">
         <v>0.375</v>
       </c>
-      <c r="U23" s="10">
+      <c r="V23" s="10">
         <v>0.6</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>60</v>
       </c>
-      <c r="W23" s="6">
-        <v>65</v>
-      </c>
       <c r="X23" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y23" s="6">
         <v>70</v>
       </c>
-      <c r="Y23" s="9">
-        <v>0</v>
-      </c>
       <c r="Z23" s="9">
         <v>0</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AC23" s="6">
         <v>253.64</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AD23" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AE23" s="12">
         <v>1</v>
       </c>
-      <c r="AE23" s="12">
-        <v>0</v>
-      </c>
       <c r="AF23" s="12">
         <v>0</v>
       </c>
@@ -3720,14 +3793,17 @@
       <c r="AJ23" s="12">
         <v>0</v>
       </c>
-      <c r="AK23" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="19">
+      <c r="AK23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -3748,80 +3824,80 @@
         <v>0.04</v>
       </c>
       <c r="G24" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H24" s="10">
         <v>0.06</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>0.25</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>0.15</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>253.64</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>324.5</v>
-      </c>
-      <c r="N24" s="6">
-        <v>253.64</v>
       </c>
       <c r="O24" s="6">
         <v>253.64</v>
       </c>
-      <c r="P24" s="1">
-        <v>6516.7199999999993</v>
+      <c r="P24" s="6">
+        <v>253.64</v>
       </c>
       <c r="Q24" s="1">
         <v>6516.7199999999993</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="1">
+        <v>6516.7199999999993</v>
+      </c>
+      <c r="S24" s="6">
         <v>45</v>
       </c>
-      <c r="S24" s="6">
-        <v>65</v>
-      </c>
-      <c r="T24" s="10">
+      <c r="T24" s="6">
+        <v>65</v>
+      </c>
+      <c r="U24" s="10">
         <v>0.375</v>
       </c>
-      <c r="U24" s="10">
+      <c r="V24" s="10">
         <v>0.6</v>
       </c>
-      <c r="V24" s="6">
+      <c r="W24" s="6">
         <v>60</v>
       </c>
-      <c r="W24" s="6">
-        <v>65</v>
-      </c>
       <c r="X24" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="6">
         <v>70</v>
       </c>
-      <c r="Y24" s="9">
-        <v>0</v>
-      </c>
       <c r="Z24" s="9">
         <v>0</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AC24" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AD24" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AE24" s="12">
         <v>1</v>
       </c>
-      <c r="AE24" s="12">
-        <v>0</v>
-      </c>
       <c r="AF24" s="12">
         <v>0</v>
       </c>
@@ -3837,14 +3913,17 @@
       <c r="AJ24" s="12">
         <v>0</v>
       </c>
-      <c r="AK24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="19">
+      <c r="AK24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -3865,80 +3944,80 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G25" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
         <v>0.06</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J25" s="6">
         <v>3</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>0.25</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>0.15</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>337.8</v>
-      </c>
-      <c r="N25" s="6">
-        <v>264.04000000000002</v>
       </c>
       <c r="O25" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="P25" s="1">
-        <v>6675</v>
+      <c r="P25" s="6">
+        <v>264.04000000000002</v>
       </c>
       <c r="Q25" s="1">
         <v>6675</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="1">
+        <v>6675</v>
+      </c>
+      <c r="S25" s="6">
         <v>45</v>
       </c>
-      <c r="S25" s="6">
-        <v>65</v>
-      </c>
-      <c r="T25" s="10">
+      <c r="T25" s="6">
+        <v>65</v>
+      </c>
+      <c r="U25" s="10">
         <v>0.375</v>
       </c>
-      <c r="U25" s="10">
+      <c r="V25" s="10">
         <v>0.6</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>60</v>
       </c>
-      <c r="W25" s="6">
-        <v>65</v>
-      </c>
       <c r="X25" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="6">
         <v>70</v>
       </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
       <c r="Z25" s="9">
         <v>0</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AC25" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AD25" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="AD25" s="12">
+      <c r="AE25" s="12">
         <v>1</v>
       </c>
-      <c r="AE25" s="12">
-        <v>0</v>
-      </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
@@ -3954,14 +4033,17 @@
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
-      <c r="AK25" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="19">
+      <c r="AK25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -3982,80 +4064,80 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G26" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H26" s="10">
         <v>0.06</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J26" s="6">
         <v>3</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>0.25</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>0.15</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>354.01</v>
-      </c>
-      <c r="N26" s="6">
-        <v>276.70999999999998</v>
       </c>
       <c r="O26" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="P26" s="1">
-        <v>6924.9600000000009</v>
+      <c r="P26" s="6">
+        <v>276.70999999999998</v>
       </c>
       <c r="Q26" s="1">
         <v>6924.9600000000009</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="1">
+        <v>6924.9600000000009</v>
+      </c>
+      <c r="S26" s="6">
         <v>45</v>
       </c>
-      <c r="S26" s="6">
-        <v>65</v>
-      </c>
-      <c r="T26" s="10">
+      <c r="T26" s="6">
+        <v>65</v>
+      </c>
+      <c r="U26" s="10">
         <v>0.375</v>
       </c>
-      <c r="U26" s="10">
+      <c r="V26" s="10">
         <v>0.6</v>
       </c>
-      <c r="V26" s="6">
+      <c r="W26" s="6">
         <v>60</v>
       </c>
-      <c r="W26" s="6">
-        <v>65</v>
-      </c>
       <c r="X26" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y26" s="6">
         <v>70</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Z26" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AC26" s="6">
         <v>289.99</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AD26" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AD26" s="12">
+      <c r="AE26" s="12">
         <v>1</v>
       </c>
-      <c r="AE26" s="12">
-        <v>0</v>
-      </c>
       <c r="AF26" s="12">
         <v>0</v>
       </c>
@@ -4071,14 +4153,17 @@
       <c r="AJ26" s="12">
         <v>0</v>
       </c>
-      <c r="AK26" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="19">
+      <c r="AK26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -4099,80 +4184,80 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G27" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H27" s="10">
         <v>0.06</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>0.25</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.15</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>289.99</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>371</v>
-      </c>
-      <c r="N27" s="6">
-        <v>289.99</v>
       </c>
       <c r="O27" s="6">
         <v>289.99</v>
       </c>
-      <c r="P27" s="1">
-        <v>7258.32</v>
+      <c r="P27" s="6">
+        <v>289.99</v>
       </c>
       <c r="Q27" s="1">
         <v>7258.32</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="1">
+        <v>7258.32</v>
+      </c>
+      <c r="S27" s="6">
         <v>45</v>
       </c>
-      <c r="S27" s="6">
-        <v>65</v>
-      </c>
-      <c r="T27" s="10">
+      <c r="T27" s="6">
+        <v>65</v>
+      </c>
+      <c r="U27" s="10">
         <v>0.375</v>
       </c>
-      <c r="U27" s="10">
+      <c r="V27" s="10">
         <v>0.6</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>60</v>
       </c>
-      <c r="W27" s="6">
-        <v>65</v>
-      </c>
       <c r="X27" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="6">
         <v>70</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Z27" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AC27" s="6">
         <v>306.81</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AD27" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AE27" s="12">
         <v>1</v>
       </c>
-      <c r="AE27" s="12">
-        <v>0</v>
-      </c>
       <c r="AF27" s="12">
         <v>0</v>
       </c>
@@ -4188,14 +4273,17 @@
       <c r="AJ27" s="12">
         <v>0</v>
       </c>
-      <c r="AK27" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="19">
+      <c r="AK27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -4216,80 +4304,80 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G28" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H28" s="10">
         <v>0.06</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>0.25</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>0.15</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>306.81</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>392.52</v>
-      </c>
-      <c r="N28" s="6">
-        <v>306.81</v>
       </c>
       <c r="O28" s="6">
         <v>306.81</v>
       </c>
-      <c r="P28" s="1">
-        <v>7633.32</v>
+      <c r="P28" s="6">
+        <v>306.81</v>
       </c>
       <c r="Q28" s="1">
         <v>7633.32</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="1">
+        <v>7633.32</v>
+      </c>
+      <c r="S28" s="6">
         <v>45</v>
       </c>
-      <c r="S28" s="6">
-        <v>65</v>
-      </c>
-      <c r="T28" s="10">
+      <c r="T28" s="6">
+        <v>65</v>
+      </c>
+      <c r="U28" s="10">
         <v>0.375</v>
       </c>
-      <c r="U28" s="10">
+      <c r="V28" s="10">
         <v>0.6</v>
       </c>
-      <c r="V28" s="6">
+      <c r="W28" s="6">
         <v>60</v>
       </c>
-      <c r="W28" s="6">
-        <v>65</v>
-      </c>
       <c r="X28" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y28" s="6">
         <v>70</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Z28" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AC28" s="6">
         <v>312.33</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AD28" s="4">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AE28" s="12">
         <v>1</v>
       </c>
-      <c r="AE28" s="12">
-        <v>0</v>
-      </c>
       <c r="AF28" s="12">
         <v>0</v>
       </c>
@@ -4305,14 +4393,17 @@
       <c r="AJ28" s="12">
         <v>0</v>
       </c>
-      <c r="AK28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="19">
+      <c r="AK28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -4333,80 +4424,80 @@
         <v>0.05</v>
       </c>
       <c r="G29" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H29" s="10">
         <v>0.06</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J29" s="6">
         <v>3</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>0.25</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>0.15</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>312.33</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>399.59</v>
-      </c>
-      <c r="N29" s="6">
-        <v>312.33</v>
       </c>
       <c r="O29" s="6">
         <v>312.33</v>
       </c>
-      <c r="P29" s="1">
-        <v>8008.32</v>
+      <c r="P29" s="6">
+        <v>312.33</v>
       </c>
       <c r="Q29" s="1">
         <v>8008.32</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="1">
+        <v>8008.32</v>
+      </c>
+      <c r="S29" s="6">
         <v>45</v>
       </c>
-      <c r="S29" s="6">
-        <v>65</v>
-      </c>
-      <c r="T29" s="10">
+      <c r="T29" s="6">
+        <v>65</v>
+      </c>
+      <c r="U29" s="10">
         <v>0.375</v>
       </c>
-      <c r="U29" s="10">
+      <c r="V29" s="10">
         <v>0.6</v>
       </c>
-      <c r="V29" s="6">
+      <c r="W29" s="6">
         <v>60</v>
       </c>
-      <c r="W29" s="6">
-        <v>65</v>
-      </c>
       <c r="X29" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y29" s="6">
         <v>70</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Z29" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AC29" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AD29" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="AE29" s="12">
         <v>1</v>
       </c>
-      <c r="AE29" s="12">
-        <v>0</v>
-      </c>
       <c r="AF29" s="12">
         <v>0</v>
       </c>
@@ -4422,14 +4513,17 @@
       <c r="AJ29" s="12">
         <v>0</v>
       </c>
-      <c r="AK29" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="19">
+      <c r="AK29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -4450,80 +4544,80 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G30" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H30" s="10">
         <v>0.06</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>0.25</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>0.15</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>318.26</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>399.59</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>295.51</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <v>81.52</v>
-      </c>
-      <c r="P30" s="1">
-        <v>8333.2800000000007</v>
       </c>
       <c r="Q30" s="1">
         <v>8333.2800000000007</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="1">
+        <v>8333.2800000000007</v>
+      </c>
+      <c r="S30" s="6">
         <v>45</v>
       </c>
-      <c r="S30" s="6">
-        <v>65</v>
-      </c>
-      <c r="T30" s="10">
+      <c r="T30" s="6">
+        <v>65</v>
+      </c>
+      <c r="U30" s="10">
         <v>0.375</v>
       </c>
-      <c r="U30" s="10">
+      <c r="V30" s="10">
         <v>0.6</v>
       </c>
-      <c r="V30" s="6">
+      <c r="W30" s="6">
         <v>60</v>
       </c>
-      <c r="W30" s="6">
-        <v>65</v>
-      </c>
       <c r="X30" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y30" s="6">
         <v>70</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Z30" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AC30" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AD30" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="AD30" s="12">
+      <c r="AE30" s="12">
         <v>1</v>
       </c>
-      <c r="AE30" s="12">
-        <v>0</v>
-      </c>
       <c r="AF30" s="12">
         <v>0</v>
       </c>
@@ -4539,14 +4633,17 @@
       <c r="AJ30" s="12">
         <v>0</v>
       </c>
-      <c r="AK30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="19">
+      <c r="AK30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -4567,80 +4664,80 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G31" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H31" s="10">
         <v>0.06</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J31" s="6">
         <v>3</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>0.25</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <v>0.15</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>318.26</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>399.59</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>295.51</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <v>81.52</v>
-      </c>
-      <c r="P31" s="1">
-        <v>8558.2800000000007</v>
       </c>
       <c r="Q31" s="1">
         <v>8558.2800000000007</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="1">
+        <v>8558.2800000000007</v>
+      </c>
+      <c r="S31" s="6">
         <v>45</v>
       </c>
-      <c r="S31" s="6">
-        <v>65</v>
-      </c>
-      <c r="T31" s="10">
+      <c r="T31" s="6">
+        <v>65</v>
+      </c>
+      <c r="U31" s="10">
         <v>0.375</v>
       </c>
-      <c r="U31" s="10">
+      <c r="V31" s="10">
         <v>0.6</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>60</v>
       </c>
-      <c r="W31" s="6">
-        <v>65</v>
-      </c>
       <c r="X31" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y31" s="6">
         <v>70</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Z31" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AC31" s="6">
         <v>325.58</v>
       </c>
-      <c r="AC31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12">
+      <c r="AD31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="12">
         <v>1</v>
       </c>
-      <c r="AE31" s="12">
-        <v>0</v>
-      </c>
       <c r="AF31" s="12">
         <v>0</v>
       </c>
@@ -4656,14 +4753,17 @@
       <c r="AJ31" s="12">
         <v>0</v>
       </c>
-      <c r="AK31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="19">
+      <c r="AK31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -4684,80 +4784,80 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="G32" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H32" s="10">
         <v>0.06</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J32" s="6">
         <v>3</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>0.25</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <v>0.15</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>325.58</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>399.59</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>302.31</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <v>83.39</v>
-      </c>
-      <c r="P32" s="1">
-        <v>8724.9600000000009</v>
       </c>
       <c r="Q32" s="1">
         <v>8724.9600000000009</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="1">
+        <v>8724.9600000000009</v>
+      </c>
+      <c r="S32" s="6">
         <v>45</v>
       </c>
-      <c r="S32" s="6">
-        <v>65</v>
-      </c>
-      <c r="T32" s="10">
+      <c r="T32" s="6">
+        <v>65</v>
+      </c>
+      <c r="U32" s="10">
         <v>0.375</v>
       </c>
-      <c r="U32" s="10">
+      <c r="V32" s="10">
         <v>0.6</v>
       </c>
-      <c r="V32" s="6">
+      <c r="W32" s="6">
         <v>60</v>
       </c>
-      <c r="W32" s="6">
-        <v>65</v>
-      </c>
       <c r="X32" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="6">
         <v>70</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Z32" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AC32" s="6">
         <v>330.46</v>
       </c>
-      <c r="AC32" s="4">
+      <c r="AD32" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="AD32" s="12">
+      <c r="AE32" s="12">
         <v>1</v>
       </c>
-      <c r="AE32" s="12">
-        <v>0</v>
-      </c>
       <c r="AF32" s="12">
         <v>0</v>
       </c>
@@ -4773,14 +4873,17 @@
       <c r="AJ32" s="12">
         <v>0</v>
       </c>
-      <c r="AK32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="19">
+      <c r="AK32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -4801,80 +4904,80 @@
         <v>0.06</v>
       </c>
       <c r="G33" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H33" s="10">
         <v>0.06</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J33" s="6">
         <v>3</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>0.25</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <v>0.15</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>330.46</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>399.59</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>306.83999999999997</v>
       </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <v>84.64</v>
-      </c>
-      <c r="P33" s="1">
-        <v>8841.7199999999993</v>
       </c>
       <c r="Q33" s="1">
         <v>8841.7199999999993</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="1">
+        <v>8841.7199999999993</v>
+      </c>
+      <c r="S33" s="6">
         <v>45</v>
       </c>
-      <c r="S33" s="6">
-        <v>65</v>
-      </c>
-      <c r="T33" s="10">
+      <c r="T33" s="6">
+        <v>65</v>
+      </c>
+      <c r="U33" s="10">
         <v>0.375</v>
       </c>
-      <c r="U33" s="10">
+      <c r="V33" s="10">
         <v>0.6</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>60</v>
       </c>
-      <c r="W33" s="6">
-        <v>65</v>
-      </c>
       <c r="X33" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y33" s="6">
         <v>70</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Z33" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="6">
+      <c r="AA33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AC33" s="6">
         <v>336.74</v>
       </c>
-      <c r="AC33" s="4">
+      <c r="AD33" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AE33" s="12">
         <v>1</v>
       </c>
-      <c r="AE33" s="12">
-        <v>0</v>
-      </c>
       <c r="AF33" s="12">
         <v>0</v>
       </c>
@@ -4890,14 +4993,17 @@
       <c r="AJ33" s="12">
         <v>0</v>
       </c>
-      <c r="AK33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="19">
+      <c r="AK33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -4918,80 +5024,80 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G34" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H34" s="10">
         <v>0.06</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J34" s="6">
         <v>4</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>0.25</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>0.15</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>336.74</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>399.59</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>312.67</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>86.25</v>
-      </c>
-      <c r="P34" s="1">
-        <v>8937.48</v>
       </c>
       <c r="Q34" s="1">
         <v>8937.48</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="1">
+        <v>8937.48</v>
+      </c>
+      <c r="S34" s="6">
         <v>45</v>
       </c>
-      <c r="S34" s="6">
-        <v>65</v>
-      </c>
-      <c r="T34" s="10">
+      <c r="T34" s="6">
+        <v>65</v>
+      </c>
+      <c r="U34" s="10">
         <v>0.375</v>
       </c>
-      <c r="U34" s="10">
+      <c r="V34" s="10">
         <v>0.6</v>
       </c>
-      <c r="V34" s="6">
+      <c r="W34" s="6">
         <v>60</v>
       </c>
-      <c r="W34" s="6">
-        <v>65</v>
-      </c>
       <c r="X34" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="6">
         <v>70</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Z34" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="6">
+      <c r="AA34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AC34" s="6">
         <v>339.77</v>
       </c>
-      <c r="AC34" s="4">
+      <c r="AD34" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="AD34" s="12">
+      <c r="AE34" s="12">
         <v>1</v>
       </c>
-      <c r="AE34" s="12">
-        <v>0</v>
-      </c>
       <c r="AF34" s="12">
         <v>0</v>
       </c>
@@ -5007,14 +5113,17 @@
       <c r="AJ34" s="12">
         <v>0</v>
       </c>
-      <c r="AK34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="19">
+      <c r="AK34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -5035,80 +5144,80 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G35" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H35" s="10">
         <v>0.06</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>0.25</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>0.15</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>339.77</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <v>399.59</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>315.48</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <v>87.03</v>
-      </c>
-      <c r="P35" s="1">
-        <v>9020.0399999999991</v>
       </c>
       <c r="Q35" s="1">
         <v>9020.0399999999991</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="1">
+        <v>9020.0399999999991</v>
+      </c>
+      <c r="S35" s="6">
         <v>45</v>
       </c>
-      <c r="S35" s="6">
-        <v>65</v>
-      </c>
-      <c r="T35" s="10">
+      <c r="T35" s="6">
+        <v>65</v>
+      </c>
+      <c r="U35" s="10">
         <v>0.375</v>
       </c>
-      <c r="U35" s="10">
+      <c r="V35" s="10">
         <v>0.6</v>
       </c>
-      <c r="V35" s="6">
+      <c r="W35" s="6">
         <v>60</v>
       </c>
-      <c r="W35" s="6">
-        <v>65</v>
-      </c>
       <c r="X35" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="6">
         <v>70</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Z35" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="6">
+      <c r="AA35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB35" s="6">
+      <c r="AC35" s="6">
         <v>345.21</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AD35" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD35" s="12">
+      <c r="AE35" s="12">
         <v>1</v>
       </c>
-      <c r="AE35" s="12">
-        <v>0</v>
-      </c>
       <c r="AF35" s="12">
         <v>0</v>
       </c>
@@ -5124,14 +5233,17 @@
       <c r="AJ35" s="12">
         <v>0</v>
       </c>
-      <c r="AK35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="19">
+      <c r="AK35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -5152,80 +5264,80 @@
         <v>7.8E-2</v>
       </c>
       <c r="G36" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0.06</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>0.25</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.15</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>345.21</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <v>399.59</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>320.52999999999997</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <v>88.42</v>
-      </c>
-      <c r="P36" s="1">
-        <v>9155.0399999999991</v>
       </c>
       <c r="Q36" s="1">
         <v>9155.0399999999991</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="1">
+        <v>9155.0399999999991</v>
+      </c>
+      <c r="S36" s="6">
         <v>45</v>
       </c>
-      <c r="S36" s="6">
-        <v>65</v>
-      </c>
-      <c r="T36" s="10">
+      <c r="T36" s="6">
+        <v>65</v>
+      </c>
+      <c r="U36" s="10">
         <v>0.375</v>
       </c>
-      <c r="U36" s="10">
+      <c r="V36" s="10">
         <v>0.6</v>
       </c>
-      <c r="V36" s="6">
+      <c r="W36" s="6">
         <v>60</v>
       </c>
-      <c r="W36" s="6">
-        <v>65</v>
-      </c>
       <c r="X36" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y36" s="6">
         <v>70</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Z36" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="6">
+      <c r="AA36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AC36" s="6">
         <v>353.84</v>
       </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="AD36" s="12">
+      <c r="AE36" s="12">
         <v>1</v>
       </c>
-      <c r="AE36" s="12">
-        <v>0</v>
-      </c>
       <c r="AF36" s="12">
         <v>0</v>
       </c>
@@ -5241,14 +5353,17 @@
       <c r="AJ36" s="12">
         <v>0</v>
       </c>
-      <c r="AK36" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="19">
+      <c r="AK36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -5269,80 +5384,80 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G37" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H37" s="10">
         <v>0.06</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>0.25</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>0.15</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>353.84</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>399.59</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>328.54</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>90.63</v>
-      </c>
-      <c r="P37" s="1">
-        <v>9300</v>
       </c>
       <c r="Q37" s="1">
         <v>9300</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="1">
+        <v>9300</v>
+      </c>
+      <c r="S37" s="6">
         <v>45</v>
       </c>
-      <c r="S37" s="6">
-        <v>65</v>
-      </c>
-      <c r="T37" s="10">
+      <c r="T37" s="6">
+        <v>65</v>
+      </c>
+      <c r="U37" s="10">
         <v>0.375</v>
       </c>
-      <c r="U37" s="10">
+      <c r="V37" s="10">
         <v>0.6</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="6">
         <v>60</v>
       </c>
-      <c r="W37" s="6">
-        <v>65</v>
-      </c>
       <c r="X37" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="6">
         <v>70</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Z37" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="6">
+      <c r="AA37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AC37" s="6">
         <v>364.46</v>
       </c>
-      <c r="AC37" s="4">
+      <c r="AD37" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD37" s="12">
+      <c r="AE37" s="12">
         <v>1</v>
       </c>
-      <c r="AE37" s="12">
-        <v>0</v>
-      </c>
       <c r="AF37" s="12">
         <v>0</v>
       </c>
@@ -5358,14 +5473,17 @@
       <c r="AJ37" s="12">
         <v>0</v>
       </c>
-      <c r="AK37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="19">
+      <c r="AK37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -5386,80 +5504,80 @@
         <v>9.4E-2</v>
       </c>
       <c r="G38" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H38" s="10">
         <v>0.06</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J38" s="6">
         <v>5</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>0.25</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>0.15</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>364.46</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>399.59</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>338.4</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>93.35</v>
-      </c>
-      <c r="P38" s="1">
-        <v>9465</v>
       </c>
       <c r="Q38" s="1">
         <v>9465</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="1">
+        <v>9465</v>
+      </c>
+      <c r="S38" s="6">
         <v>45</v>
       </c>
-      <c r="S38" s="6">
-        <v>65</v>
-      </c>
-      <c r="T38" s="10">
+      <c r="T38" s="6">
+        <v>65</v>
+      </c>
+      <c r="U38" s="10">
         <v>0.375</v>
       </c>
-      <c r="U38" s="10">
+      <c r="V38" s="10">
         <v>0.6</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="6">
         <v>60</v>
       </c>
-      <c r="W38" s="6">
-        <v>65</v>
-      </c>
       <c r="X38" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="6">
         <v>70</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Z38" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="6">
+      <c r="AA38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AC38" s="6">
         <v>370.29</v>
       </c>
-      <c r="AC38" s="4">
+      <c r="AD38" s="4">
         <v>0.03</v>
       </c>
-      <c r="AD38" s="12">
+      <c r="AE38" s="12">
         <v>1</v>
       </c>
-      <c r="AE38" s="12">
-        <v>0</v>
-      </c>
       <c r="AF38" s="12">
         <v>0</v>
       </c>
@@ -5475,14 +5593,17 @@
       <c r="AJ38" s="12">
         <v>0</v>
       </c>
-      <c r="AK38" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="19">
+      <c r="AK38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -5503,80 +5624,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G39" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H39" s="10">
         <v>0.06</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J39" s="6">
         <v>5</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>0.25</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>0.15</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>370.29</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <v>399.59</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>343.81</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <v>94.84</v>
-      </c>
-      <c r="P39" s="1">
-        <v>9615</v>
       </c>
       <c r="Q39" s="1">
         <v>9615</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="1">
+        <v>9615</v>
+      </c>
+      <c r="S39" s="6">
         <v>45</v>
       </c>
-      <c r="S39" s="6">
-        <v>65</v>
-      </c>
-      <c r="T39" s="10">
+      <c r="T39" s="6">
+        <v>65</v>
+      </c>
+      <c r="U39" s="10">
         <v>0.375</v>
       </c>
-      <c r="U39" s="10">
+      <c r="V39" s="10">
         <v>0.6</v>
       </c>
-      <c r="V39" s="6">
+      <c r="W39" s="6">
         <v>60</v>
       </c>
-      <c r="W39" s="6">
-        <v>65</v>
-      </c>
       <c r="X39" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="6">
         <v>70</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Z39" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="6">
+      <c r="AA39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AC39" s="6">
         <v>382.14</v>
       </c>
-      <c r="AC39" s="4">
+      <c r="AD39" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AE39" s="12">
         <v>1</v>
       </c>
-      <c r="AE39" s="12">
-        <v>0</v>
-      </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
@@ -5592,14 +5713,17 @@
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
-      <c r="AK39" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="19">
+      <c r="AK39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -5620,80 +5744,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G40" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0.06</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J40" s="6">
         <v>5</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>0.25</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>0.15</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>382.14</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>399.59</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>354.81</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <v>97.87</v>
-      </c>
-      <c r="P40" s="5">
-        <v>9770.0400000000009</v>
       </c>
       <c r="Q40" s="5">
         <v>9770.0400000000009</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="5">
+        <v>9770.0400000000009</v>
+      </c>
+      <c r="S40" s="6">
         <v>45</v>
       </c>
-      <c r="S40" s="6">
-        <v>65</v>
-      </c>
-      <c r="T40" s="10">
+      <c r="T40" s="6">
+        <v>65</v>
+      </c>
+      <c r="U40" s="10">
         <v>0.375</v>
       </c>
-      <c r="U40" s="10">
+      <c r="V40" s="10">
         <v>0.6</v>
       </c>
-      <c r="V40" s="6">
+      <c r="W40" s="6">
         <v>60</v>
       </c>
-      <c r="W40" s="6">
-        <v>65</v>
-      </c>
       <c r="X40" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y40" s="6">
         <v>70</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Z40" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="6">
+      <c r="AA40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AC40" s="6">
         <v>388.64</v>
       </c>
-      <c r="AC40" s="4">
+      <c r="AD40" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AD40" s="12">
+      <c r="AE40" s="12">
         <v>1</v>
       </c>
-      <c r="AE40" s="12">
-        <v>0</v>
-      </c>
       <c r="AF40" s="12">
         <v>0</v>
       </c>
@@ -5709,14 +5833,17 @@
       <c r="AJ40" s="12">
         <v>0</v>
       </c>
-      <c r="AK40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="19">
+      <c r="AK40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -5737,80 +5864,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G41" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0.06</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J41" s="6">
         <v>5</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>0.25</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>0.15</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>388.64</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>399.59</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>360.84</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <v>99.53</v>
-      </c>
-      <c r="P41" s="5">
-        <v>9945</v>
       </c>
       <c r="Q41" s="5">
         <v>9945</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
+        <v>9945</v>
+      </c>
+      <c r="S41" s="6">
         <v>45</v>
       </c>
-      <c r="S41" s="6">
-        <v>65</v>
-      </c>
-      <c r="T41" s="10">
+      <c r="T41" s="6">
+        <v>65</v>
+      </c>
+      <c r="U41" s="10">
         <v>0.375</v>
       </c>
-      <c r="U41" s="10">
+      <c r="V41" s="10">
         <v>0.6</v>
       </c>
-      <c r="V41" s="6">
+      <c r="W41" s="6">
         <v>60</v>
       </c>
-      <c r="W41" s="6">
-        <v>65</v>
-      </c>
       <c r="X41" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="6">
         <v>70</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Z41" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="6">
+      <c r="AA41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AC41" s="6">
         <v>397.58</v>
       </c>
-      <c r="AC41" s="4">
+      <c r="AD41" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AE41" s="12">
         <v>1</v>
       </c>
-      <c r="AE41" s="12">
-        <v>0</v>
-      </c>
       <c r="AF41" s="12">
         <v>0</v>
       </c>
@@ -5826,14 +5953,17 @@
       <c r="AJ41" s="12">
         <v>0</v>
       </c>
-      <c r="AK41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="19">
+      <c r="AK41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -5854,80 +5984,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G42" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H42" s="10">
         <v>0.06</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J42" s="6">
         <v>5</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>0.25</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>0.15</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>397.58</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>399.59</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>369.14</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <v>101.82</v>
-      </c>
-      <c r="P42" s="5">
-        <v>10134.959999999999</v>
       </c>
       <c r="Q42" s="5">
         <v>10134.959999999999</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
+        <v>10134.959999999999</v>
+      </c>
+      <c r="S42" s="6">
         <v>45</v>
       </c>
-      <c r="S42" s="6">
-        <v>65</v>
-      </c>
-      <c r="T42" s="10">
+      <c r="T42" s="6">
+        <v>65</v>
+      </c>
+      <c r="U42" s="10">
         <v>0.375</v>
       </c>
-      <c r="U42" s="10">
+      <c r="V42" s="10">
         <v>0.6</v>
       </c>
-      <c r="V42" s="6">
+      <c r="W42" s="6">
         <v>60</v>
       </c>
-      <c r="W42" s="6">
-        <v>65</v>
-      </c>
       <c r="X42" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y42" s="6">
         <v>70</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Z42" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="6">
+      <c r="AA42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB42" s="6">
+      <c r="AC42" s="6">
         <v>405.93</v>
       </c>
-      <c r="AC42" s="4">
+      <c r="AD42" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AE42" s="12">
         <v>1</v>
       </c>
-      <c r="AE42" s="12">
-        <v>0</v>
-      </c>
       <c r="AF42" s="12">
         <v>0</v>
       </c>
@@ -5943,14 +6073,17 @@
       <c r="AJ42" s="12">
         <v>0</v>
       </c>
-      <c r="AK42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="19">
+      <c r="AK42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -5971,80 +6104,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G43" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H43" s="10">
         <v>0.06</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J43" s="6">
         <v>5</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <v>0.25</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L43" s="6">
-        <v>405.93</v>
       </c>
       <c r="M43" s="6">
         <v>405.93</v>
       </c>
       <c r="N43" s="6">
+        <v>405.93</v>
+      </c>
+      <c r="O43" s="6">
         <v>376.89</v>
       </c>
-      <c r="O43" s="6">
+      <c r="P43" s="6">
         <v>103.96</v>
-      </c>
-      <c r="P43" s="7">
-        <v>10365</v>
       </c>
       <c r="Q43" s="7">
         <v>10365</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="7">
+        <v>10365</v>
+      </c>
+      <c r="S43" s="6">
         <v>45</v>
       </c>
-      <c r="S43" s="6">
-        <v>65</v>
-      </c>
-      <c r="T43" s="10">
+      <c r="T43" s="6">
+        <v>65</v>
+      </c>
+      <c r="U43" s="10">
         <v>0.375</v>
       </c>
-      <c r="U43" s="10">
+      <c r="V43" s="10">
         <v>0.6</v>
       </c>
-      <c r="V43" s="6">
+      <c r="W43" s="6">
         <v>60</v>
       </c>
-      <c r="W43" s="6">
-        <v>65</v>
-      </c>
       <c r="X43" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y43" s="6">
         <v>70</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Z43" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="6">
+      <c r="AA43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB43" s="6">
+      <c r="AC43" s="6">
         <v>414.05</v>
       </c>
-      <c r="AC43" s="4">
+      <c r="AD43" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AD43" s="12">
+      <c r="AE43" s="12">
         <v>1</v>
       </c>
-      <c r="AE43" s="12">
-        <v>0</v>
-      </c>
       <c r="AF43" s="12">
         <v>0</v>
       </c>
@@ -6060,14 +6193,17 @@
       <c r="AJ43" s="12">
         <v>0</v>
       </c>
-      <c r="AK43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="19">
+      <c r="AK43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -6088,80 +6224,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G44" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H44" s="10">
         <v>0.06</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J44" s="6">
         <v>5</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>0.25</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L44" s="6">
-        <v>414.05</v>
       </c>
       <c r="M44" s="6">
         <v>414.05</v>
       </c>
       <c r="N44" s="6">
+        <v>414.05</v>
+      </c>
+      <c r="O44" s="6">
         <v>384.43</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <v>106.04</v>
-      </c>
-      <c r="P44" s="7">
-        <v>10614.96</v>
       </c>
       <c r="Q44" s="7">
         <v>10614.96</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="7">
+        <v>10614.96</v>
+      </c>
+      <c r="S44" s="6">
         <v>45</v>
       </c>
-      <c r="S44" s="6">
-        <v>65</v>
-      </c>
-      <c r="T44" s="10">
+      <c r="T44" s="6">
+        <v>65</v>
+      </c>
+      <c r="U44" s="10">
         <v>0.375</v>
       </c>
-      <c r="U44" s="10">
+      <c r="V44" s="10">
         <v>0.6</v>
       </c>
-      <c r="V44" s="6">
+      <c r="W44" s="6">
         <v>60</v>
       </c>
-      <c r="W44" s="6">
-        <v>65</v>
-      </c>
       <c r="X44" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y44" s="6">
         <v>70</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Z44" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="6">
+      <c r="AA44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB44" s="6">
+      <c r="AC44" s="6">
         <v>424.4</v>
       </c>
-      <c r="AC44" s="4">
+      <c r="AD44" s="4">
         <v>0.02</v>
       </c>
-      <c r="AD44" s="12">
+      <c r="AE44" s="12">
         <v>1</v>
       </c>
-      <c r="AE44" s="12">
-        <v>0</v>
-      </c>
       <c r="AF44" s="12">
         <v>0</v>
       </c>
@@ -6177,14 +6313,17 @@
       <c r="AJ44" s="12">
         <v>0</v>
       </c>
-      <c r="AK44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="19">
+      <c r="AK44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -6205,80 +6344,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G45" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H45" s="10">
         <v>0.06</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J45" s="6">
         <v>5</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <v>0.25</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L45" s="6">
-        <v>424.4</v>
       </c>
       <c r="M45" s="6">
         <v>424.4</v>
       </c>
       <c r="N45" s="6">
+        <v>424.4</v>
+      </c>
+      <c r="O45" s="6">
         <v>394.04</v>
       </c>
-      <c r="O45" s="6">
+      <c r="P45" s="6">
         <v>108.69</v>
-      </c>
-      <c r="P45" s="7">
-        <v>10905</v>
       </c>
       <c r="Q45" s="7">
         <v>10905</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="7">
+        <v>10905</v>
+      </c>
+      <c r="S45" s="6">
         <v>45</v>
       </c>
-      <c r="S45" s="6">
-        <v>65</v>
-      </c>
-      <c r="T45" s="10">
+      <c r="T45" s="6">
+        <v>65</v>
+      </c>
+      <c r="U45" s="10">
         <v>0.375</v>
       </c>
-      <c r="U45" s="10">
+      <c r="V45" s="10">
         <v>0.6</v>
       </c>
-      <c r="V45" s="6">
+      <c r="W45" s="6">
         <v>60</v>
       </c>
-      <c r="W45" s="6">
-        <v>65</v>
-      </c>
       <c r="X45" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y45" s="6">
         <v>70</v>
       </c>
-      <c r="Y45" s="9">
+      <c r="Z45" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z45" s="9">
+      <c r="AA45" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AB45" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB45" s="6">
+      <c r="AC45" s="6">
         <v>426.1</v>
       </c>
-      <c r="AC45" s="4">
+      <c r="AD45" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD45" s="12">
+      <c r="AE45" s="12">
         <v>1</v>
       </c>
-      <c r="AE45" s="12">
-        <v>0</v>
-      </c>
       <c r="AF45" s="12">
         <v>0</v>
       </c>
@@ -6294,14 +6433,17 @@
       <c r="AJ45" s="12">
         <v>0</v>
       </c>
-      <c r="AK45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="19">
+      <c r="AK45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -6322,80 +6464,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G46" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H46" s="10">
         <v>0.06</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>0.25</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L46" s="6">
-        <v>426.1</v>
       </c>
       <c r="M46" s="6">
         <v>426.1</v>
       </c>
       <c r="N46" s="6">
+        <v>426.1</v>
+      </c>
+      <c r="O46" s="6">
         <v>395.62</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <v>109.12</v>
-      </c>
-      <c r="P46" s="7">
-        <v>11210.04</v>
       </c>
       <c r="Q46" s="7">
         <v>11210.04</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="7">
+        <v>11210.04</v>
+      </c>
+      <c r="S46" s="6">
         <v>45</v>
       </c>
-      <c r="S46" s="6">
-        <v>65</v>
-      </c>
-      <c r="T46" s="10">
+      <c r="T46" s="6">
+        <v>65</v>
+      </c>
+      <c r="U46" s="10">
         <v>0.375</v>
       </c>
-      <c r="U46" s="10">
+      <c r="V46" s="10">
         <v>0.6</v>
       </c>
-      <c r="V46" s="6">
+      <c r="W46" s="6">
         <v>60</v>
       </c>
-      <c r="W46" s="6">
-        <v>65</v>
-      </c>
       <c r="X46" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y46" s="6">
         <v>70</v>
       </c>
-      <c r="Y46" s="9">
+      <c r="Z46" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z46" s="9">
+      <c r="AA46" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AB46" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB46" s="6">
+      <c r="AC46" s="6">
         <v>433.34</v>
       </c>
-      <c r="AC46" s="4">
+      <c r="AD46" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AD46" s="12">
+      <c r="AE46" s="12">
         <v>1</v>
       </c>
-      <c r="AE46" s="12">
-        <v>0</v>
-      </c>
       <c r="AF46" s="12">
         <v>0</v>
       </c>
@@ -6411,14 +6553,17 @@
       <c r="AJ46" s="12">
         <v>0</v>
       </c>
-      <c r="AK46" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="19">
+      <c r="AK46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -6439,80 +6584,80 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G47" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H47" s="10">
         <v>0.06</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J47" s="6">
         <v>5</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>0.25</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L47" s="6">
-        <v>433.34</v>
       </c>
       <c r="M47" s="6">
         <v>433.34</v>
       </c>
       <c r="N47" s="6">
+        <v>433.34</v>
+      </c>
+      <c r="O47" s="6">
         <v>402.35</v>
       </c>
-      <c r="O47" s="6">
+      <c r="P47" s="6">
         <v>110.98</v>
-      </c>
-      <c r="P47" s="7">
-        <v>11520</v>
       </c>
       <c r="Q47" s="7">
         <v>11520</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="7">
+        <v>11520</v>
+      </c>
+      <c r="S47" s="6">
         <v>45</v>
       </c>
-      <c r="S47" s="6">
-        <v>65</v>
-      </c>
-      <c r="T47" s="10">
+      <c r="T47" s="6">
+        <v>65</v>
+      </c>
+      <c r="U47" s="10">
         <v>0.375</v>
       </c>
-      <c r="U47" s="10">
+      <c r="V47" s="10">
         <v>0.6</v>
       </c>
-      <c r="V47" s="6">
+      <c r="W47" s="6">
         <v>60</v>
       </c>
-      <c r="W47" s="6">
-        <v>65</v>
-      </c>
       <c r="X47" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y47" s="6">
         <v>70</v>
       </c>
-      <c r="Y47" s="9">
+      <c r="Z47" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z47" s="9">
+      <c r="AA47" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA47" s="6">
+      <c r="AB47" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB47" s="6">
+      <c r="AC47" s="6">
         <v>445.47</v>
       </c>
-      <c r="AC47" s="4">
+      <c r="AD47" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AD47" s="12">
+      <c r="AE47" s="12">
         <v>1</v>
       </c>
-      <c r="AE47" s="12">
-        <v>0</v>
-      </c>
       <c r="AF47" s="12">
         <v>0</v>
       </c>
@@ -6528,14 +6673,17 @@
       <c r="AJ47" s="12">
         <v>0</v>
       </c>
-      <c r="AK47" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="19">
+      <c r="AK47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -6556,80 +6704,80 @@
         <v>0.10050000000000001</v>
       </c>
       <c r="G48" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H48" s="10">
         <v>0.06</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <v>0.25</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L48" s="6">
-        <v>445.47</v>
       </c>
       <c r="M48" s="6">
         <v>445.47</v>
       </c>
       <c r="N48" s="6">
+        <v>445.47</v>
+      </c>
+      <c r="O48" s="6">
         <v>413.62</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <v>114.09</v>
-      </c>
-      <c r="P48" s="7">
-        <v>11840.04</v>
       </c>
       <c r="Q48" s="7">
         <v>11840.04</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="7">
+        <v>11840.04</v>
+      </c>
+      <c r="S48" s="6">
         <v>45</v>
       </c>
-      <c r="S48" s="6">
-        <v>65</v>
-      </c>
-      <c r="T48" s="10">
+      <c r="T48" s="6">
+        <v>65</v>
+      </c>
+      <c r="U48" s="10">
         <v>0.375</v>
       </c>
-      <c r="U48" s="10">
+      <c r="V48" s="10">
         <v>0.6</v>
       </c>
-      <c r="V48" s="6">
+      <c r="W48" s="6">
         <v>60</v>
       </c>
-      <c r="W48" s="6">
-        <v>65</v>
-      </c>
       <c r="X48" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y48" s="6">
         <v>70</v>
       </c>
-      <c r="Y48" s="9">
+      <c r="Z48" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z48" s="9">
+      <c r="AA48" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AB48" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB48" s="6">
+      <c r="AC48" s="6">
         <v>453.49</v>
       </c>
-      <c r="AC48" s="4">
+      <c r="AD48" s="4">
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="AD48" s="12">
+      <c r="AE48" s="12">
         <v>1</v>
       </c>
-      <c r="AE48" s="12">
-        <v>0</v>
-      </c>
       <c r="AF48" s="12">
         <v>0</v>
       </c>
@@ -6645,14 +6793,17 @@
       <c r="AJ48" s="12">
         <v>0</v>
       </c>
-      <c r="AK48" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="19">
+      <c r="AK48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -6673,80 +6824,80 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
         <v>0.06</v>
       </c>
-      <c r="H49" s="10">
+      <c r="I49" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>0.25</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L49" s="6">
-        <v>453.49</v>
       </c>
       <c r="M49" s="6">
         <v>453.49</v>
       </c>
       <c r="N49" s="6">
+        <v>453.49</v>
+      </c>
+      <c r="O49" s="6">
         <v>421.07</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <v>116.14</v>
-      </c>
-      <c r="P49" s="7">
-        <v>12150</v>
       </c>
       <c r="Q49" s="7">
         <v>12150</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="7">
+        <v>12150</v>
+      </c>
+      <c r="S49" s="6">
         <v>45</v>
       </c>
-      <c r="S49" s="6">
-        <v>65</v>
-      </c>
-      <c r="T49" s="10">
+      <c r="T49" s="6">
+        <v>65</v>
+      </c>
+      <c r="U49" s="10">
         <v>0.375</v>
       </c>
-      <c r="U49" s="10">
+      <c r="V49" s="10">
         <v>0.6</v>
       </c>
-      <c r="V49" s="6">
+      <c r="W49" s="6">
         <v>60</v>
       </c>
-      <c r="W49" s="6">
-        <v>65</v>
-      </c>
       <c r="X49" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y49" s="6">
         <v>70</v>
       </c>
-      <c r="Y49" s="9">
+      <c r="Z49" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z49" s="9">
+      <c r="AA49" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AB49" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB49" s="6">
+      <c r="AC49" s="6">
         <v>457.57</v>
       </c>
-      <c r="AC49" s="4">
+      <c r="AD49" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD49" s="12">
+      <c r="AE49" s="12">
         <v>1</v>
       </c>
-      <c r="AE49" s="12">
-        <v>0</v>
-      </c>
       <c r="AF49" s="12">
         <v>0</v>
       </c>
@@ -6762,14 +6913,17 @@
       <c r="AJ49" s="12">
         <v>0</v>
       </c>
-      <c r="AK49" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="19">
+      <c r="AK49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -6790,80 +6944,80 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="G50" s="10">
-        <v>7.1999999999999995E-2</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="H50" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I50" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>5</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>0.25</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L50" s="6">
-        <v>457.57</v>
       </c>
       <c r="M50" s="6">
         <v>457.57</v>
       </c>
       <c r="N50" s="6">
+        <v>457.57</v>
+      </c>
+      <c r="O50" s="6">
         <v>424.86</v>
       </c>
-      <c r="O50" s="6">
+      <c r="P50" s="6">
         <v>117.19</v>
-      </c>
-      <c r="P50" s="7">
-        <v>12459.96</v>
       </c>
       <c r="Q50" s="7">
         <v>12459.96</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="7">
+        <v>12459.96</v>
+      </c>
+      <c r="S50" s="6">
         <v>45</v>
       </c>
-      <c r="S50" s="6">
-        <v>65</v>
-      </c>
-      <c r="T50" s="10">
+      <c r="T50" s="6">
+        <v>65</v>
+      </c>
+      <c r="U50" s="10">
         <v>0.375</v>
       </c>
-      <c r="U50" s="10">
+      <c r="V50" s="10">
         <v>0.6</v>
       </c>
-      <c r="V50" s="6">
+      <c r="W50" s="6">
         <v>60</v>
       </c>
-      <c r="W50" s="6">
-        <v>65</v>
-      </c>
       <c r="X50" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y50" s="6">
         <v>70</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Z50" s="9">
         <v>100</v>
       </c>
-      <c r="Z50" s="9">
+      <c r="AA50" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AB50" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB50" s="6">
+      <c r="AC50" s="6">
         <v>465.81</v>
       </c>
-      <c r="AC50" s="4">
+      <c r="AD50" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD50" s="12">
+      <c r="AE50" s="12">
         <v>1</v>
       </c>
-      <c r="AE50" s="12">
-        <v>0</v>
-      </c>
       <c r="AF50" s="12">
         <v>0</v>
       </c>
@@ -6879,14 +7033,17 @@
       <c r="AJ50" s="12">
         <v>0</v>
       </c>
-      <c r="AK50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="19">
+      <c r="AK50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -6907,80 +7064,81 @@
         <v>0.105</v>
       </c>
       <c r="G51" s="10">
-        <v>7.1999999999999995E-2</v>
+        <f>0.0072</f>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H51" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I51" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>5</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>0.25</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L51" s="6">
-        <v>465.81</v>
       </c>
       <c r="M51" s="6">
         <v>465.81</v>
       </c>
       <c r="N51" s="6">
+        <v>465.81</v>
+      </c>
+      <c r="O51" s="6">
         <v>432.51</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <v>119.3</v>
-      </c>
-      <c r="P51" s="7">
-        <v>12780</v>
       </c>
       <c r="Q51" s="7">
         <v>12780</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="7">
+        <v>12780</v>
+      </c>
+      <c r="S51" s="6">
         <v>45</v>
       </c>
-      <c r="S51" s="6">
-        <v>65</v>
-      </c>
-      <c r="T51" s="10">
+      <c r="T51" s="6">
+        <v>65</v>
+      </c>
+      <c r="U51" s="10">
         <v>0.375</v>
       </c>
-      <c r="U51" s="10">
+      <c r="V51" s="10">
         <v>0.6</v>
       </c>
-      <c r="V51" s="6">
+      <c r="W51" s="6">
         <v>60</v>
       </c>
-      <c r="W51" s="6">
-        <v>65</v>
-      </c>
       <c r="X51" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y51" s="6">
         <v>70</v>
       </c>
-      <c r="Y51" s="9">
+      <c r="Z51" s="9">
         <v>100</v>
       </c>
-      <c r="Z51" s="9">
+      <c r="AA51" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA51" s="6">
+      <c r="AB51" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB51" s="6">
+      <c r="AC51" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC51" s="4">
+      <c r="AD51" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AD51" s="12">
+      <c r="AE51" s="12">
         <v>1</v>
       </c>
-      <c r="AE51" s="12">
-        <v>0</v>
-      </c>
       <c r="AF51" s="12">
         <v>0</v>
       </c>
@@ -6996,14 +7154,17 @@
       <c r="AJ51" s="12">
         <v>0</v>
       </c>
-      <c r="AK51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="19">
+      <c r="AK51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -7024,80 +7185,80 @@
         <v>0.1065</v>
       </c>
       <c r="G52" s="10">
-        <v>7.1999999999999995E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H52" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I52" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>5</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <v>0.25</v>
       </c>
-      <c r="K52" s="6">
+      <c r="L52" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L52" s="6">
-        <v>471.4</v>
       </c>
       <c r="M52" s="6">
         <v>471.4</v>
       </c>
       <c r="N52" s="6">
+        <v>471.4</v>
+      </c>
+      <c r="O52" s="6">
         <v>437.7</v>
       </c>
-      <c r="O52" s="6">
+      <c r="P52" s="6">
         <v>120.73</v>
-      </c>
-      <c r="P52" s="7">
-        <v>13110</v>
       </c>
       <c r="Q52" s="7">
         <v>13110</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="7">
+        <v>13110</v>
+      </c>
+      <c r="S52" s="6">
         <v>45</v>
       </c>
-      <c r="S52" s="6">
-        <v>65</v>
-      </c>
-      <c r="T52" s="10">
+      <c r="T52" s="6">
+        <v>65</v>
+      </c>
+      <c r="U52" s="10">
         <v>0.375</v>
       </c>
-      <c r="U52" s="10">
+      <c r="V52" s="10">
         <v>0.6</v>
       </c>
-      <c r="V52" s="6">
+      <c r="W52" s="6">
         <v>60</v>
       </c>
-      <c r="W52" s="6">
-        <v>65</v>
-      </c>
       <c r="X52" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y52" s="6">
         <v>70</v>
       </c>
-      <c r="Y52" s="9">
+      <c r="Z52" s="9">
         <v>100</v>
       </c>
-      <c r="Z52" s="9">
+      <c r="AA52" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AB52" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AC52" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC52" s="4">
+      <c r="AD52" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="AD52" s="12">
+      <c r="AE52" s="12">
         <v>1</v>
       </c>
-      <c r="AE52" s="12">
-        <v>0</v>
-      </c>
       <c r="AF52" s="12">
         <v>0</v>
       </c>
@@ -7113,14 +7274,17 @@
       <c r="AJ52" s="12">
         <v>0</v>
       </c>
-      <c r="AK52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="19">
+      <c r="AK52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -7141,80 +7305,80 @@
         <v>0.108</v>
       </c>
       <c r="G53" s="10">
-        <v>7.1999999999999995E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H53" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I53" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>5</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>0.25</v>
       </c>
-      <c r="K53" s="6">
+      <c r="L53" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L53" s="6">
-        <v>478</v>
       </c>
       <c r="M53" s="6">
         <v>478</v>
       </c>
       <c r="N53" s="6">
+        <v>478</v>
+      </c>
+      <c r="O53" s="6">
         <v>443.83</v>
       </c>
-      <c r="O53" s="6">
+      <c r="P53" s="6">
         <v>122.42</v>
-      </c>
-      <c r="P53" s="7">
-        <v>13370.04</v>
       </c>
       <c r="Q53" s="7">
         <v>13370.04</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="7">
+        <v>13370.04</v>
+      </c>
+      <c r="S53" s="6">
         <v>45</v>
       </c>
-      <c r="S53" s="6">
-        <v>65</v>
-      </c>
-      <c r="T53" s="10">
+      <c r="T53" s="6">
+        <v>65</v>
+      </c>
+      <c r="U53" s="10">
         <v>0.375</v>
       </c>
-      <c r="U53" s="10">
+      <c r="V53" s="10">
         <v>0.6</v>
       </c>
-      <c r="V53" s="6">
+      <c r="W53" s="6">
         <v>60</v>
       </c>
-      <c r="W53" s="6">
-        <v>65</v>
-      </c>
       <c r="X53" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y53" s="6">
         <v>70</v>
       </c>
-      <c r="Y53" s="9">
+      <c r="Z53" s="9">
         <v>100</v>
       </c>
-      <c r="Z53" s="9">
+      <c r="AA53" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA53" s="6">
+      <c r="AB53" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB53" s="6">
+      <c r="AC53" s="6">
         <v>478</v>
       </c>
-      <c r="AC53" s="4">
+      <c r="AD53" s="4">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AD53" s="12">
+      <c r="AE53" s="12">
         <v>1</v>
       </c>
-      <c r="AE53" s="12">
-        <v>0</v>
-      </c>
       <c r="AF53" s="12">
         <v>0</v>
       </c>
@@ -7230,14 +7394,17 @@
       <c r="AJ53" s="12">
         <v>0</v>
       </c>
-      <c r="AK53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="19">
+      <c r="AK53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -7258,80 +7425,80 @@
         <v>0.108</v>
       </c>
       <c r="G54" s="10">
-        <v>7.1999999999999995E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H54" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I54" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>5</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <v>0.25</v>
       </c>
-      <c r="K54" s="6">
+      <c r="L54" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L54" s="6">
-        <v>485.17</v>
       </c>
       <c r="M54" s="6">
         <v>485.17</v>
       </c>
       <c r="N54" s="6">
+        <v>485.17</v>
+      </c>
+      <c r="O54" s="6">
         <v>450.49</v>
       </c>
-      <c r="O54" s="6">
+      <c r="P54" s="6">
         <v>124.26</v>
-      </c>
-      <c r="P54" s="7">
-        <v>13610.04</v>
       </c>
       <c r="Q54" s="7">
         <v>13610.04</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="7">
+        <v>13610.04</v>
+      </c>
+      <c r="S54" s="6">
         <v>45</v>
       </c>
-      <c r="S54" s="6">
-        <v>65</v>
-      </c>
-      <c r="T54" s="10">
+      <c r="T54" s="6">
+        <v>65</v>
+      </c>
+      <c r="U54" s="10">
         <v>0.375</v>
       </c>
-      <c r="U54" s="10">
+      <c r="V54" s="10">
         <v>0.6</v>
       </c>
-      <c r="V54" s="6">
+      <c r="W54" s="6">
         <v>60</v>
       </c>
-      <c r="W54" s="6">
-        <v>65</v>
-      </c>
       <c r="X54" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y54" s="6">
         <v>70</v>
       </c>
-      <c r="Y54" s="9">
+      <c r="Z54" s="9">
         <v>100</v>
       </c>
-      <c r="Z54" s="9">
+      <c r="AA54" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AB54" s="6">
         <v>0.75</v>
       </c>
-      <c r="AB54" s="6">
+      <c r="AC54" s="6">
         <v>485.17</v>
       </c>
-      <c r="AC54" s="4">
+      <c r="AD54" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD54" s="12">
+      <c r="AE54" s="12">
         <v>1</v>
       </c>
-      <c r="AE54" s="12">
-        <v>0</v>
-      </c>
       <c r="AF54" s="12">
         <v>0</v>
       </c>
@@ -7347,15 +7514,18 @@
       <c r="AJ54" s="12">
         <v>0</v>
       </c>
-      <c r="AK54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="19">
+      <c r="AK54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
+    <row r="55" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>2019</v>
       </c>
       <c r="B55" s="11">
@@ -7373,101 +7543,104 @@
       <c r="F55" s="11">
         <v>0.108</v>
       </c>
-      <c r="G55" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="G55" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I55" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I55" s="11">
+      <c r="J55" s="11">
         <v>5</v>
       </c>
-      <c r="J55" s="12">
+      <c r="K55" s="12">
         <v>0.25</v>
       </c>
-      <c r="K55" s="11">
+      <c r="L55" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L55" s="11">
-        <v>496.33</v>
       </c>
       <c r="M55" s="11">
         <v>496.33</v>
       </c>
       <c r="N55" s="11">
+        <v>496.33</v>
+      </c>
+      <c r="O55" s="11">
         <v>460.85</v>
       </c>
-      <c r="O55" s="11">
+      <c r="P55" s="11">
         <v>127.12</v>
       </c>
-      <c r="P55" s="14">
+      <c r="Q55" s="13">
         <v>13854.96</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="R55" s="14">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="11">
+      <c r="S55" s="11">
         <v>45</v>
       </c>
-      <c r="S55" s="11">
-        <v>65</v>
-      </c>
       <c r="T55" s="11">
+        <v>65</v>
+      </c>
+      <c r="U55" s="11">
         <v>0.375</v>
       </c>
-      <c r="U55" s="11">
+      <c r="V55" s="11">
         <v>0.6</v>
       </c>
-      <c r="V55" s="11">
+      <c r="W55" s="11">
         <v>60</v>
       </c>
-      <c r="W55" s="11">
-        <v>65</v>
-      </c>
       <c r="X55" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="11">
         <v>70</v>
       </c>
-      <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
-      <c r="AA55" s="11">
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB55" s="11">
+      <c r="AC55" s="11">
         <v>496.36</v>
       </c>
-      <c r="AC55" s="11">
+      <c r="AD55" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD55" s="12">
+      <c r="AE55" s="12">
         <v>1</v>
       </c>
-      <c r="AE55" s="18">
+      <c r="AF55" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="11">
+      <c r="AG55" s="11">
         <v>1.5E-3</v>
       </c>
-      <c r="AG55" s="12">
-        <v>0</v>
-      </c>
       <c r="AH55" s="12">
         <v>0</v>
       </c>
-      <c r="AI55" s="11">
+      <c r="AI55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ55" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="20">
+      <c r="AK55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL55" s="20">
+      <c r="AM55" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+    <row r="56" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>2020</v>
       </c>
       <c r="B56" s="11">
@@ -7486,112 +7659,115 @@
       <c r="F56" s="11">
         <v>0.108</v>
       </c>
-      <c r="G56" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="G56" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I56" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I56" s="11">
+      <c r="J56" s="11">
         <v>5</v>
       </c>
-      <c r="J56" s="12">
+      <c r="K56" s="12">
         <v>0.25</v>
       </c>
-      <c r="K56" s="11">
+      <c r="L56" s="11">
         <v>0.15</v>
       </c>
-      <c r="L56" s="11">
-        <f>L55*1.03</f>
+      <c r="M56" s="11">
+        <f t="shared" ref="M56:R56" si="1">M55*1.03</f>
         <v>511.2199</v>
       </c>
-      <c r="M56" s="11">
-        <f>M55*1.03</f>
+      <c r="N56" s="11">
+        <f t="shared" si="1"/>
         <v>511.2199</v>
       </c>
-      <c r="N56" s="11">
-        <f>N55*1.03</f>
+      <c r="O56" s="11">
+        <f t="shared" si="1"/>
         <v>474.67550000000006</v>
       </c>
-      <c r="O56" s="11">
-        <f>O55*1.03</f>
+      <c r="P56" s="11">
+        <f t="shared" si="1"/>
         <v>130.93360000000001</v>
       </c>
-      <c r="P56" s="14">
-        <f>P55*1.03</f>
+      <c r="Q56" s="13">
+        <f t="shared" si="1"/>
         <v>14270.6088</v>
       </c>
-      <c r="Q56" s="15">
-        <f>Q55*1.03</f>
+      <c r="R56" s="14">
+        <f t="shared" si="1"/>
         <v>14270.6088</v>
       </c>
-      <c r="R56" s="11">
+      <c r="S56" s="11">
         <v>45</v>
       </c>
-      <c r="S56" s="11">
-        <v>65</v>
-      </c>
       <c r="T56" s="11">
+        <v>65</v>
+      </c>
+      <c r="U56" s="11">
         <v>0.375</v>
       </c>
-      <c r="U56" s="11">
+      <c r="V56" s="11">
         <v>0.6</v>
       </c>
-      <c r="V56" s="11">
+      <c r="W56" s="11">
         <v>60</v>
       </c>
-      <c r="W56" s="11">
-        <v>65</v>
-      </c>
       <c r="X56" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y56" s="11">
         <v>70</v>
       </c>
-      <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
-      <c r="AA56" s="11">
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB56" s="11">
-        <f>AB55*1.03</f>
+      <c r="AC56" s="11">
+        <f>AC55*1.03</f>
         <v>511.25080000000003</v>
       </c>
-      <c r="AC56" s="11">
+      <c r="AD56" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD56" s="12">
+      <c r="AE56" s="12">
         <v>1</v>
       </c>
-      <c r="AE56" s="18">
+      <c r="AF56" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="11">
+      <c r="AG56" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG56" s="12">
-        <v>0</v>
-      </c>
       <c r="AH56" s="12">
         <v>0</v>
       </c>
-      <c r="AI56" s="11">
+      <c r="AI56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ56" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="20">
+      <c r="AK56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL56" s="20">
+      <c r="AM56" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
+    <row r="57" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>2021</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="1">B56*1.03</f>
+        <f t="shared" ref="B57:B61" si="2">B56*1.03</f>
         <v>60895.66</v>
       </c>
       <c r="C57" s="11">
@@ -7606,24 +7782,23 @@
       <c r="F57" s="11">
         <v>0.108</v>
       </c>
-      <c r="G57" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H57" s="11">
+      <c r="G57" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I57" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I57" s="11">
+      <c r="J57" s="11">
         <v>5</v>
       </c>
-      <c r="J57" s="12">
+      <c r="K57" s="12">
         <v>0.25</v>
       </c>
-      <c r="K57" s="11">
+      <c r="L57" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L57" s="11">
-        <f t="shared" ref="L57:L61" si="2">L56*1.03</f>
-        <v>526.55649700000004</v>
       </c>
       <c r="M57" s="11">
         <f t="shared" ref="M57:M61" si="3">M56*1.03</f>
@@ -7631,87 +7806,91 @@
       </c>
       <c r="N57" s="11">
         <f t="shared" ref="N57:N61" si="4">N56*1.03</f>
-        <v>488.91576500000008</v>
+        <v>526.55649700000004</v>
       </c>
       <c r="O57" s="11">
         <f t="shared" ref="O57:O61" si="5">O56*1.03</f>
+        <v>488.91576500000008</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" ref="P57:P61" si="6">P56*1.03</f>
         <v>134.86160800000002</v>
       </c>
-      <c r="P57" s="14">
-        <f t="shared" ref="P57:Q61" si="6">P56*1.03</f>
+      <c r="Q57" s="13">
+        <f t="shared" ref="Q57:R61" si="7">Q56*1.03</f>
         <v>14698.727064000001</v>
       </c>
-      <c r="Q57" s="15">
-        <f t="shared" si="6"/>
+      <c r="R57" s="14">
+        <f t="shared" si="7"/>
         <v>14698.727064000001</v>
       </c>
-      <c r="R57" s="11">
+      <c r="S57" s="11">
         <v>45</v>
       </c>
-      <c r="S57" s="11">
-        <v>65</v>
-      </c>
       <c r="T57" s="11">
+        <v>65</v>
+      </c>
+      <c r="U57" s="11">
         <v>0.375</v>
       </c>
-      <c r="U57" s="11">
+      <c r="V57" s="11">
         <v>0.6</v>
       </c>
-      <c r="V57" s="11">
+      <c r="W57" s="11">
         <v>60</v>
       </c>
-      <c r="W57" s="11">
-        <v>65</v>
-      </c>
       <c r="X57" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="11">
         <v>70</v>
       </c>
-      <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="11">
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB57" s="11">
-        <f t="shared" ref="AB57:AB61" si="7">AB56*1.03</f>
+      <c r="AC57" s="11">
+        <f t="shared" ref="AC57:AC61" si="8">AC56*1.03</f>
         <v>526.58832400000006</v>
       </c>
-      <c r="AC57" s="11">
+      <c r="AD57" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD57" s="12">
+      <c r="AE57" s="12">
         <v>1</v>
       </c>
-      <c r="AE57" s="18">
+      <c r="AF57" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="11">
+      <c r="AG57" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG57" s="12">
-        <v>0</v>
-      </c>
       <c r="AH57" s="12">
         <v>0</v>
       </c>
-      <c r="AI57" s="11">
+      <c r="AI57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="11">
         <v>0.01</v>
       </c>
-      <c r="AJ57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="20">
+      <c r="AK57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL57" s="20">
+      <c r="AM57" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
+    <row r="58" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>2022</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62722.529800000004</v>
       </c>
       <c r="C58" s="11">
@@ -7726,24 +7905,23 @@
       <c r="F58" s="11">
         <v>0.108</v>
       </c>
-      <c r="G58" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H58" s="11">
+      <c r="G58" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I58" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I58" s="11">
+      <c r="J58" s="11">
         <v>5</v>
       </c>
-      <c r="J58" s="12">
+      <c r="K58" s="12">
         <v>0.25</v>
       </c>
-      <c r="K58" s="11">
+      <c r="L58" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L58" s="11">
-        <f t="shared" si="2"/>
-        <v>542.35319191000008</v>
       </c>
       <c r="M58" s="11">
         <f t="shared" si="3"/>
@@ -7751,87 +7929,91 @@
       </c>
       <c r="N58" s="11">
         <f t="shared" si="4"/>
-        <v>503.58323795000007</v>
+        <v>542.35319191000008</v>
       </c>
       <c r="O58" s="11">
         <f t="shared" si="5"/>
+        <v>503.58323795000007</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="6"/>
         <v>138.90745624000002</v>
       </c>
-      <c r="P58" s="14">
-        <f t="shared" si="6"/>
+      <c r="Q58" s="13">
+        <f t="shared" si="7"/>
         <v>15139.688875920001</v>
       </c>
-      <c r="Q58" s="15">
-        <f t="shared" si="6"/>
+      <c r="R58" s="14">
+        <f t="shared" si="7"/>
         <v>15139.688875920001</v>
       </c>
-      <c r="R58" s="11">
+      <c r="S58" s="11">
         <v>45</v>
       </c>
-      <c r="S58" s="11">
-        <v>65</v>
-      </c>
       <c r="T58" s="11">
+        <v>65</v>
+      </c>
+      <c r="U58" s="11">
         <v>0.375</v>
       </c>
-      <c r="U58" s="11">
+      <c r="V58" s="11">
         <v>0.6</v>
       </c>
-      <c r="V58" s="11">
+      <c r="W58" s="11">
         <v>60</v>
       </c>
-      <c r="W58" s="11">
-        <v>65</v>
-      </c>
       <c r="X58" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y58" s="11">
         <v>70</v>
       </c>
-      <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
-      <c r="AA58" s="11">
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB58" s="11">
-        <f t="shared" si="7"/>
+      <c r="AC58" s="11">
+        <f t="shared" si="8"/>
         <v>542.38597372000004</v>
       </c>
-      <c r="AC58" s="11">
+      <c r="AD58" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD58" s="12">
+      <c r="AE58" s="12">
         <v>1</v>
       </c>
-      <c r="AE58" s="18">
+      <c r="AF58" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF58" s="11">
+      <c r="AG58" s="11">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AG58" s="12">
-        <v>0</v>
-      </c>
       <c r="AH58" s="12">
         <v>0</v>
       </c>
-      <c r="AI58" s="11">
+      <c r="AI58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AJ58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="20">
+      <c r="AK58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL58" s="20">
+      <c r="AM58" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+    <row r="59" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>2023</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64604.205694000004</v>
       </c>
       <c r="C59" s="11">
@@ -7846,24 +8028,23 @@
       <c r="F59" s="11">
         <v>0.108</v>
       </c>
-      <c r="G59" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="G59" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I59" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I59" s="11">
+      <c r="J59" s="11">
         <v>5</v>
       </c>
-      <c r="J59" s="12">
+      <c r="K59" s="12">
         <v>0.25</v>
       </c>
-      <c r="K59" s="11">
+      <c r="L59" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L59" s="11">
-        <f t="shared" si="2"/>
-        <v>558.62378766730012</v>
       </c>
       <c r="M59" s="11">
         <f t="shared" si="3"/>
@@ -7871,87 +8052,91 @@
       </c>
       <c r="N59" s="11">
         <f t="shared" si="4"/>
-        <v>518.69073508850011</v>
+        <v>558.62378766730012</v>
       </c>
       <c r="O59" s="11">
         <f t="shared" si="5"/>
+        <v>518.69073508850011</v>
+      </c>
+      <c r="P59" s="11">
+        <f t="shared" si="6"/>
         <v>143.07467992720001</v>
       </c>
-      <c r="P59" s="14">
-        <f t="shared" si="6"/>
+      <c r="Q59" s="13">
+        <f t="shared" si="7"/>
         <v>15593.879542197601</v>
       </c>
-      <c r="Q59" s="15">
-        <f t="shared" si="6"/>
+      <c r="R59" s="14">
+        <f t="shared" si="7"/>
         <v>15593.879542197601</v>
       </c>
-      <c r="R59" s="11">
+      <c r="S59" s="11">
         <v>45</v>
       </c>
-      <c r="S59" s="11">
-        <v>65</v>
-      </c>
       <c r="T59" s="11">
+        <v>65</v>
+      </c>
+      <c r="U59" s="11">
         <v>0.375</v>
       </c>
-      <c r="U59" s="11">
+      <c r="V59" s="11">
         <v>0.6</v>
       </c>
-      <c r="V59" s="11">
+      <c r="W59" s="11">
         <v>60</v>
       </c>
-      <c r="W59" s="11">
-        <v>65</v>
-      </c>
       <c r="X59" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y59" s="11">
         <v>70</v>
       </c>
-      <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
-      <c r="AA59" s="11">
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB59" s="11">
-        <f t="shared" si="7"/>
+      <c r="AC59" s="11">
+        <f t="shared" si="8"/>
         <v>558.65755293160009</v>
       </c>
-      <c r="AC59" s="11">
+      <c r="AD59" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD59" s="12">
+      <c r="AE59" s="12">
         <v>1</v>
       </c>
-      <c r="AE59" s="18">
+      <c r="AF59" s="17">
         <v>0.01</v>
       </c>
-      <c r="AF59" s="11">
+      <c r="AG59" s="11">
         <v>0.01</v>
       </c>
-      <c r="AG59" s="12">
-        <v>0</v>
-      </c>
       <c r="AH59" s="12">
         <v>0</v>
       </c>
-      <c r="AI59" s="11">
+      <c r="AI59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="20">
+      <c r="AK59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL59" s="20">
+      <c r="AM59" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+    <row r="60" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>2024</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66542.331864820007</v>
       </c>
       <c r="C60" s="11">
@@ -7966,24 +8151,23 @@
       <c r="F60" s="11">
         <v>0.108</v>
       </c>
-      <c r="G60" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="G60" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I60" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I60" s="11">
+      <c r="J60" s="11">
         <v>5</v>
       </c>
-      <c r="J60" s="12">
+      <c r="K60" s="12">
         <v>0.25</v>
       </c>
-      <c r="K60" s="11">
+      <c r="L60" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L60" s="11">
-        <f t="shared" si="2"/>
-        <v>575.3825012973191</v>
       </c>
       <c r="M60" s="11">
         <f t="shared" si="3"/>
@@ -7991,87 +8175,91 @@
       </c>
       <c r="N60" s="11">
         <f t="shared" si="4"/>
-        <v>534.25145714115513</v>
+        <v>575.3825012973191</v>
       </c>
       <c r="O60" s="11">
         <f t="shared" si="5"/>
+        <v>534.25145714115513</v>
+      </c>
+      <c r="P60" s="11">
+        <f t="shared" si="6"/>
         <v>147.36692032501603</v>
       </c>
-      <c r="P60" s="14">
-        <f t="shared" si="6"/>
+      <c r="Q60" s="13">
+        <f t="shared" si="7"/>
         <v>16061.695928463529</v>
       </c>
-      <c r="Q60" s="15">
-        <f t="shared" si="6"/>
+      <c r="R60" s="14">
+        <f t="shared" si="7"/>
         <v>16061.695928463529</v>
       </c>
-      <c r="R60" s="11">
+      <c r="S60" s="11">
         <v>45</v>
       </c>
-      <c r="S60" s="11">
-        <v>65</v>
-      </c>
       <c r="T60" s="11">
+        <v>65</v>
+      </c>
+      <c r="U60" s="11">
         <v>0.375</v>
       </c>
-      <c r="U60" s="11">
+      <c r="V60" s="11">
         <v>0.6</v>
       </c>
-      <c r="V60" s="11">
+      <c r="W60" s="11">
         <v>60</v>
       </c>
-      <c r="W60" s="11">
-        <v>65</v>
-      </c>
       <c r="X60" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y60" s="11">
         <v>70</v>
       </c>
-      <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
-      <c r="AA60" s="11">
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB60" s="11">
-        <f t="shared" si="7"/>
+      <c r="AC60" s="11">
+        <f t="shared" si="8"/>
         <v>575.41727951954806</v>
       </c>
-      <c r="AC60" s="11">
+      <c r="AD60" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD60" s="11">
+      <c r="AE60" s="11">
         <v>1.07</v>
       </c>
-      <c r="AE60" s="18">
+      <c r="AF60" s="17">
         <v>0.01</v>
       </c>
-      <c r="AF60" s="11">
+      <c r="AG60" s="11">
         <v>0.01</v>
-      </c>
-      <c r="AG60" s="11">
-        <v>0.04</v>
       </c>
       <c r="AH60" s="11">
         <v>0.04</v>
       </c>
       <c r="AI60" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="AJ60" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ60" s="11">
+      <c r="AK60" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK60" s="20">
+      <c r="AL60" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL60" s="20">
+      <c r="AM60" s="19">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+    <row r="61" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>2025</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68538.601820764612</v>
       </c>
       <c r="C61" s="11">
@@ -8086,24 +8274,23 @@
       <c r="F61" s="11">
         <v>0.108</v>
       </c>
-      <c r="G61" s="11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="G61" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I61" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I61" s="11">
+      <c r="J61" s="11">
         <v>5</v>
       </c>
-      <c r="J61" s="12">
+      <c r="K61" s="12">
         <v>0.25</v>
       </c>
-      <c r="K61" s="11">
+      <c r="L61" s="11">
         <v>0.15</v>
-      </c>
-      <c r="L61" s="11">
-        <f t="shared" si="2"/>
-        <v>592.64397633623867</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" si="3"/>
@@ -8111,697 +8298,84 @@
       </c>
       <c r="N61" s="11">
         <f t="shared" si="4"/>
-        <v>550.27900085538977</v>
+        <v>592.64397633623867</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="5"/>
+        <v>550.27900085538977</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="6"/>
         <v>151.78792793476651</v>
       </c>
-      <c r="P61" s="14">
-        <f t="shared" si="6"/>
+      <c r="Q61" s="13">
+        <f t="shared" si="7"/>
         <v>16543.546806317434</v>
       </c>
-      <c r="Q61" s="15">
-        <f t="shared" si="6"/>
+      <c r="R61" s="14">
+        <f t="shared" si="7"/>
         <v>16543.546806317434</v>
       </c>
-      <c r="R61" s="11">
+      <c r="S61" s="11">
         <v>45</v>
       </c>
-      <c r="S61" s="11">
-        <v>65</v>
-      </c>
       <c r="T61" s="11">
+        <v>65</v>
+      </c>
+      <c r="U61" s="11">
         <v>0.375</v>
       </c>
-      <c r="U61" s="11">
+      <c r="V61" s="11">
         <v>0.6</v>
       </c>
-      <c r="V61" s="11">
+      <c r="W61" s="11">
         <v>60</v>
       </c>
-      <c r="W61" s="11">
-        <v>65</v>
-      </c>
       <c r="X61" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y61" s="11">
         <v>70</v>
       </c>
-      <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
-      <c r="AA61" s="11">
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="11">
         <v>0.75</v>
       </c>
-      <c r="AB61" s="11">
-        <f t="shared" si="7"/>
+      <c r="AC61" s="11">
+        <f t="shared" si="8"/>
         <v>592.67979790513448</v>
       </c>
-      <c r="AC61" s="11">
+      <c r="AD61" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AD61" s="11">
+      <c r="AE61" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AE61" s="18">
+      <c r="AF61" s="17">
         <v>0.01</v>
       </c>
-      <c r="AF61" s="11">
+      <c r="AG61" s="11">
         <v>0.01</v>
-      </c>
-      <c r="AG61" s="11">
-        <v>0.04</v>
       </c>
       <c r="AH61" s="11">
         <v>0.04</v>
       </c>
       <c r="AI61" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="AJ61" s="11">
         <v>0.02</v>
       </c>
-      <c r="AJ61" s="11">
+      <c r="AK61" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK61" s="20">
+      <c r="AL61" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL61" s="20">
+      <c r="AM61" s="19">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="M62" s="1"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="M63" s="1"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="M64" s="1"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="M65" s="1"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="M66" s="1"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="M67" s="1"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109" s="8"/>
-      <c r="G109"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110" s="8"/>
-      <c r="G110"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111" s="8"/>
-      <c r="G111"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112" s="8"/>
-      <c r="G112"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113" s="8"/>
-      <c r="G113"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="1"/>

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/git/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/Dropbox (CEDIA)/projets/claim/paper/codes/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52080" yWindow="2860" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="51200" yWindow="1160" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -1031,10 +1031,10 @@
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55:G61"/>
+      <selection pane="bottomRight" activeCell="AB67" sqref="AB67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7608,7 +7608,7 @@
       <c r="AC55" s="11">
         <v>496.36</v>
       </c>
-      <c r="AD55" s="11">
+      <c r="AD55" s="17">
         <v>2.3E-2</v>
       </c>
       <c r="AE55" s="12">
@@ -7644,8 +7644,8 @@
         <v>2020</v>
       </c>
       <c r="B56" s="11">
-        <f>B55*1.03</f>
-        <v>59122</v>
+        <f>B55*1.0159</f>
+        <v>58312.66</v>
       </c>
       <c r="C56" s="11">
         <v>3500</v>
@@ -7731,8 +7731,8 @@
         <f>AC55*1.03</f>
         <v>511.25080000000003</v>
       </c>
-      <c r="AD56" s="11">
-        <v>2.3E-2</v>
+      <c r="AD56" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE56" s="12">
         <v>1</v>
@@ -7767,8 +7767,8 @@
         <v>2021</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="2">B56*1.03</f>
-        <v>60895.66</v>
+        <f t="shared" ref="B57:B61" si="2">B56*1.0159</f>
+        <v>59239.831294000003</v>
       </c>
       <c r="C57" s="11">
         <v>3500</v>
@@ -7854,8 +7854,8 @@
         <f t="shared" ref="AC57:AC61" si="8">AC56*1.03</f>
         <v>526.58832400000006</v>
       </c>
-      <c r="AD57" s="11">
-        <v>2.3E-2</v>
+      <c r="AD57" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE57" s="12">
         <v>1</v>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B58" s="11">
         <f t="shared" si="2"/>
-        <v>62722.529800000004</v>
+        <v>60181.744611574606</v>
       </c>
       <c r="C58" s="11">
         <v>3500</v>
@@ -7977,8 +7977,8 @@
         <f t="shared" si="8"/>
         <v>542.38597372000004</v>
       </c>
-      <c r="AD58" s="11">
-        <v>2.3E-2</v>
+      <c r="AD58" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE58" s="12">
         <v>1</v>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B59" s="11">
         <f t="shared" si="2"/>
-        <v>64604.205694000004</v>
+        <v>61138.634350898647</v>
       </c>
       <c r="C59" s="11">
         <v>3500</v>
@@ -8100,8 +8100,8 @@
         <f t="shared" si="8"/>
         <v>558.65755293160009</v>
       </c>
-      <c r="AD59" s="11">
-        <v>2.3E-2</v>
+      <c r="AD59" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE59" s="12">
         <v>1</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="B60" s="11">
         <f t="shared" si="2"/>
-        <v>66542.331864820007</v>
+        <v>62110.738637077935</v>
       </c>
       <c r="C60" s="11">
         <v>3500</v>
@@ -8223,8 +8223,8 @@
         <f t="shared" si="8"/>
         <v>575.41727951954806</v>
       </c>
-      <c r="AD60" s="11">
-        <v>2.3E-2</v>
+      <c r="AD60" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE60" s="11">
         <v>1.07</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="B61" s="11">
         <f t="shared" si="2"/>
-        <v>68538.601820764612</v>
+        <v>63098.299381407473</v>
       </c>
       <c r="C61" s="11">
         <v>3500</v>
@@ -8346,8 +8346,8 @@
         <f t="shared" si="8"/>
         <v>592.67979790513448</v>
       </c>
-      <c r="AD61" s="11">
-        <v>2.3E-2</v>
+      <c r="AD61" s="17">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AE61" s="11">
         <v>1.1399999999999999</v>

--- a/params/qpp_history.xlsx
+++ b/params/qpp_history.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/Dropbox (CEDIA)/projets/claim/paper/codes/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/git/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1160" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="52280" yWindow="1160" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -95,9 +95,6 @@
     <t>lra</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>supp</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   <si>
     <t>ca</t>
   </si>
+  <si>
+    <t>supp_s1</t>
+  </si>
+  <si>
+    <t>supp_s2</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +301,22 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -606,7 +625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -649,6 +668,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -674,7 +695,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -703,11 +724,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1028,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB67" sqref="AB67"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1067,7 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -1082,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -1124,15 +1147,15 @@
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="8" t="s">
@@ -1153,17 +1176,20 @@
       <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="16" t="s">
         <v>35</v>
       </c>
       <c r="AL1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="16" t="s">
-        <v>37</v>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1243,20 +1269,20 @@
       <c r="Z2" s="9">
         <v>0</v>
       </c>
-      <c r="AA2" s="9">
-        <v>0</v>
+      <c r="AA2" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB2" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>1</v>
       </c>
       <c r="AE2" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="12">
         <v>0</v>
@@ -1273,17 +1299,20 @@
       <c r="AJ2" s="12">
         <v>0</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="18">
         <v>0</v>
       </c>
       <c r="AL2" s="18">
         <v>0</v>
       </c>
-      <c r="AM2" s="18">
+      <c r="AM2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1363,20 +1392,20 @@
       <c r="Z3" s="9">
         <v>0</v>
       </c>
-      <c r="AA3" s="9">
-        <v>0</v>
+      <c r="AA3" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>1</v>
       </c>
       <c r="AE3" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="12">
         <v>0</v>
@@ -1393,17 +1422,20 @@
       <c r="AJ3" s="12">
         <v>0</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="18">
         <v>0</v>
       </c>
       <c r="AL3" s="18">
         <v>0</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1483,20 +1515,20 @@
       <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="AA4" s="9">
-        <v>0</v>
+      <c r="AA4" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
       <c r="AE4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="12">
         <v>0</v>
@@ -1513,17 +1545,20 @@
       <c r="AJ4" s="12">
         <v>0</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="18">
         <v>0</v>
       </c>
       <c r="AL4" s="18">
         <v>0</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1603,20 +1638,20 @@
       <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="9">
-        <v>0</v>
+      <c r="AA5" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
       <c r="AE5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="12">
         <v>0</v>
@@ -1633,17 +1668,20 @@
       <c r="AJ5" s="12">
         <v>0</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="18">
         <v>0</v>
       </c>
       <c r="AL5" s="18">
         <v>0</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1723,20 +1761,20 @@
       <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="9">
-        <v>0</v>
+      <c r="AA6" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC6" s="6">
         <v>26.53</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AC6" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
       <c r="AE6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="12">
         <v>0</v>
@@ -1753,17 +1791,20 @@
       <c r="AJ6" s="12">
         <v>0</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AK6" s="18">
         <v>0</v>
       </c>
       <c r="AL6" s="18">
         <v>0</v>
       </c>
-      <c r="AM6" s="18">
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1843,20 +1884,20 @@
       <c r="Z7" s="9">
         <v>0</v>
       </c>
-      <c r="AA7" s="9">
-        <v>0</v>
+      <c r="AA7" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB7" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC7" s="6">
         <v>27.06</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AC7" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
       <c r="AE7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="12">
         <v>0</v>
@@ -1873,17 +1914,20 @@
       <c r="AJ7" s="12">
         <v>0</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="18">
         <v>0</v>
       </c>
       <c r="AL7" s="18">
         <v>0</v>
       </c>
-      <c r="AM7" s="18">
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -1963,20 +2007,20 @@
       <c r="Z8" s="9">
         <v>0</v>
       </c>
-      <c r="AA8" s="9">
-        <v>0</v>
+      <c r="AA8" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC8" s="6">
         <v>80</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AC8" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD8" s="12">
+        <v>1</v>
+      </c>
       <c r="AE8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="12">
         <v>0</v>
@@ -1993,17 +2037,20 @@
       <c r="AJ8" s="12">
         <v>0</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AK8" s="18">
         <v>0</v>
       </c>
       <c r="AL8" s="18">
         <v>0</v>
       </c>
-      <c r="AM8" s="18">
+      <c r="AM8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -2083,20 +2130,20 @@
       <c r="Z9" s="9">
         <v>0</v>
       </c>
-      <c r="AA9" s="9">
-        <v>0</v>
+      <c r="AA9" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC9" s="6">
         <v>86.56</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AC9" s="4">
         <v>0.03</v>
       </c>
+      <c r="AD9" s="12">
+        <v>1</v>
+      </c>
       <c r="AE9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="12">
         <v>0</v>
@@ -2113,17 +2160,20 @@
       <c r="AJ9" s="12">
         <v>0</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AK9" s="18">
         <v>0</v>
       </c>
       <c r="AL9" s="18">
         <v>0</v>
       </c>
-      <c r="AM9" s="18">
+      <c r="AM9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -2203,20 +2253,20 @@
       <c r="Z10" s="9">
         <v>0</v>
       </c>
-      <c r="AA10" s="9">
-        <v>0</v>
+      <c r="AA10" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB10" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC10" s="6">
         <v>95.59</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AC10" s="4">
         <v>8.199999999999999E-2</v>
       </c>
+      <c r="AD10" s="12">
+        <v>1</v>
+      </c>
       <c r="AE10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="12">
         <v>0</v>
@@ -2233,17 +2283,20 @@
       <c r="AJ10" s="12">
         <v>0</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10" s="18">
         <v>0</v>
       </c>
       <c r="AL10" s="18">
         <v>0</v>
       </c>
-      <c r="AM10" s="18">
+      <c r="AM10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -2323,20 +2376,20 @@
       <c r="Z11" s="9">
         <v>0</v>
       </c>
-      <c r="AA11" s="9">
-        <v>0</v>
+      <c r="AA11" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC11" s="6">
         <v>106.26</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AC11" s="4">
         <v>0.10400000000000001</v>
       </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
       <c r="AE11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="12">
         <v>0</v>
@@ -2353,17 +2406,20 @@
       <c r="AJ11" s="12">
         <v>0</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK11" s="18">
         <v>0</v>
       </c>
       <c r="AL11" s="18">
         <v>0</v>
       </c>
-      <c r="AM11" s="18">
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2443,20 +2499,20 @@
       <c r="Z12" s="9">
         <v>0</v>
       </c>
-      <c r="AA12" s="9">
-        <v>0</v>
+      <c r="AA12" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB12" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC12" s="6">
         <v>114.96</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AC12" s="4">
         <v>0.11199999999999999</v>
       </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
       <c r="AE12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="12">
         <v>0</v>
@@ -2473,17 +2529,20 @@
       <c r="AJ12" s="12">
         <v>0</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="18">
         <v>0</v>
       </c>
       <c r="AL12" s="18">
         <v>0</v>
       </c>
-      <c r="AM12" s="18">
+      <c r="AM12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2563,20 +2622,20 @@
       <c r="Z13" s="9">
         <v>0</v>
       </c>
-      <c r="AA13" s="9">
-        <v>0</v>
+      <c r="AA13" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB13" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC13" s="6">
         <v>123.56</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AC13" s="4">
         <v>8.199999999999999E-2</v>
       </c>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
       <c r="AE13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="12">
         <v>0</v>
@@ -2593,17 +2652,20 @@
       <c r="AJ13" s="12">
         <v>0</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="18">
         <v>0</v>
       </c>
       <c r="AL13" s="18">
         <v>0</v>
       </c>
-      <c r="AM13" s="18">
+      <c r="AM13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2683,20 +2745,20 @@
       <c r="Z14" s="9">
         <v>0</v>
       </c>
-      <c r="AA14" s="9">
-        <v>0</v>
+      <c r="AA14" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB14" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC14" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AC14" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
       <c r="AE14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="12">
         <v>0</v>
@@ -2713,17 +2775,20 @@
       <c r="AJ14" s="12">
         <v>0</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="18">
         <v>0</v>
       </c>
       <c r="AL14" s="18">
         <v>0</v>
       </c>
-      <c r="AM14" s="18">
+      <c r="AM14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2803,20 +2868,20 @@
       <c r="Z15" s="9">
         <v>0</v>
       </c>
-      <c r="AA15" s="9">
-        <v>0</v>
+      <c r="AA15" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB15" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC15" s="6">
         <v>146.78</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AC15" s="4">
         <v>0.09</v>
       </c>
+      <c r="AD15" s="12">
+        <v>1</v>
+      </c>
       <c r="AE15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="12">
         <v>0</v>
@@ -2833,17 +2898,20 @@
       <c r="AJ15" s="12">
         <v>0</v>
       </c>
-      <c r="AK15" s="12">
+      <c r="AK15" s="18">
         <v>0</v>
       </c>
       <c r="AL15" s="18">
         <v>0</v>
       </c>
-      <c r="AM15" s="18">
+      <c r="AM15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -2923,20 +2991,20 @@
       <c r="Z16" s="9">
         <v>0</v>
       </c>
-      <c r="AA16" s="9">
-        <v>0</v>
+      <c r="AA16" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB16" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC16" s="6">
         <v>161.31</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AC16" s="4">
         <v>0.09</v>
       </c>
+      <c r="AD16" s="12">
+        <v>1</v>
+      </c>
       <c r="AE16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="12">
         <v>0</v>
@@ -2953,17 +3021,20 @@
       <c r="AJ16" s="12">
         <v>0</v>
       </c>
-      <c r="AK16" s="12">
+      <c r="AK16" s="18">
         <v>0</v>
       </c>
       <c r="AL16" s="18">
         <v>0</v>
       </c>
-      <c r="AM16" s="18">
+      <c r="AM16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -3043,20 +3114,20 @@
       <c r="Z17" s="9">
         <v>0</v>
       </c>
-      <c r="AA17" s="9">
-        <v>0</v>
+      <c r="AA17" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB17" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC17" s="6">
         <v>181.18</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AC17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="AD17" s="12">
+        <v>1</v>
+      </c>
       <c r="AE17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="12">
         <v>0</v>
@@ -3073,17 +3144,20 @@
       <c r="AJ17" s="12">
         <v>0</v>
       </c>
-      <c r="AK17" s="12">
+      <c r="AK17" s="18">
         <v>0</v>
       </c>
       <c r="AL17" s="18">
         <v>0</v>
       </c>
-      <c r="AM17" s="18">
+      <c r="AM17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -3163,20 +3237,20 @@
       <c r="Z18" s="9">
         <v>0</v>
       </c>
-      <c r="AA18" s="9">
-        <v>0</v>
+      <c r="AA18" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB18" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC18" s="6">
         <v>201.44</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AC18" s="4">
         <v>0.12300000000000001</v>
       </c>
+      <c r="AD18" s="12">
+        <v>1</v>
+      </c>
       <c r="AE18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
@@ -3193,17 +3267,20 @@
       <c r="AJ18" s="12">
         <v>0</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="AK18" s="18">
         <v>0</v>
       </c>
       <c r="AL18" s="18">
         <v>0</v>
       </c>
-      <c r="AM18" s="18">
+      <c r="AM18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -3283,20 +3360,20 @@
       <c r="Z19" s="9">
         <v>0</v>
       </c>
-      <c r="AA19" s="9">
-        <v>0</v>
+      <c r="AA19" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB19" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC19" s="6">
         <v>214.94</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AC19" s="4">
         <v>0.11199999999999999</v>
       </c>
+      <c r="AD19" s="12">
+        <v>1</v>
+      </c>
       <c r="AE19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
@@ -3313,17 +3390,20 @@
       <c r="AJ19" s="12">
         <v>0</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AK19" s="18">
         <v>0</v>
       </c>
       <c r="AL19" s="18">
         <v>0</v>
       </c>
-      <c r="AM19" s="18">
+      <c r="AM19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -3403,20 +3483,20 @@
       <c r="Z20" s="9">
         <v>0</v>
       </c>
-      <c r="AA20" s="9">
-        <v>0</v>
+      <c r="AA20" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB20" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC20" s="6">
         <v>224.4</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AC20" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="AD20" s="12">
+        <v>1</v>
+      </c>
       <c r="AE20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
@@ -3433,17 +3513,20 @@
       <c r="AJ20" s="12">
         <v>0</v>
       </c>
-      <c r="AK20" s="12">
+      <c r="AK20" s="18">
         <v>0</v>
       </c>
       <c r="AL20" s="18">
         <v>0</v>
       </c>
-      <c r="AM20" s="18">
+      <c r="AM20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -3523,20 +3606,20 @@
       <c r="Z21" s="9">
         <v>0</v>
       </c>
-      <c r="AA21" s="9">
-        <v>0</v>
+      <c r="AA21" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB21" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC21" s="6">
         <v>233.4</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AC21" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
+      <c r="AD21" s="12">
+        <v>1</v>
+      </c>
       <c r="AE21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
@@ -3553,17 +3636,20 @@
       <c r="AJ21" s="12">
         <v>0</v>
       </c>
-      <c r="AK21" s="12">
+      <c r="AK21" s="18">
         <v>0</v>
       </c>
       <c r="AL21" s="18">
         <v>0</v>
       </c>
-      <c r="AM21" s="18">
+      <c r="AM21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -3643,20 +3729,20 @@
       <c r="Z22" s="9">
         <v>0</v>
       </c>
-      <c r="AA22" s="9">
-        <v>0</v>
+      <c r="AA22" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB22" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC22" s="6">
         <v>242.95</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AC22" s="4">
         <v>0.04</v>
       </c>
+      <c r="AD22" s="12">
+        <v>1</v>
+      </c>
       <c r="AE22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="12">
         <v>0</v>
@@ -3673,17 +3759,20 @@
       <c r="AJ22" s="12">
         <v>0</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="18">
         <v>0</v>
       </c>
       <c r="AL22" s="18">
         <v>0</v>
       </c>
-      <c r="AM22" s="18">
+      <c r="AM22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3763,20 +3852,20 @@
       <c r="Z23" s="9">
         <v>0</v>
       </c>
-      <c r="AA23" s="9">
-        <v>0</v>
+      <c r="AA23" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB23" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC23" s="6">
         <v>253.64</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AC23" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
+      <c r="AD23" s="12">
+        <v>1</v>
+      </c>
       <c r="AE23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="12">
         <v>0</v>
@@ -3793,17 +3882,20 @@
       <c r="AJ23" s="12">
         <v>0</v>
       </c>
-      <c r="AK23" s="12">
+      <c r="AK23" s="18">
         <v>0</v>
       </c>
       <c r="AL23" s="18">
         <v>0</v>
       </c>
-      <c r="AM23" s="18">
+      <c r="AM23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -3883,20 +3975,20 @@
       <c r="Z24" s="9">
         <v>0</v>
       </c>
-      <c r="AA24" s="9">
-        <v>0</v>
+      <c r="AA24" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB24" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC24" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AC24" s="4">
         <v>4.4000000000000004E-2</v>
       </c>
+      <c r="AD24" s="12">
+        <v>1</v>
+      </c>
       <c r="AE24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="12">
         <v>0</v>
@@ -3913,17 +4005,20 @@
       <c r="AJ24" s="12">
         <v>0</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AK24" s="18">
         <v>0</v>
       </c>
       <c r="AL24" s="18">
         <v>0</v>
       </c>
-      <c r="AM24" s="18">
+      <c r="AM24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -4003,20 +4098,20 @@
       <c r="Z25" s="9">
         <v>0</v>
       </c>
-      <c r="AA25" s="9">
-        <v>0</v>
+      <c r="AA25" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB25" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC25" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AC25" s="4">
         <v>4.0999999999999995E-2</v>
       </c>
+      <c r="AD25" s="12">
+        <v>1</v>
+      </c>
       <c r="AE25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
@@ -4033,17 +4128,20 @@
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AK25" s="18">
         <v>0</v>
       </c>
       <c r="AL25" s="18">
         <v>0</v>
       </c>
-      <c r="AM25" s="18">
+      <c r="AM25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -4121,22 +4219,22 @@
         <v>70</v>
       </c>
       <c r="Z26" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB26" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC26" s="6">
         <v>289.99</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AC26" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AD26" s="12">
+        <v>1</v>
+      </c>
       <c r="AE26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="12">
         <v>0</v>
@@ -4153,17 +4251,20 @@
       <c r="AJ26" s="12">
         <v>0</v>
       </c>
-      <c r="AK26" s="12">
+      <c r="AK26" s="18">
         <v>0</v>
       </c>
       <c r="AL26" s="18">
         <v>0</v>
       </c>
-      <c r="AM26" s="18">
+      <c r="AM26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -4241,22 +4342,22 @@
         <v>70</v>
       </c>
       <c r="Z27" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB27" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC27" s="6">
         <v>306.81</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AC27" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AD27" s="12">
+        <v>1</v>
+      </c>
       <c r="AE27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="12">
         <v>0</v>
@@ -4273,17 +4374,20 @@
       <c r="AJ27" s="12">
         <v>0</v>
       </c>
-      <c r="AK27" s="12">
+      <c r="AK27" s="18">
         <v>0</v>
       </c>
       <c r="AL27" s="18">
         <v>0</v>
       </c>
-      <c r="AM27" s="18">
+      <c r="AM27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -4361,22 +4465,22 @@
         <v>70</v>
       </c>
       <c r="Z28" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB28" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC28" s="6">
         <v>312.33</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AC28" s="4">
         <v>5.7999999999999996E-2</v>
       </c>
+      <c r="AD28" s="12">
+        <v>1</v>
+      </c>
       <c r="AE28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="12">
         <v>0</v>
@@ -4393,17 +4497,20 @@
       <c r="AJ28" s="12">
         <v>0</v>
       </c>
-      <c r="AK28" s="12">
+      <c r="AK28" s="18">
         <v>0</v>
       </c>
       <c r="AL28" s="18">
         <v>0</v>
       </c>
-      <c r="AM28" s="18">
+      <c r="AM28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -4481,22 +4588,22 @@
         <v>70</v>
       </c>
       <c r="Z29" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC29" s="6">
         <v>318.26</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AC29" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
+      <c r="AD29" s="12">
+        <v>1</v>
+      </c>
       <c r="AE29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="12">
         <v>0</v>
@@ -4513,17 +4620,20 @@
       <c r="AJ29" s="12">
         <v>0</v>
       </c>
-      <c r="AK29" s="12">
+      <c r="AK29" s="18">
         <v>0</v>
       </c>
       <c r="AL29" s="18">
         <v>0</v>
       </c>
-      <c r="AM29" s="18">
+      <c r="AM29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -4601,22 +4711,22 @@
         <v>70</v>
       </c>
       <c r="Z30" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC30" s="6">
         <v>318.26</v>
       </c>
-      <c r="AD30" s="4">
+      <c r="AC30" s="4">
         <v>1.9E-2</v>
       </c>
+      <c r="AD30" s="12">
+        <v>1</v>
+      </c>
       <c r="AE30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="12">
         <v>0</v>
@@ -4633,17 +4743,20 @@
       <c r="AJ30" s="12">
         <v>0</v>
       </c>
-      <c r="AK30" s="12">
+      <c r="AK30" s="18">
         <v>0</v>
       </c>
       <c r="AL30" s="18">
         <v>0</v>
       </c>
-      <c r="AM30" s="18">
+      <c r="AM30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -4721,22 +4834,22 @@
         <v>70</v>
       </c>
       <c r="Z31" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB31" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC31" s="6">
         <v>325.58</v>
       </c>
-      <c r="AD31" s="4">
-        <v>0</v>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>1</v>
       </c>
       <c r="AE31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="12">
         <v>0</v>
@@ -4753,17 +4866,20 @@
       <c r="AJ31" s="12">
         <v>0</v>
       </c>
-      <c r="AK31" s="12">
+      <c r="AK31" s="18">
         <v>0</v>
       </c>
       <c r="AL31" s="18">
         <v>0</v>
       </c>
-      <c r="AM31" s="18">
+      <c r="AM31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -4841,22 +4957,22 @@
         <v>70</v>
       </c>
       <c r="Z32" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB32" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC32" s="6">
         <v>330.46</v>
       </c>
-      <c r="AD32" s="4">
+      <c r="AC32" s="4">
         <v>2.3E-2</v>
       </c>
+      <c r="AD32" s="12">
+        <v>1</v>
+      </c>
       <c r="AE32" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="12">
         <v>0</v>
@@ -4873,17 +4989,20 @@
       <c r="AJ32" s="12">
         <v>0</v>
       </c>
-      <c r="AK32" s="12">
+      <c r="AK32" s="18">
         <v>0</v>
       </c>
       <c r="AL32" s="18">
         <v>0</v>
       </c>
-      <c r="AM32" s="18">
+      <c r="AM32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -4961,22 +5080,22 @@
         <v>70</v>
       </c>
       <c r="Z33" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA33" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB33" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC33" s="6">
         <v>336.74</v>
       </c>
-      <c r="AD33" s="4">
+      <c r="AC33" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AD33" s="12">
+        <v>1</v>
+      </c>
       <c r="AE33" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="12">
         <v>0</v>
@@ -4993,17 +5112,20 @@
       <c r="AJ33" s="12">
         <v>0</v>
       </c>
-      <c r="AK33" s="12">
+      <c r="AK33" s="18">
         <v>0</v>
       </c>
       <c r="AL33" s="18">
         <v>0</v>
       </c>
-      <c r="AM33" s="18">
+      <c r="AM33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -5081,22 +5203,22 @@
         <v>70</v>
       </c>
       <c r="Z34" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA34" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB34" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC34" s="6">
         <v>339.77</v>
       </c>
-      <c r="AD34" s="4">
+      <c r="AC34" s="4">
         <v>1.9E-2</v>
       </c>
+      <c r="AD34" s="12">
+        <v>1</v>
+      </c>
       <c r="AE34" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="12">
         <v>0</v>
@@ -5113,17 +5235,20 @@
       <c r="AJ34" s="12">
         <v>0</v>
       </c>
-      <c r="AK34" s="12">
+      <c r="AK34" s="18">
         <v>0</v>
       </c>
       <c r="AL34" s="18">
         <v>0</v>
       </c>
-      <c r="AM34" s="18">
+      <c r="AM34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -5201,22 +5326,22 @@
         <v>70</v>
       </c>
       <c r="Z35" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB35" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC35" s="6">
         <v>345.21</v>
       </c>
-      <c r="AD35" s="4">
+      <c r="AC35" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
+      <c r="AD35" s="12">
+        <v>1</v>
+      </c>
       <c r="AE35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="12">
         <v>0</v>
@@ -5233,17 +5358,20 @@
       <c r="AJ35" s="12">
         <v>0</v>
       </c>
-      <c r="AK35" s="12">
+      <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
         <v>0</v>
       </c>
-      <c r="AM35" s="18">
+      <c r="AM35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -5321,22 +5449,22 @@
         <v>70</v>
       </c>
       <c r="Z36" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC36" s="6">
         <v>353.84</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AC36" s="4">
         <v>1.6E-2</v>
       </c>
+      <c r="AD36" s="12">
+        <v>1</v>
+      </c>
       <c r="AE36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="12">
         <v>0</v>
@@ -5353,17 +5481,20 @@
       <c r="AJ36" s="12">
         <v>0</v>
       </c>
-      <c r="AK36" s="12">
+      <c r="AK36" s="18">
         <v>0</v>
       </c>
       <c r="AL36" s="18">
         <v>0</v>
       </c>
-      <c r="AM36" s="18">
+      <c r="AM36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -5441,22 +5572,22 @@
         <v>70</v>
       </c>
       <c r="Z37" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA37" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB37" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC37" s="6">
         <v>364.46</v>
       </c>
-      <c r="AD37" s="4">
+      <c r="AC37" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AD37" s="12">
+        <v>1</v>
+      </c>
       <c r="AE37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="12">
         <v>0</v>
@@ -5473,17 +5604,20 @@
       <c r="AJ37" s="12">
         <v>0</v>
       </c>
-      <c r="AK37" s="12">
+      <c r="AK37" s="18">
         <v>0</v>
       </c>
       <c r="AL37" s="18">
         <v>0</v>
       </c>
-      <c r="AM37" s="18">
+      <c r="AM37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -5561,22 +5695,22 @@
         <v>70</v>
       </c>
       <c r="Z38" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB38" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC38" s="6">
         <v>370.29</v>
       </c>
-      <c r="AD38" s="4">
+      <c r="AC38" s="4">
         <v>0.03</v>
       </c>
+      <c r="AD38" s="12">
+        <v>1</v>
+      </c>
       <c r="AE38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="12">
         <v>0</v>
@@ -5593,17 +5727,20 @@
       <c r="AJ38" s="12">
         <v>0</v>
       </c>
-      <c r="AK38" s="12">
+      <c r="AK38" s="18">
         <v>0</v>
       </c>
       <c r="AL38" s="18">
         <v>0</v>
       </c>
-      <c r="AM38" s="18">
+      <c r="AM38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -5681,22 +5818,22 @@
         <v>70</v>
       </c>
       <c r="Z39" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB39" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC39" s="6">
         <v>382.14</v>
       </c>
-      <c r="AD39" s="4">
+      <c r="AC39" s="4">
         <v>1.6E-2</v>
       </c>
+      <c r="AD39" s="12">
+        <v>1</v>
+      </c>
       <c r="AE39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
@@ -5713,17 +5850,20 @@
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
-      <c r="AK39" s="12">
+      <c r="AK39" s="18">
         <v>0</v>
       </c>
       <c r="AL39" s="18">
         <v>0</v>
       </c>
-      <c r="AM39" s="18">
+      <c r="AM39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -5801,22 +5941,22 @@
         <v>70</v>
       </c>
       <c r="Z40" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB40" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC40" s="6">
         <v>388.64</v>
       </c>
-      <c r="AD40" s="4">
+      <c r="AC40" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="AD40" s="12">
+        <v>1</v>
+      </c>
       <c r="AE40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="12">
         <v>0</v>
@@ -5833,17 +5973,20 @@
       <c r="AJ40" s="12">
         <v>0</v>
       </c>
-      <c r="AK40" s="12">
+      <c r="AK40" s="18">
         <v>0</v>
       </c>
       <c r="AL40" s="18">
         <v>0</v>
       </c>
-      <c r="AM40" s="18">
+      <c r="AM40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -5921,22 +6064,22 @@
         <v>70</v>
       </c>
       <c r="Z41" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA41" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB41" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC41" s="6">
         <v>397.58</v>
       </c>
-      <c r="AD41" s="4">
+      <c r="AC41" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AD41" s="12">
+        <v>1</v>
+      </c>
       <c r="AE41" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="12">
         <v>0</v>
@@ -5953,17 +6096,20 @@
       <c r="AJ41" s="12">
         <v>0</v>
       </c>
-      <c r="AK41" s="12">
+      <c r="AK41" s="18">
         <v>0</v>
       </c>
       <c r="AL41" s="18">
         <v>0</v>
       </c>
-      <c r="AM41" s="18">
+      <c r="AM41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -6041,22 +6187,22 @@
         <v>70</v>
       </c>
       <c r="Z42" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC42" s="6">
         <v>405.93</v>
       </c>
-      <c r="AD42" s="4">
+      <c r="AC42" s="4">
         <v>2.3E-2</v>
       </c>
+      <c r="AD42" s="12">
+        <v>1</v>
+      </c>
       <c r="AE42" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="12">
         <v>0</v>
@@ -6073,17 +6219,20 @@
       <c r="AJ42" s="12">
         <v>0</v>
       </c>
-      <c r="AK42" s="12">
+      <c r="AK42" s="18">
         <v>0</v>
       </c>
       <c r="AL42" s="18">
         <v>0</v>
       </c>
-      <c r="AM42" s="18">
+      <c r="AM42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -6161,22 +6310,22 @@
         <v>70</v>
       </c>
       <c r="Z43" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB43" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC43" s="6">
         <v>414.05</v>
       </c>
-      <c r="AD43" s="4">
+      <c r="AC43" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="AD43" s="12">
+        <v>1</v>
+      </c>
       <c r="AE43" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="12">
         <v>0</v>
@@ -6193,17 +6342,20 @@
       <c r="AJ43" s="12">
         <v>0</v>
       </c>
-      <c r="AK43" s="12">
+      <c r="AK43" s="18">
         <v>0</v>
       </c>
       <c r="AL43" s="18">
         <v>0</v>
       </c>
-      <c r="AM43" s="18">
+      <c r="AM43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -6281,22 +6433,22 @@
         <v>70</v>
       </c>
       <c r="Z44" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>0.75</v>
       </c>
       <c r="AB44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC44" s="6">
         <v>424.4</v>
       </c>
-      <c r="AD44" s="4">
+      <c r="AC44" s="4">
         <v>0.02</v>
       </c>
+      <c r="AD44" s="12">
+        <v>1</v>
+      </c>
       <c r="AE44" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="12">
         <v>0</v>
@@ -6313,17 +6465,20 @@
       <c r="AJ44" s="12">
         <v>0</v>
       </c>
-      <c r="AK44" s="12">
+      <c r="AK44" s="18">
         <v>0</v>
       </c>
       <c r="AL44" s="18">
         <v>0</v>
       </c>
-      <c r="AM44" s="18">
+      <c r="AM44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -6401,22 +6556,22 @@
         <v>70</v>
       </c>
       <c r="Z45" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA45" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA45" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC45" s="6">
         <v>426.1</v>
       </c>
-      <c r="AD45" s="4">
+      <c r="AC45" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AD45" s="12">
+        <v>1</v>
+      </c>
       <c r="AE45" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="12">
         <v>0</v>
@@ -6433,17 +6588,20 @@
       <c r="AJ45" s="12">
         <v>0</v>
       </c>
-      <c r="AK45" s="12">
+      <c r="AK45" s="18">
         <v>0</v>
       </c>
       <c r="AL45" s="18">
         <v>0</v>
       </c>
-      <c r="AM45" s="18">
+      <c r="AM45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -6521,22 +6679,22 @@
         <v>70</v>
       </c>
       <c r="Z46" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA46" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA46" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB46" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC46" s="6">
         <v>433.34</v>
       </c>
-      <c r="AD46" s="4">
+      <c r="AC46" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AD46" s="12">
+        <v>1</v>
+      </c>
       <c r="AE46" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="12">
         <v>0</v>
@@ -6553,17 +6711,20 @@
       <c r="AJ46" s="12">
         <v>0</v>
       </c>
-      <c r="AK46" s="12">
+      <c r="AK46" s="18">
         <v>0</v>
       </c>
       <c r="AL46" s="18">
         <v>0</v>
       </c>
-      <c r="AM46" s="18">
+      <c r="AM46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -6641,22 +6802,22 @@
         <v>70</v>
       </c>
       <c r="Z47" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA47" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA47" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC47" s="6">
         <v>445.47</v>
       </c>
-      <c r="AD47" s="4">
+      <c r="AC47" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AD47" s="12">
+        <v>1</v>
+      </c>
       <c r="AE47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="12">
         <v>0</v>
@@ -6673,17 +6834,20 @@
       <c r="AJ47" s="12">
         <v>0</v>
       </c>
-      <c r="AK47" s="12">
+      <c r="AK47" s="18">
         <v>0</v>
       </c>
       <c r="AL47" s="18">
         <v>0</v>
       </c>
-      <c r="AM47" s="18">
+      <c r="AM47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -6761,22 +6925,22 @@
         <v>70</v>
       </c>
       <c r="Z48" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA48" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA48" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB48" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC48" s="6">
         <v>453.49</v>
       </c>
-      <c r="AD48" s="4">
+      <c r="AC48" s="4">
         <v>2.7999999999999997E-2</v>
       </c>
+      <c r="AD48" s="12">
+        <v>1</v>
+      </c>
       <c r="AE48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="12">
         <v>0</v>
@@ -6793,17 +6957,20 @@
       <c r="AJ48" s="12">
         <v>0</v>
       </c>
-      <c r="AK48" s="12">
+      <c r="AK48" s="18">
         <v>0</v>
       </c>
       <c r="AL48" s="18">
         <v>0</v>
       </c>
-      <c r="AM48" s="18">
+      <c r="AM48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -6881,22 +7048,22 @@
         <v>70</v>
       </c>
       <c r="Z49" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AA49" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA49" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB49" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC49" s="6">
         <v>457.57</v>
       </c>
-      <c r="AD49" s="4">
+      <c r="AC49" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
+      <c r="AD49" s="12">
+        <v>1</v>
+      </c>
       <c r="AE49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="12">
         <v>0</v>
@@ -6913,17 +7080,20 @@
       <c r="AJ49" s="12">
         <v>0</v>
       </c>
-      <c r="AK49" s="12">
+      <c r="AK49" s="18">
         <v>0</v>
       </c>
       <c r="AL49" s="18">
         <v>0</v>
       </c>
-      <c r="AM49" s="18">
+      <c r="AM49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -7001,22 +7171,22 @@
         <v>70</v>
       </c>
       <c r="Z50" s="9">
-        <v>100</v>
-      </c>
-      <c r="AA50" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA50" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB50" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC50" s="6">
         <v>465.81</v>
       </c>
-      <c r="AD50" s="4">
+      <c r="AC50" s="4">
         <v>9.0000000000000011E-3</v>
       </c>
+      <c r="AD50" s="12">
+        <v>1</v>
+      </c>
       <c r="AE50" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="12">
         <v>0</v>
@@ -7033,17 +7203,20 @@
       <c r="AJ50" s="12">
         <v>0</v>
       </c>
-      <c r="AK50" s="12">
+      <c r="AK50" s="18">
         <v>0</v>
       </c>
       <c r="AL50" s="18">
         <v>0</v>
       </c>
-      <c r="AM50" s="18">
+      <c r="AM50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -7122,22 +7295,22 @@
         <v>70</v>
       </c>
       <c r="Z51" s="9">
-        <v>100</v>
-      </c>
-      <c r="AA51" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA51" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB51" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC51" s="6">
         <v>471.4</v>
       </c>
-      <c r="AD51" s="4">
+      <c r="AC51" s="4">
         <v>1.8000000000000002E-2</v>
       </c>
+      <c r="AD51" s="12">
+        <v>1</v>
+      </c>
       <c r="AE51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="12">
         <v>0</v>
@@ -7154,17 +7327,20 @@
       <c r="AJ51" s="12">
         <v>0</v>
       </c>
-      <c r="AK51" s="12">
+      <c r="AK51" s="18">
         <v>0</v>
       </c>
       <c r="AL51" s="18">
         <v>0</v>
       </c>
-      <c r="AM51" s="18">
+      <c r="AM51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -7242,22 +7418,22 @@
         <v>70</v>
       </c>
       <c r="Z52" s="9">
-        <v>100</v>
-      </c>
-      <c r="AA52" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA52" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB52" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC52" s="6">
         <v>471.4</v>
       </c>
-      <c r="AD52" s="4">
+      <c r="AC52" s="4">
         <v>1.2E-2</v>
       </c>
+      <c r="AD52" s="12">
+        <v>1</v>
+      </c>
       <c r="AE52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="12">
         <v>0</v>
@@ -7274,17 +7450,20 @@
       <c r="AJ52" s="12">
         <v>0</v>
       </c>
-      <c r="AK52" s="12">
+      <c r="AK52" s="18">
         <v>0</v>
       </c>
       <c r="AL52" s="18">
         <v>0</v>
       </c>
-      <c r="AM52" s="18">
+      <c r="AM52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -7362,22 +7541,22 @@
         <v>70</v>
       </c>
       <c r="Z53" s="9">
-        <v>100</v>
-      </c>
-      <c r="AA53" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA53" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB53" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC53" s="6">
         <v>478</v>
       </c>
-      <c r="AD53" s="4">
+      <c r="AC53" s="4">
         <v>1.3999999999999999E-2</v>
       </c>
+      <c r="AD53" s="12">
+        <v>1</v>
+      </c>
       <c r="AE53" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="12">
         <v>0</v>
@@ -7394,17 +7573,20 @@
       <c r="AJ53" s="12">
         <v>0</v>
       </c>
-      <c r="AK53" s="12">
+      <c r="AK53" s="18">
         <v>0</v>
       </c>
       <c r="AL53" s="18">
         <v>0</v>
       </c>
-      <c r="AM53" s="18">
+      <c r="AM53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -7482,22 +7664,22 @@
         <v>70</v>
       </c>
       <c r="Z54" s="9">
-        <v>100</v>
-      </c>
-      <c r="AA54" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AA54" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AB54" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AC54" s="6">
         <v>485.17</v>
       </c>
-      <c r="AD54" s="4">
+      <c r="AC54" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AD54" s="12">
+        <v>1</v>
+      </c>
       <c r="AE54" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="12">
         <v>0</v>
@@ -7514,17 +7696,20 @@
       <c r="AJ54" s="12">
         <v>0</v>
       </c>
-      <c r="AK54" s="12">
+      <c r="AK54" s="18">
         <v>0</v>
       </c>
       <c r="AL54" s="18">
         <v>0</v>
       </c>
-      <c r="AM54" s="18">
+      <c r="AM54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>2019</v>
       </c>
@@ -7600,46 +7785,53 @@
       <c r="Y55" s="11">
         <v>70</v>
       </c>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
+      <c r="Z55" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB55" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC55" s="11">
         <v>496.36</v>
       </c>
-      <c r="AD55" s="17">
+      <c r="AC55" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="AE55" s="12">
+      <c r="AD55" s="12">
         <v>1</v>
       </c>
-      <c r="AF55" s="17">
+      <c r="AE55" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="AG55" s="11">
+      <c r="AF55" s="11">
         <v>1.5E-3</v>
       </c>
+      <c r="AG55" s="12">
+        <v>0</v>
+      </c>
       <c r="AH55" s="12">
         <v>0</v>
       </c>
-      <c r="AI55" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="11">
+      <c r="AI55" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AK55" s="12">
-        <v>0</v>
+      <c r="AJ55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="19">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AL55" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM55" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM55" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN55" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>2020</v>
       </c>
@@ -7722,47 +7914,54 @@
       <c r="Y56" s="11">
         <v>70</v>
       </c>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
+      <c r="Z56" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB56" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC56" s="11">
-        <f>AC55*1.03</f>
+        <f>AB55*1.03</f>
         <v>511.25080000000003</v>
       </c>
-      <c r="AD56" s="17">
+      <c r="AC56" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE56" s="12">
+      <c r="AD56" s="12">
         <v>1</v>
       </c>
-      <c r="AF56" s="17">
+      <c r="AE56" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG56" s="11">
+      <c r="AF56" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AG56" s="12">
+        <v>0</v>
+      </c>
       <c r="AH56" s="12">
         <v>0</v>
       </c>
-      <c r="AI56" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="11">
+      <c r="AI56" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AK56" s="12">
-        <v>0</v>
+      <c r="AJ56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="19">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AL56" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM56" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM56" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN56" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>2021</v>
       </c>
@@ -7845,47 +8044,54 @@
       <c r="Y57" s="11">
         <v>70</v>
       </c>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
+      <c r="Z57" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB57" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC57" s="11">
-        <f t="shared" ref="AC57:AC61" si="8">AC56*1.03</f>
+        <f t="shared" ref="AB57:AB61" si="8">AB56*1.03</f>
         <v>526.58832400000006</v>
       </c>
-      <c r="AD57" s="17">
+      <c r="AC57" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE57" s="12">
+      <c r="AD57" s="12">
         <v>1</v>
       </c>
-      <c r="AF57" s="17">
+      <c r="AE57" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG57" s="11">
+      <c r="AF57" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AG57" s="12">
+        <v>0</v>
+      </c>
       <c r="AH57" s="12">
         <v>0</v>
       </c>
-      <c r="AI57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="11">
+      <c r="AI57" s="11">
         <v>0.01</v>
       </c>
-      <c r="AK57" s="12">
-        <v>0</v>
+      <c r="AJ57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="19">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AL57" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM57" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM57" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN57" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>2022</v>
       </c>
@@ -7968,47 +8174,54 @@
       <c r="Y58" s="11">
         <v>70</v>
       </c>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
+      <c r="Z58" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB58" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC58" s="11">
         <f t="shared" si="8"/>
         <v>542.38597372000004</v>
       </c>
-      <c r="AD58" s="17">
+      <c r="AC58" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE58" s="12">
+      <c r="AD58" s="12">
         <v>1</v>
       </c>
-      <c r="AF58" s="17">
+      <c r="AE58" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AG58" s="11">
+      <c r="AF58" s="11">
         <v>7.4999999999999997E-3</v>
       </c>
+      <c r="AG58" s="12">
+        <v>0</v>
+      </c>
       <c r="AH58" s="12">
         <v>0</v>
       </c>
-      <c r="AI58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="11">
+      <c r="AI58" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AK58" s="12">
-        <v>0</v>
+      <c r="AJ58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="19">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AL58" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM58" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM58" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN58" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>2023</v>
       </c>
@@ -8091,47 +8304,54 @@
       <c r="Y59" s="11">
         <v>70</v>
       </c>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
+      <c r="Z59" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB59" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC59" s="11">
         <f t="shared" si="8"/>
         <v>558.65755293160009</v>
       </c>
-      <c r="AD59" s="17">
+      <c r="AC59" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE59" s="12">
+      <c r="AD59" s="12">
         <v>1</v>
       </c>
-      <c r="AF59" s="17">
+      <c r="AE59" s="17">
         <v>0.01</v>
       </c>
-      <c r="AG59" s="11">
+      <c r="AF59" s="11">
         <v>0.01</v>
       </c>
+      <c r="AG59" s="12">
+        <v>0</v>
+      </c>
       <c r="AH59" s="12">
         <v>0</v>
       </c>
-      <c r="AI59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="11">
+      <c r="AI59" s="11">
         <v>0.02</v>
       </c>
-      <c r="AK59" s="12">
-        <v>0</v>
+      <c r="AJ59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="19">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AL59" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM59" s="19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN59" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>2024</v>
       </c>
@@ -8214,47 +8434,54 @@
       <c r="Y60" s="11">
         <v>70</v>
       </c>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
+      <c r="Z60" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB60" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC60" s="11">
         <f t="shared" si="8"/>
         <v>575.41727951954806</v>
       </c>
-      <c r="AD60" s="17">
+      <c r="AC60" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE60" s="11">
+      <c r="AD60" s="11">
         <v>1.07</v>
       </c>
-      <c r="AF60" s="17">
+      <c r="AE60" s="17">
         <v>0.01</v>
       </c>
+      <c r="AF60" s="11">
+        <v>0.01</v>
+      </c>
       <c r="AG60" s="11">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AH60" s="11">
         <v>0.04</v>
       </c>
       <c r="AI60" s="11">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AJ60" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="AK60" s="11">
         <v>0.08</v>
       </c>
+      <c r="AK60" s="19">
+        <v>8.3299999999999999E-2</v>
+      </c>
       <c r="AL60" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM60" s="19">
         <v>0.33329999999999999</v>
       </c>
+      <c r="AM60" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN60" s="10">
+        <v>6.6E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>2025</v>
       </c>
@@ -8337,44 +8564,51 @@
       <c r="Y61" s="11">
         <v>70</v>
       </c>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
+      <c r="Z61" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>0.75</v>
+      </c>
       <c r="AB61" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="AC61" s="11">
         <f t="shared" si="8"/>
         <v>592.67979790513448</v>
       </c>
-      <c r="AD61" s="17">
+      <c r="AC61" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AE61" s="11">
+      <c r="AD61" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AF61" s="17">
+      <c r="AE61" s="17">
         <v>0.01</v>
       </c>
+      <c r="AF61" s="11">
+        <v>0.01</v>
+      </c>
       <c r="AG61" s="11">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AH61" s="11">
         <v>0.04</v>
       </c>
       <c r="AI61" s="11">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AJ61" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="AK61" s="11">
         <v>0.08</v>
       </c>
+      <c r="AK61" s="19">
+        <v>8.3299999999999999E-2</v>
+      </c>
       <c r="AL61" s="19">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AM61" s="19">
         <v>0.33329999999999999</v>
+      </c>
+      <c r="AM61" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AN61" s="10">
+        <v>6.6E-3</v>
       </c>
     </row>
   </sheetData>
